--- a/STG.CO.xlsx
+++ b/STG.CO.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4BC3A-C904-4647-8E85-2207F12D7FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34664802-D7D0-4950-93E5-ECCB91132400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{BD75BBDC-C4FD-4EC4-8461-B3C83FDDB12A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="3" xr2:uid="{BD75BBDC-C4FD-4EC4-8461-B3C83FDDB12A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="KPI" sheetId="3" r:id="rId3"/>
+    <sheet name="DCF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
   <si>
     <t>Scandivian Tobacco</t>
   </si>
@@ -143,16 +167,420 @@
   <si>
     <t>Staff</t>
   </si>
+  <si>
+    <t>Handmade cigars</t>
+  </si>
+  <si>
+    <t>Machine-rolled cigars</t>
+  </si>
+  <si>
+    <t>Next Gen Prod</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>HQ: Denmark, Genftote</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>Share Price (EoY)</t>
+  </si>
+  <si>
+    <t>Shares outstanding</t>
+  </si>
+  <si>
+    <t>CEO: Niels Frederiksen</t>
+  </si>
+  <si>
+    <t>Sgments</t>
+  </si>
+  <si>
+    <t>Value Chain</t>
+  </si>
+  <si>
+    <t>Employee Count (2024)</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Trademarks</t>
+  </si>
+  <si>
+    <t>IT Software</t>
+  </si>
+  <si>
+    <t>Other Intangibles</t>
+  </si>
+  <si>
+    <t>Intangivles under Construction</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>Investment in associated comp.</t>
+  </si>
+  <si>
+    <t>Deffered income Taxes</t>
+  </si>
+  <si>
+    <t>Non-Current Assets</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Trade Receivables</t>
+  </si>
+  <si>
+    <t>Other Receivables</t>
+  </si>
+  <si>
+    <t>Corporate Tax</t>
+  </si>
+  <si>
+    <t>Repayments</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Equity &amp; Liabilities</t>
+  </si>
+  <si>
+    <t>Borrowings</t>
+  </si>
+  <si>
+    <t>Pension obligations</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Non-Current Liabilities</t>
+  </si>
+  <si>
+    <t>Trade Payables</t>
+  </si>
+  <si>
+    <t>Current Liabilties</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>D&amp;A &amp; Impairments</t>
+  </si>
+  <si>
+    <t>Adjustments</t>
+  </si>
+  <si>
+    <t>Changes in WC</t>
+  </si>
+  <si>
+    <t>Special Items</t>
+  </si>
+  <si>
+    <t>Financial Cost</t>
+  </si>
+  <si>
+    <t>Tax Payments</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Investments in intangibles</t>
+  </si>
+  <si>
+    <t>Investments in PP&amp;E</t>
+  </si>
+  <si>
+    <t>Sale of PP&amp;E</t>
+  </si>
+  <si>
+    <t>Dividends from ass. Companies</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Repayment of Leases</t>
+  </si>
+  <si>
+    <t>RCF and bank loans</t>
+  </si>
+  <si>
+    <t>Bond Issuance</t>
+  </si>
+  <si>
+    <t>Repurchase of Bonds</t>
+  </si>
+  <si>
+    <t>Repayment of Bank Loans</t>
+  </si>
+  <si>
+    <t>Dividend payment</t>
+  </si>
+  <si>
+    <t>Purchase of treasury stocks</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>FX Effect</t>
+  </si>
+  <si>
+    <t>Change in Cash</t>
+  </si>
+  <si>
+    <t>Cash BoP</t>
+  </si>
+  <si>
+    <t>Cash EoP</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>Handmade cigars growth</t>
+  </si>
+  <si>
+    <t>Machine-rolled growth</t>
+  </si>
+  <si>
+    <t>Net Gen Growth</t>
+  </si>
+  <si>
+    <t>Other Growth</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>DCF</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Fair Share Price</t>
+  </si>
+  <si>
+    <t>Scneario DCF Price</t>
+  </si>
+  <si>
+    <t>End of FY</t>
+  </si>
+  <si>
+    <t>Implied Upside</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Conservative Case</t>
+  </si>
+  <si>
+    <t>Base Case</t>
+  </si>
+  <si>
+    <t>Optimistic Case</t>
+  </si>
+  <si>
+    <t>Assuptions</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Metic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revenue </t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Implied Share Price</t>
+  </si>
+  <si>
+    <t>TGR</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>Implied Share Price * p</t>
+  </si>
+  <si>
+    <t>Valuation</t>
+  </si>
+  <si>
+    <t>RONIC</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Growth (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base Case </t>
+  </si>
+  <si>
+    <t>Optimisitic Case</t>
+  </si>
+  <si>
+    <t>% of Sales</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Tax Rate (%)</t>
+  </si>
+  <si>
+    <t>Nopat</t>
+  </si>
+  <si>
+    <t>D&amp;A and other non-cash Expenses</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Change in WC</t>
+  </si>
+  <si>
+    <t>Unlevered Free Cashflow</t>
+  </si>
+  <si>
+    <t>Present Value of unlevered FC</t>
+  </si>
+  <si>
+    <t>Discount Period</t>
+  </si>
+  <si>
+    <t>Sum of Present Value</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>=&gt; CV(t) = NOPAT(t+1)*(1-g/RONIC)/(WACC - g) =&gt; equal pertuity formula: CV = FCF*(1+g) /(WACC-g)</t>
+  </si>
+  <si>
+    <t>Present Value of TV</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>(+) Cash and other non-operating assets</t>
+  </si>
+  <si>
+    <t>(-) Debt and other non-equity claims</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Shares </t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>ROINC</t>
+  </si>
+  <si>
+    <t>STG-CO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="&quot;FY&quot;0&quot;A&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -181,16 +609,107 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1E9D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -198,12 +717,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -214,12 +914,167 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -230,6 +1085,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41137</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3DF790-3A00-1C34-4AFD-B8C704AB2076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="2752726"/>
+          <a:ext cx="1869937" cy="1481138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>29770</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5A474F-C363-7EA3-25B7-65AD472F9306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="4695825"/>
+          <a:ext cx="8564170" cy="2610214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC431C7-7A00-4FF7-9B14-9CC6DBF12725}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -611,6 +1559,13 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
       <c r="I6" t="s">
         <v>6</v>
       </c>
@@ -623,6 +1578,13 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -631,6 +1593,41 @@
         <v>11979.357500000002</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -639,6 +1636,19 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14" s="21">
+        <v>10219</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -647,18 +1657,19 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A8E8A0-8674-4392-9CB4-751825DBF326}">
-  <dimension ref="A1:BI441"/>
+  <dimension ref="A1:BI455"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="B32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -697,8 +1708,23 @@
       <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="M2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -711,8 +1737,12 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="6">
+        <v>4745.8</v>
+      </c>
+      <c r="P3" s="6">
+        <v>4911.8999999999996</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -759,97 +1789,96 @@
       <c r="BH3" s="6"/>
       <c r="BI3" s="6"/>
     </row>
-    <row r="4" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
-        <v>2365.8000000000002</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>2361.4</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="7"/>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>3459.6</v>
+      </c>
+      <c r="P4" s="6">
+        <v>3756.2</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6">
-        <v>1256.5999999999999</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <v>1298</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="O5" s="6">
+        <v>525.5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>534</v>
+      </c>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -898,40 +1927,26 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" ref="C6:G6" si="0">+C4-C5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>1109.2000000000003</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <f>+H4-H5</f>
-        <v>1063.4000000000001</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="O6" s="6">
+        <v>3235.9</v>
+      </c>
+      <c r="P6" s="6">
+        <v>3299.5</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -980,26 +1995,26 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>288.7</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6">
-        <v>277</v>
-      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="O7" s="6">
+        <v>4294.5</v>
+      </c>
+      <c r="P7" s="6">
+        <v>4431.2</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1048,26 +2063,26 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>255.8</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6">
-        <v>294.2</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="O8" s="6">
+        <v>193.3</v>
+      </c>
+      <c r="P8" s="6">
+        <v>420.9</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1116,26 +2131,26 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>15.8</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6">
-        <v>6.9</v>
-      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="O9" s="6">
+        <v>1007.2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1050.5</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1182,103 +2197,100 @@
       <c r="BH9" s="6"/>
       <c r="BI9" s="6"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <f>54.1+44.2+52.8</f>
-        <v>151.10000000000002</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <f>61.4+49+34.7</f>
-        <v>145.10000000000002</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
-      <c r="AP10" s="6"/>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="6"/>
-      <c r="AT10" s="6"/>
-      <c r="AU10" s="6"/>
-      <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="6"/>
-      <c r="BB10" s="6"/>
-      <c r="BC10" s="6"/>
-      <c r="BD10" s="6"/>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="6"/>
-      <c r="BH10" s="6"/>
-      <c r="BI10" s="6"/>
+    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1948.3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2365.8000000000002</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>1973.7</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2361.4</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>8730.9</v>
+      </c>
+      <c r="P10" s="7">
+        <v>9202.1</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" ref="C11:G11" si="1">+C6-SUM(C7:C8,C10)+C9</f>
-        <v>0</v>
+        <v>1067.0999999999999</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="1"/>
-        <v>429.40000000000026</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+        <v>1256.5999999999999</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="H11" s="6">
-        <f>+H6-SUM(H7:H8,H10)+H9</f>
-        <v>354</v>
+        <v>1298</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1286,8 +2298,12 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="O11" s="6">
+        <v>4526.8</v>
+      </c>
+      <c r="P11" s="6">
+        <v>4923.6000000000004</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1336,26 +2352,49 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ref="C12:G12" si="0">+C10-C11</f>
+        <v>881.2</v>
+      </c>
       <c r="D12" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+        <f t="shared" si="0"/>
+        <v>1109.2000000000003</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>866.7</v>
+      </c>
       <c r="H12" s="6">
-        <v>7.8</v>
+        <f>+H10-H11</f>
+        <v>1063.4000000000001</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="N12" s="6">
+        <f>+N10-N11</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <f>+O10-O11</f>
+        <v>4204.0999999999995</v>
+      </c>
+      <c r="P12" s="6">
+        <f>+P10-P11</f>
+        <v>4278.5</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1404,17 +2443,21 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="6">
+        <v>295.7</v>
+      </c>
       <c r="D13" s="6">
-        <v>16</v>
+        <v>288.7</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6">
+        <v>285.89999999999998</v>
+      </c>
       <c r="H13" s="6">
-        <v>18.899999999999999</v>
+        <v>277</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1422,8 +2465,12 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="O13" s="6">
+        <v>1142.5999999999999</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1190.8</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1472,17 +2519,21 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="C14" s="6">
+        <v>254.3</v>
+      </c>
       <c r="D14" s="6">
-        <v>68.599999999999994</v>
+        <v>255.8</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6">
+        <v>274.89999999999998</v>
+      </c>
       <c r="H14" s="6">
-        <v>85.9</v>
+        <v>294.2</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1490,8 +2541,12 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="O14" s="6">
+        <v>968</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1057.2</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1540,31 +2595,21 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:G15" si="2">+C11+C12+C13-C14</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="2"/>
-        <v>385.10000000000025</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>15.8</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="H15" s="6">
-        <f>+H11+H12+H13-H14</f>
-        <v>294.79999999999995</v>
+        <v>6.9</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1572,8 +2617,12 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+      <c r="O15" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="P15" s="6">
+        <v>48.5</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1622,17 +2671,25 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="6">
+        <f>53.1+43.9+29.8</f>
+        <v>126.8</v>
+      </c>
       <c r="D16" s="6">
-        <v>88.3</v>
+        <f>54.1+44.2+52.8</f>
+        <v>151.10000000000002</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6">
+        <f>63+48.3+69.8</f>
+        <v>181.1</v>
+      </c>
       <c r="H16" s="6">
-        <v>67.8</v>
+        <f>61.4+49+34.7</f>
+        <v>145.10000000000002</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1640,8 +2697,14 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="O16" s="6">
+        <f>201+174+92.4</f>
+        <v>467.4</v>
+      </c>
+      <c r="P16" s="6">
+        <f>236.3+183.5+279</f>
+        <v>698.8</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1690,40 +2753,52 @@
     </row>
     <row r="17" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" ref="C17:G17" si="3">+C15-C16</f>
+        <f t="shared" ref="C17:G17" si="1">+C12-SUM(C13:C14,C16)+C15</f>
+        <v>208.00000000000009</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>429.40000000000026</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" si="3"/>
-        <v>296.80000000000024</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="3"/>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>135.90000000000006</v>
       </c>
       <c r="H17" s="6">
-        <f>+H15-H16</f>
-        <v>226.99999999999994</v>
+        <f>+H12-SUM(H13:H14,H16)+H15</f>
+        <v>354</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="6">
+        <f t="shared" ref="M17:P17" si="2">+M12-SUM(M13:M14,M16)+M15</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="2"/>
+        <v>1638.2999999999995</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="2"/>
+        <v>1380.1999999999998</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -1771,20 +2846,35 @@
       <c r="BI17" s="6"/>
     </row>
     <row r="18" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7.8</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="O18" s="6">
+        <v>29.4</v>
+      </c>
+      <c r="P18" s="6">
+        <v>25.4</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -1833,22 +2923,34 @@
     </row>
     <row r="19" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C19" s="6">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6">
+        <v>16</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H19" s="6">
+        <v>18.899999999999999</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="O19" s="6">
+        <v>184.6</v>
+      </c>
+      <c r="P19" s="6">
+        <v>130.19999999999999</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -1897,22 +2999,34 @@
     </row>
     <row r="20" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="C20" s="6">
+        <v>69.2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>68.599999999999994</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="6">
+        <v>89</v>
+      </c>
+      <c r="H20" s="6">
+        <v>85.9</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="O20" s="6">
+        <v>361.5</v>
+      </c>
+      <c r="P20" s="6">
+        <v>316.5</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -1960,20 +3074,53 @@
       <c r="BI20" s="6"/>
     </row>
     <row r="21" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:G21" si="3">+C17+C18+C19-C20</f>
+        <v>158.90000000000009</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="3"/>
+        <v>385.10000000000025</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
+        <v>66.900000000000063</v>
+      </c>
+      <c r="H21" s="6">
+        <f>+H17+H18+H19-H20</f>
+        <v>294.79999999999995</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="M21" s="6">
+        <f t="shared" ref="M21:P21" si="4">+M17+M18+M19-M20</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="4"/>
+        <v>1490.7999999999995</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="4"/>
+        <v>1219.3</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2021,20 +3168,35 @@
       <c r="BI21" s="6"/>
     </row>
     <row r="22" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="6">
+        <v>34.1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>88.3</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="H22" s="6">
+        <v>67.8</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
+      <c r="O22" s="6">
+        <v>308.39999999999998</v>
+      </c>
+      <c r="P22" s="6">
+        <v>279.60000000000002</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -2082,20 +3244,53 @@
       <c r="BI22" s="6"/>
     </row>
     <row r="23" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ref="C23:G23" si="5">+C21-C22</f>
+        <v>124.8000000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="5"/>
+        <v>296.80000000000024</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="5"/>
+        <v>51.500000000000064</v>
+      </c>
+      <c r="H23" s="6">
+        <f>+H21-H22</f>
+        <v>226.99999999999994</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
+      <c r="M23" s="6">
+        <f t="shared" ref="M23:O23" si="6">+M21-M22</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="6"/>
+        <v>1182.3999999999996</v>
+      </c>
+      <c r="P23" s="6">
+        <f>+P21-P22</f>
+        <v>939.69999999999993</v>
+      </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2204,20 +3399,59 @@
       <c r="BI24" s="6"/>
     </row>
     <row r="25" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" ref="C25:F25" si="7">+C23/C26</f>
+        <v>1.4618204818853746</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="7"/>
+        <v>3.5185053465158767</v>
+      </c>
+      <c r="E25" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="6" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="6">
+        <f>+G23/G26</f>
+        <v>0.65323000038052315</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" ref="H25:J25" si="8">+H23/H26</f>
+        <v>2.8787014139876979</v>
+      </c>
+      <c r="I25" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="6" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
+      <c r="M25" s="6">
+        <f t="shared" ref="M25:O25" si="9">+M23/M26</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="9"/>
+        <v>13.642867032814875</v>
+      </c>
+      <c r="P25" s="6">
+        <f>+P23/P26</f>
+        <v>11.437160731238283</v>
+      </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -2265,20 +3499,39 @@
       <c r="BI25" s="6"/>
     </row>
     <row r="26" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>85.373000000000005</v>
+      </c>
+      <c r="D26" s="6">
+        <v>84.353999999999999</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="6">
+        <v>78.838999999999999</v>
+      </c>
+      <c r="H26" s="6">
+        <v>78.855000000000004</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
+      <c r="M26" s="6">
+        <v>95.688999999999993</v>
+      </c>
+      <c r="N26" s="6">
+        <v>90.850999999999999</v>
+      </c>
+      <c r="O26" s="6">
+        <v>86.668000000000006</v>
+      </c>
+      <c r="P26" s="6">
+        <v>82.162000000000006</v>
+      </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2387,6 +3640,9 @@
       <c r="BI27" s="6"/>
     </row>
     <row r="28" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2397,10 +3653,22 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
+      <c r="M28" s="23" t="e">
+        <f t="shared" ref="M28:P32" si="10">+M6/L6-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="23">
+        <f>+P6/O6-1</f>
+        <v>1.9654501066163954E-2</v>
+      </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -2448,6 +3716,9 @@
       <c r="BI28" s="6"/>
     </row>
     <row r="29" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2458,10 +3729,22 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+      <c r="M29" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="23">
+        <f t="shared" ref="P29:P32" si="11">+P7/O7-1</f>
+        <v>3.1831412271509985E-2</v>
+      </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2509,6 +3792,9 @@
       <c r="BI29" s="6"/>
     </row>
     <row r="30" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2519,10 +3805,22 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="M30" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="23">
+        <f t="shared" si="11"/>
+        <v>1.1774443869632694</v>
+      </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
@@ -2570,6 +3868,9 @@
       <c r="BI30" s="6"/>
     </row>
     <row r="31" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>110</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2580,10 +3881,22 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
+      <c r="M31" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="23" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="23">
+        <f t="shared" si="11"/>
+        <v>4.2990468625893508E-2</v>
+      </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
@@ -2631,20 +3944,41 @@
       <c r="BI31" s="6"/>
     </row>
     <row r="32" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="24">
+        <f>+G10/C10-1</f>
+        <v>1.3037006621156921E-2</v>
+      </c>
+      <c r="H32" s="24">
+        <f>+H10/D10-1</f>
+        <v>-1.8598359962803679E-3</v>
+      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
+      <c r="M32" s="24" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="24" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="24" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="24">
+        <f t="shared" si="11"/>
+        <v>5.3969235703077656E-2</v>
+      </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -2691,21 +4025,54 @@
       <c r="BH32" s="6"/>
       <c r="BI32" s="6"/>
     </row>
-    <row r="33" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+    <row r="33" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="23">
+        <f t="shared" ref="C33:H33" si="12">+C12/C10</f>
+        <v>0.45229174151824669</v>
+      </c>
+      <c r="D33" s="23">
+        <f t="shared" si="12"/>
+        <v>0.46884774706230459</v>
+      </c>
+      <c r="E33" s="23" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="23" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="23">
+        <f t="shared" si="12"/>
+        <v>0.439124487004104</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="12"/>
+        <v>0.450326077750487</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
+      <c r="M33" s="23" t="e">
+        <f t="shared" ref="M33:P33" si="13">+M12/M10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="23" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="23">
+        <f t="shared" si="13"/>
+        <v>0.48151966005795505</v>
+      </c>
+      <c r="P33" s="23">
+        <f>+P12/P10</f>
+        <v>0.46494821834146549</v>
+      </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -2752,21 +4119,54 @@
       <c r="BH33" s="6"/>
       <c r="BI33" s="6"/>
     </row>
-    <row r="34" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+    <row r="34" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="23">
+        <f t="shared" ref="C34:H34" si="14">+C17/C10</f>
+        <v>0.10675973925986762</v>
+      </c>
+      <c r="D34" s="23">
+        <f t="shared" si="14"/>
+        <v>0.18150308563699394</v>
+      </c>
+      <c r="E34" s="23" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="23" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="23">
+        <f t="shared" si="14"/>
+        <v>6.8855449156406776E-2</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" si="14"/>
+        <v>0.14991106970441262</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
+      <c r="M34" s="23" t="e">
+        <f t="shared" ref="M34:P34" si="15">+M17/M10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="23" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="23">
+        <f t="shared" si="15"/>
+        <v>0.18764388551008482</v>
+      </c>
+      <c r="P34" s="23">
+        <f>+P17/P10</f>
+        <v>0.1499875028526097</v>
+      </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -2813,21 +4213,54 @@
       <c r="BH34" s="6"/>
       <c r="BI34" s="6"/>
     </row>
-    <row r="35" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+    <row r="35" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="23">
+        <f t="shared" ref="C35:H35" si="16">+C22/C21</f>
+        <v>0.2146003775959722</v>
+      </c>
+      <c r="D35" s="23">
+        <f t="shared" si="16"/>
+        <v>0.22929109322253943</v>
+      </c>
+      <c r="E35" s="23" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="23" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="23">
+        <f t="shared" si="16"/>
+        <v>0.23019431988041833</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="16"/>
+        <v>0.22998643147896883</v>
+      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
+      <c r="M35" s="23" t="e">
+        <f t="shared" ref="M35:P35" si="17">+M22/M21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="23" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="23">
+        <f t="shared" si="17"/>
+        <v>0.2068687952777033</v>
+      </c>
+      <c r="P35" s="23">
+        <f>+P22/P21</f>
+        <v>0.22931190027064713</v>
+      </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -2874,7 +4307,7 @@
       <c r="BH35" s="6"/>
       <c r="BI35" s="6"/>
     </row>
-    <row r="36" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2935,7 +4368,10 @@
       <c r="BH36" s="6"/>
       <c r="BI36" s="6"/>
     </row>
-    <row r="37" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2948,8 +4384,12 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="O37" s="6">
+        <v>5235.6000000000004</v>
+      </c>
+      <c r="P37" s="6">
+        <v>5409.9</v>
+      </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
@@ -2996,7 +4436,10 @@
       <c r="BH37" s="6"/>
       <c r="BI37" s="6"/>
     </row>
-    <row r="38" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -3009,8 +4452,12 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
+      <c r="O38" s="6">
+        <v>3226.1</v>
+      </c>
+      <c r="P38" s="6">
+        <v>3224.1</v>
+      </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -3057,7 +4504,10 @@
       <c r="BH38" s="6"/>
       <c r="BI38" s="6"/>
     </row>
-    <row r="39" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -3070,8 +4520,12 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
+      <c r="O39" s="6">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="P39" s="6">
+        <v>65.3</v>
+      </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -3118,7 +4572,10 @@
       <c r="BH39" s="6"/>
       <c r="BI39" s="6"/>
     </row>
-    <row r="40" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -3131,8 +4588,12 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
+      <c r="O40" s="6">
+        <v>404</v>
+      </c>
+      <c r="P40" s="6">
+        <v>400</v>
+      </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -3179,7 +4640,10 @@
       <c r="BH40" s="6"/>
       <c r="BI40" s="6"/>
     </row>
-    <row r="41" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -3192,8 +4656,12 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
+      <c r="O41" s="6">
+        <v>183.1</v>
+      </c>
+      <c r="P41" s="6">
+        <v>215.5</v>
+      </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -3240,7 +4708,10 @@
       <c r="BH41" s="6"/>
       <c r="BI41" s="6"/>
     </row>
-    <row r="42" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -3253,8 +4724,12 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="O42" s="6">
+        <v>1475.1</v>
+      </c>
+      <c r="P42" s="6">
+        <v>1664.2</v>
+      </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -3301,7 +4776,10 @@
       <c r="BH42" s="6"/>
       <c r="BI42" s="6"/>
     </row>
-    <row r="43" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -3314,8 +4792,12 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+      <c r="O43" s="6">
+        <v>284.60000000000002</v>
+      </c>
+      <c r="P43" s="6">
+        <v>402.3</v>
+      </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3362,7 +4844,10 @@
       <c r="BH43" s="6"/>
       <c r="BI43" s="6"/>
     </row>
-    <row r="44" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -3375,8 +4860,12 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="O44" s="6">
+        <v>234</v>
+      </c>
+      <c r="P44" s="6">
+        <v>261.89999999999998</v>
+      </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3423,7 +4912,10 @@
       <c r="BH44" s="6"/>
       <c r="BI44" s="6"/>
     </row>
-    <row r="45" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -3436,8 +4928,12 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
+      <c r="O45" s="6">
+        <v>93.7</v>
+      </c>
+      <c r="P45" s="6">
+        <v>129.80000000000001</v>
+      </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -3484,7 +4980,10 @@
       <c r="BH45" s="6"/>
       <c r="BI45" s="6"/>
     </row>
-    <row r="46" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -3495,10 +4994,22 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
+      <c r="M46" s="6">
+        <f t="shared" ref="M46:O46" si="18">+SUM(M37:M45)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="18"/>
+        <v>11210.600000000002</v>
+      </c>
+      <c r="P46" s="6">
+        <f>+SUM(P37:P45)</f>
+        <v>11772.999999999998</v>
+      </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -3545,7 +5056,10 @@
       <c r="BH46" s="6"/>
       <c r="BI46" s="6"/>
     </row>
-    <row r="47" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -3558,8 +5072,12 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
+      <c r="O47" s="6">
+        <v>3269.6</v>
+      </c>
+      <c r="P47" s="6">
+        <v>3478.2</v>
+      </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
@@ -3606,7 +5124,10 @@
       <c r="BH47" s="6"/>
       <c r="BI47" s="6"/>
     </row>
-    <row r="48" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -3619,8 +5140,12 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
+      <c r="O48" s="6">
+        <v>963.7</v>
+      </c>
+      <c r="P48" s="6">
+        <v>1213.7</v>
+      </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
@@ -3667,7 +5192,10 @@
       <c r="BH48" s="6"/>
       <c r="BI48" s="6"/>
     </row>
-    <row r="49" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -3680,8 +5208,12 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
+      <c r="O49" s="6">
+        <v>113.7</v>
+      </c>
+      <c r="P49" s="6">
+        <v>207</v>
+      </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
@@ -3728,7 +5260,10 @@
       <c r="BH49" s="6"/>
       <c r="BI49" s="6"/>
     </row>
-    <row r="50" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -3741,8 +5276,12 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
+      <c r="O50" s="6">
+        <v>63.3</v>
+      </c>
+      <c r="P50" s="6">
+        <v>97.4</v>
+      </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
@@ -3789,7 +5328,10 @@
       <c r="BH50" s="6"/>
       <c r="BI50" s="6"/>
     </row>
-    <row r="51" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -3802,8 +5344,12 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
+      <c r="O51" s="6">
+        <v>132.9</v>
+      </c>
+      <c r="P51" s="6">
+        <v>174.6</v>
+      </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
@@ -3850,7 +5396,10 @@
       <c r="BH51" s="6"/>
       <c r="BI51" s="6"/>
     </row>
-    <row r="52" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3863,8 +5412,12 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
+      <c r="O52" s="6">
+        <v>99.6</v>
+      </c>
+      <c r="P52" s="6">
+        <v>160.1</v>
+      </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
@@ -3911,7 +5464,10 @@
       <c r="BH52" s="6"/>
       <c r="BI52" s="6"/>
     </row>
-    <row r="53" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -3923,9 +5479,18 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
+      <c r="N53" s="6">
+        <f t="shared" ref="N53:O53" si="19">+SUM(N47:N52)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="19"/>
+        <v>4642.8</v>
+      </c>
+      <c r="P53" s="6">
+        <f>+SUM(P47:P52)</f>
+        <v>5331</v>
+      </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -3972,21 +5537,30 @@
       <c r="BH53" s="6"/>
       <c r="BI53" s="6"/>
     </row>
-    <row r="54" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
+    <row r="54" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7">
+        <f>+O53+O46</f>
+        <v>15853.400000000001</v>
+      </c>
+      <c r="P54" s="7">
+        <f>+P53+P46</f>
+        <v>17104</v>
+      </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -4033,7 +5607,10 @@
       <c r="BH54" s="6"/>
       <c r="BI54" s="6"/>
     </row>
-    <row r="55" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -4046,8 +5623,12 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
+      <c r="O55" s="6">
+        <v>9434</v>
+      </c>
+      <c r="P55" s="6">
+        <v>9217</v>
+      </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
@@ -4094,7 +5675,10 @@
       <c r="BH55" s="6"/>
       <c r="BI55" s="6"/>
     </row>
-    <row r="56" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -4107,8 +5691,12 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
+      <c r="O56" s="6">
+        <v>3656.7</v>
+      </c>
+      <c r="P56" s="6">
+        <v>3710.6</v>
+      </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -4155,7 +5743,10 @@
       <c r="BH56" s="6"/>
       <c r="BI56" s="6"/>
     </row>
-    <row r="57" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -4168,8 +5759,12 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
+      <c r="O57" s="6">
+        <v>706.8</v>
+      </c>
+      <c r="P57" s="6">
+        <v>742.3</v>
+      </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
@@ -4216,7 +5811,10 @@
       <c r="BH57" s="6"/>
       <c r="BI57" s="6"/>
     </row>
-    <row r="58" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -4229,8 +5827,12 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
+      <c r="O58" s="6">
+        <v>195.3</v>
+      </c>
+      <c r="P58" s="6">
+        <v>213.7</v>
+      </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
@@ -4277,7 +5879,10 @@
       <c r="BH58" s="6"/>
       <c r="BI58" s="6"/>
     </row>
-    <row r="59" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -4290,8 +5895,12 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
+      <c r="O59" s="6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P59" s="6">
+        <v>16.399999999999999</v>
+      </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
@@ -4338,7 +5947,10 @@
       <c r="BH59" s="6"/>
       <c r="BI59" s="6"/>
     </row>
-    <row r="60" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -4351,8 +5963,12 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
+      <c r="O60" s="6">
+        <v>245.8</v>
+      </c>
+      <c r="P60" s="6">
+        <v>337.3</v>
+      </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
@@ -4399,7 +6015,10 @@
       <c r="BH60" s="6"/>
       <c r="BI60" s="6"/>
     </row>
-    <row r="61" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -4412,8 +6031,12 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
+      <c r="O61" s="6">
+        <v>46.2</v>
+      </c>
+      <c r="P61" s="6">
+        <v>32.5</v>
+      </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
@@ -4460,7 +6083,10 @@
       <c r="BH61" s="6"/>
       <c r="BI61" s="6"/>
     </row>
-    <row r="62" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -4472,9 +6098,18 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
+      <c r="N62" s="6">
+        <f t="shared" ref="N62:O62" si="20">+SUM(N56:N61)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="20"/>
+        <v>4868.7</v>
+      </c>
+      <c r="P62" s="6">
+        <f>+SUM(P56:P61)</f>
+        <v>5052.7999999999993</v>
+      </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
@@ -4521,7 +6156,10 @@
       <c r="BH62" s="6"/>
       <c r="BI62" s="6"/>
     </row>
-    <row r="63" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -4534,8 +6172,12 @@
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
+      <c r="O63" s="6">
+        <v>0</v>
+      </c>
+      <c r="P63" s="6">
+        <v>1247.8</v>
+      </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
@@ -4582,7 +6224,10 @@
       <c r="BH63" s="6"/>
       <c r="BI63" s="6"/>
     </row>
-    <row r="64" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -4595,8 +6240,12 @@
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
+      <c r="O64" s="6">
+        <v>508.2</v>
+      </c>
+      <c r="P64" s="6">
+        <v>383.6</v>
+      </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
@@ -4643,7 +6292,10 @@
       <c r="BH64" s="6"/>
       <c r="BI64" s="6"/>
     </row>
-    <row r="65" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
@@ -4656,8 +6308,12 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
+      <c r="O65" s="6">
+        <v>120.3</v>
+      </c>
+      <c r="P65" s="6">
+        <v>85.1</v>
+      </c>
       <c r="Q65" s="6"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
@@ -4704,7 +6360,10 @@
       <c r="BH65" s="6"/>
       <c r="BI65" s="6"/>
     </row>
-    <row r="66" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -4717,8 +6376,12 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
+      <c r="O66" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="P66" s="6">
+        <v>46.9</v>
+      </c>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
@@ -4765,7 +6428,10 @@
       <c r="BH66" s="6"/>
       <c r="BI66" s="6"/>
     </row>
-    <row r="67" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -4778,8 +6444,12 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
+      <c r="O67" s="6">
+        <v>59.1</v>
+      </c>
+      <c r="P67" s="6">
+        <v>73.400000000000006</v>
+      </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
@@ -4826,7 +6496,10 @@
       <c r="BH67" s="6"/>
       <c r="BI67" s="6"/>
     </row>
-    <row r="68" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -4839,8 +6512,12 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
+      <c r="O68" s="6">
+        <v>845.3</v>
+      </c>
+      <c r="P68" s="6">
+        <v>997.4</v>
+      </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
@@ -4887,7 +6564,10 @@
       <c r="BH68" s="6"/>
       <c r="BI68" s="6"/>
     </row>
-    <row r="69" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -4900,8 +6580,14 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
+      <c r="O69" s="6">
+        <f>+SUM(O63:O68)</f>
+        <v>1550.6999999999998</v>
+      </c>
+      <c r="P69" s="6">
+        <f>+SUM(P63:P68)</f>
+        <v>2834.2000000000003</v>
+      </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
@@ -4948,7 +6634,10 @@
       <c r="BH69" s="6"/>
       <c r="BI69" s="6"/>
     </row>
-    <row r="70" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -4961,8 +6650,14 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
+      <c r="O70" s="6">
+        <f>+O69+O62</f>
+        <v>6419.4</v>
+      </c>
+      <c r="P70" s="6">
+        <f>+P69+P62</f>
+        <v>7887</v>
+      </c>
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
@@ -5009,21 +6704,31 @@
       <c r="BH70" s="6"/>
       <c r="BI70" s="6"/>
     </row>
-    <row r="71" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
+    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7">
+        <f>+O70+O55</f>
+        <v>15853.4</v>
+      </c>
+      <c r="P71" s="7">
+        <f>+P70+P55</f>
+        <v>17104</v>
+      </c>
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
@@ -5070,7 +6775,7 @@
       <c r="BH71" s="6"/>
       <c r="BI71" s="6"/>
     </row>
-    <row r="72" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -5131,7 +6836,10 @@
       <c r="BH72" s="6"/>
       <c r="BI72" s="6"/>
     </row>
-    <row r="73" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -5144,8 +6852,12 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
+      <c r="O73" s="6">
+        <v>1182.4000000000001</v>
+      </c>
+      <c r="P73" s="6">
+        <v>939.7</v>
+      </c>
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
@@ -5192,7 +6904,10 @@
       <c r="BH73" s="6"/>
       <c r="BI73" s="6"/>
     </row>
-    <row r="74" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -5205,8 +6920,12 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
+      <c r="O74" s="6">
+        <v>375</v>
+      </c>
+      <c r="P74" s="6">
+        <v>419.8</v>
+      </c>
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
@@ -5253,7 +6972,10 @@
       <c r="BH74" s="6"/>
       <c r="BI74" s="6"/>
     </row>
-    <row r="75" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -5266,8 +6988,12 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
+      <c r="O75" s="6">
+        <v>513</v>
+      </c>
+      <c r="P75" s="6">
+        <v>694.8</v>
+      </c>
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
@@ -5314,7 +7040,10 @@
       <c r="BH75" s="6"/>
       <c r="BI75" s="6"/>
     </row>
-    <row r="76" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -5327,8 +7056,12 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
+      <c r="O76" s="6">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="P76" s="6">
+        <v>-138.4</v>
+      </c>
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
@@ -5375,7 +7108,10 @@
       <c r="BH76" s="6"/>
       <c r="BI76" s="6"/>
     </row>
-    <row r="77" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -5388,8 +7124,12 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
+      <c r="O77" s="6">
+        <v>-98.3</v>
+      </c>
+      <c r="P77" s="6">
+        <v>-211</v>
+      </c>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -5436,7 +7176,10 @@
       <c r="BH77" s="6"/>
       <c r="BI77" s="6"/>
     </row>
-    <row r="78" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -5449,8 +7192,12 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
+      <c r="O78" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="P78" s="6">
+        <v>51.4</v>
+      </c>
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
@@ -5497,7 +7244,10 @@
       <c r="BH78" s="6"/>
       <c r="BI78" s="6"/>
     </row>
-    <row r="79" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -5510,8 +7260,12 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
+      <c r="O79" s="6">
+        <v>-248.7</v>
+      </c>
+      <c r="P79" s="6">
+        <v>-226.1</v>
+      </c>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -5558,7 +7312,10 @@
       <c r="BH79" s="6"/>
       <c r="BI79" s="6"/>
     </row>
-    <row r="80" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -5571,8 +7328,12 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
+      <c r="O80" s="6">
+        <v>-389.6</v>
+      </c>
+      <c r="P80" s="6">
+        <v>-351.1</v>
+      </c>
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
@@ -5619,7 +7380,10 @@
       <c r="BH80" s="6"/>
       <c r="BI80" s="6"/>
     </row>
-    <row r="81" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -5631,9 +7395,18 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
+      <c r="N81" s="7">
+        <f t="shared" ref="N81:O81" si="21">+SUM(N73:N80)</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="7">
+        <f t="shared" si="21"/>
+        <v>1347</v>
+      </c>
+      <c r="P81" s="7">
+        <f>+SUM(P73:P80)</f>
+        <v>1179.1000000000004</v>
+      </c>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
@@ -5680,7 +7453,10 @@
       <c r="BH81" s="6"/>
       <c r="BI81" s="6"/>
     </row>
-    <row r="82" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -5693,8 +7469,12 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
+      <c r="O82" s="6">
+        <v>-581.70000000000005</v>
+      </c>
+      <c r="P82" s="6">
+        <v>-575.6</v>
+      </c>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
@@ -5741,7 +7521,10 @@
       <c r="BH82" s="6"/>
       <c r="BI82" s="6"/>
     </row>
-    <row r="83" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -5754,8 +7537,12 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
+      <c r="O83" s="6">
+        <v>-109.4</v>
+      </c>
+      <c r="P83" s="6">
+        <v>-48.3</v>
+      </c>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
@@ -5802,7 +7589,10 @@
       <c r="BH83" s="6"/>
       <c r="BI83" s="6"/>
     </row>
-    <row r="84" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -5815,8 +7605,12 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
+      <c r="O84" s="6">
+        <v>-199</v>
+      </c>
+      <c r="P84" s="6">
+        <v>-216</v>
+      </c>
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
@@ -5863,7 +7657,10 @@
       <c r="BH84" s="6"/>
       <c r="BI84" s="6"/>
     </row>
-    <row r="85" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -5876,8 +7673,12 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
+      <c r="O85" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="P85" s="6">
+        <v>2.9</v>
+      </c>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
@@ -5924,7 +7725,10 @@
       <c r="BH85" s="6"/>
       <c r="BI85" s="6"/>
     </row>
-    <row r="86" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -5937,8 +7741,12 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
+      <c r="O86" s="6">
+        <v>12.4</v>
+      </c>
+      <c r="P86" s="6">
+        <v>12.9</v>
+      </c>
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
@@ -5985,7 +7793,10 @@
       <c r="BH86" s="6"/>
       <c r="BI86" s="6"/>
     </row>
-    <row r="87" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -5997,9 +7808,18 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
+      <c r="N87" s="7">
+        <f t="shared" ref="N87:O87" si="22">+SUM(N82:N86)</f>
+        <v>0</v>
+      </c>
+      <c r="O87" s="7">
+        <f t="shared" si="22"/>
+        <v>-875.30000000000007</v>
+      </c>
+      <c r="P87" s="7">
+        <f>+SUM(P82:P86)</f>
+        <v>-824.1</v>
+      </c>
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
@@ -6046,7 +7866,10 @@
       <c r="BH87" s="6"/>
       <c r="BI87" s="6"/>
     </row>
-    <row r="88" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -6059,8 +7882,12 @@
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
+      <c r="O88" s="6">
+        <v>-67.8</v>
+      </c>
+      <c r="P88" s="6">
+        <v>-94.3</v>
+      </c>
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
@@ -6107,7 +7934,10 @@
       <c r="BH88" s="6"/>
       <c r="BI88" s="6"/>
     </row>
-    <row r="89" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -6120,8 +7950,12 @@
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
+      <c r="O89" s="6">
+        <v>581</v>
+      </c>
+      <c r="P89" s="6">
+        <v>405</v>
+      </c>
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
@@ -6168,7 +8002,10 @@
       <c r="BH89" s="6"/>
       <c r="BI89" s="6"/>
     </row>
-    <row r="90" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -6181,8 +8018,12 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
+      <c r="O90" s="6">
+        <v>0</v>
+      </c>
+      <c r="P90" s="6">
+        <v>2233</v>
+      </c>
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
@@ -6229,7 +8070,10 @@
       <c r="BH90" s="6"/>
       <c r="BI90" s="6"/>
     </row>
-    <row r="91" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -6242,8 +8086,12 @@
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
+      <c r="O91" s="6">
+        <v>0</v>
+      </c>
+      <c r="P91" s="6">
+        <v>-1355</v>
+      </c>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
@@ -6290,7 +8138,10 @@
       <c r="BH91" s="6"/>
       <c r="BI91" s="6"/>
     </row>
-    <row r="92" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -6303,8 +8154,12 @@
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
+      <c r="O92" s="6">
+        <v>-4.2</v>
+      </c>
+      <c r="P92" s="6">
+        <v>-4.0999999999999996</v>
+      </c>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
@@ -6351,7 +8206,10 @@
       <c r="BH92" s="6"/>
       <c r="BI92" s="6"/>
     </row>
-    <row r="93" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -6364,8 +8222,12 @@
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
+      <c r="O93" s="6">
+        <v>-714.6</v>
+      </c>
+      <c r="P93" s="6">
+        <v>-709.8</v>
+      </c>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
@@ -6412,7 +8274,10 @@
       <c r="BH93" s="6"/>
       <c r="BI93" s="6"/>
     </row>
-    <row r="94" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -6425,8 +8290,12 @@
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
+      <c r="O94" s="6">
+        <v>-180.6</v>
+      </c>
+      <c r="P94" s="6">
+        <v>-773.6</v>
+      </c>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
@@ -6473,7 +8342,10 @@
       <c r="BH94" s="6"/>
       <c r="BI94" s="6"/>
     </row>
-    <row r="95" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -6485,9 +8357,18 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
+      <c r="N95" s="7">
+        <f t="shared" ref="N95:O95" si="23">+SUM(N88:N94)</f>
+        <v>0</v>
+      </c>
+      <c r="O95" s="7">
+        <f t="shared" si="23"/>
+        <v>-386.19999999999993</v>
+      </c>
+      <c r="P95" s="7">
+        <f>+SUM(P88:P94)</f>
+        <v>-298.80000000000007</v>
+      </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
@@ -6534,7 +8415,7 @@
       <c r="BH95" s="6"/>
       <c r="BI95" s="6"/>
     </row>
-    <row r="96" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -6595,7 +8476,10 @@
       <c r="BH96" s="6"/>
       <c r="BI96" s="6"/>
     </row>
-    <row r="97" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -6608,8 +8492,14 @@
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
+      <c r="O97" s="7">
+        <f t="shared" ref="O97" si="24">+SUM(O96,O95,O87,O81)</f>
+        <v>85.5</v>
+      </c>
+      <c r="P97" s="7">
+        <f>+SUM(P96,P95,P87,P81)</f>
+        <v>56.200000000000273</v>
+      </c>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
@@ -6656,7 +8546,10 @@
       <c r="BH97" s="6"/>
       <c r="BI97" s="6"/>
     </row>
-    <row r="98" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
@@ -6669,8 +8562,12 @@
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
+      <c r="O98" s="6">
+        <v>-8.1</v>
+      </c>
+      <c r="P98" s="6">
+        <v>4.3</v>
+      </c>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
@@ -6717,7 +8614,10 @@
       <c r="BH98" s="6"/>
       <c r="BI98" s="6"/>
     </row>
-    <row r="99" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B99" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -6730,8 +8630,12 @@
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
+      <c r="O99" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="P99" s="6">
+        <v>99.6</v>
+      </c>
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
@@ -6778,7 +8682,10 @@
       <c r="BH99" s="6"/>
       <c r="BI99" s="6"/>
     </row>
-    <row r="100" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:61" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -6791,8 +8698,14 @@
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
+      <c r="O100" s="6">
+        <f>+O99+O97+O98</f>
+        <v>99.600000000000009</v>
+      </c>
+      <c r="P100" s="6">
+        <f>+P99+P97+P98</f>
+        <v>160.10000000000028</v>
+      </c>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
@@ -6839,7 +8752,7 @@
       <c r="BH100" s="6"/>
       <c r="BI100" s="6"/>
     </row>
-    <row r="101" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -6900,7 +8813,7 @@
       <c r="BH101" s="6"/>
       <c r="BI101" s="6"/>
     </row>
-    <row r="102" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -6961,7 +8874,7 @@
       <c r="BH102" s="6"/>
       <c r="BI102" s="6"/>
     </row>
-    <row r="103" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -7022,7 +8935,7 @@
       <c r="BH103" s="6"/>
       <c r="BI103" s="6"/>
     </row>
-    <row r="104" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -7083,7 +8996,7 @@
       <c r="BH104" s="6"/>
       <c r="BI104" s="6"/>
     </row>
-    <row r="105" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -7144,7 +9057,7 @@
       <c r="BH105" s="6"/>
       <c r="BI105" s="6"/>
     </row>
-    <row r="106" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -7205,7 +9118,7 @@
       <c r="BH106" s="6"/>
       <c r="BI106" s="6"/>
     </row>
-    <row r="107" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -7266,7 +9179,7 @@
       <c r="BH107" s="6"/>
       <c r="BI107" s="6"/>
     </row>
-    <row r="108" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -7327,7 +9240,7 @@
       <c r="BH108" s="6"/>
       <c r="BI108" s="6"/>
     </row>
-    <row r="109" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -7388,7 +9301,7 @@
       <c r="BH109" s="6"/>
       <c r="BI109" s="6"/>
     </row>
-    <row r="110" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -7449,7 +9362,7 @@
       <c r="BH110" s="6"/>
       <c r="BI110" s="6"/>
     </row>
-    <row r="111" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -7510,7 +9423,7 @@
       <c r="BH111" s="6"/>
       <c r="BI111" s="6"/>
     </row>
-    <row r="112" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:61" x14ac:dyDescent="0.2">
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -22273,410 +24186,858 @@
       <c r="BI353" s="6"/>
     </row>
     <row r="354" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C354" s="3"/>
-      <c r="D354" s="3"/>
-      <c r="E354" s="3"/>
-      <c r="F354" s="3"/>
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
-      <c r="I354" s="3"/>
-      <c r="J354" s="3"/>
-      <c r="K354" s="3"/>
-      <c r="L354" s="3"/>
-      <c r="M354" s="3"/>
-      <c r="N354" s="3"/>
-      <c r="O354" s="3"/>
-      <c r="P354" s="3"/>
-      <c r="Q354" s="3"/>
-      <c r="R354" s="3"/>
-      <c r="S354" s="3"/>
-      <c r="T354" s="3"/>
-      <c r="U354" s="3"/>
-      <c r="V354" s="3"/>
-      <c r="W354" s="3"/>
-      <c r="X354" s="3"/>
-      <c r="Y354" s="3"/>
-      <c r="Z354" s="3"/>
-      <c r="AA354" s="3"/>
-      <c r="AB354" s="3"/>
-      <c r="AC354" s="3"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="6"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
+      <c r="I354" s="6"/>
+      <c r="J354" s="6"/>
+      <c r="K354" s="6"/>
+      <c r="L354" s="6"/>
+      <c r="M354" s="6"/>
+      <c r="N354" s="6"/>
+      <c r="O354" s="6"/>
+      <c r="P354" s="6"/>
+      <c r="Q354" s="6"/>
+      <c r="R354" s="6"/>
+      <c r="S354" s="6"/>
+      <c r="T354" s="6"/>
+      <c r="U354" s="6"/>
+      <c r="V354" s="6"/>
+      <c r="W354" s="6"/>
+      <c r="X354" s="6"/>
+      <c r="Y354" s="6"/>
+      <c r="Z354" s="6"/>
+      <c r="AA354" s="6"/>
+      <c r="AB354" s="6"/>
+      <c r="AC354" s="6"/>
+      <c r="AD354" s="6"/>
+      <c r="AE354" s="6"/>
+      <c r="AF354" s="6"/>
+      <c r="AG354" s="6"/>
+      <c r="AH354" s="6"/>
+      <c r="AI354" s="6"/>
+      <c r="AJ354" s="6"/>
+      <c r="AK354" s="6"/>
+      <c r="AL354" s="6"/>
+      <c r="AM354" s="6"/>
+      <c r="AN354" s="6"/>
+      <c r="AO354" s="6"/>
+      <c r="AP354" s="6"/>
+      <c r="AQ354" s="6"/>
+      <c r="AR354" s="6"/>
+      <c r="AS354" s="6"/>
+      <c r="AT354" s="6"/>
+      <c r="AU354" s="6"/>
+      <c r="AV354" s="6"/>
+      <c r="AW354" s="6"/>
+      <c r="AX354" s="6"/>
+      <c r="AY354" s="6"/>
+      <c r="AZ354" s="6"/>
+      <c r="BA354" s="6"/>
+      <c r="BB354" s="6"/>
+      <c r="BC354" s="6"/>
+      <c r="BD354" s="6"/>
+      <c r="BE354" s="6"/>
+      <c r="BF354" s="6"/>
+      <c r="BG354" s="6"/>
+      <c r="BH354" s="6"/>
+      <c r="BI354" s="6"/>
     </row>
     <row r="355" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C355" s="3"/>
-      <c r="D355" s="3"/>
-      <c r="E355" s="3"/>
-      <c r="F355" s="3"/>
-      <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
-      <c r="I355" s="3"/>
-      <c r="J355" s="3"/>
-      <c r="K355" s="3"/>
-      <c r="L355" s="3"/>
-      <c r="M355" s="3"/>
-      <c r="N355" s="3"/>
-      <c r="O355" s="3"/>
-      <c r="P355" s="3"/>
-      <c r="Q355" s="3"/>
-      <c r="R355" s="3"/>
-      <c r="S355" s="3"/>
-      <c r="T355" s="3"/>
-      <c r="U355" s="3"/>
-      <c r="V355" s="3"/>
-      <c r="W355" s="3"/>
-      <c r="X355" s="3"/>
-      <c r="Y355" s="3"/>
-      <c r="Z355" s="3"/>
-      <c r="AA355" s="3"/>
-      <c r="AB355" s="3"/>
-      <c r="AC355" s="3"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="6"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
+      <c r="I355" s="6"/>
+      <c r="J355" s="6"/>
+      <c r="K355" s="6"/>
+      <c r="L355" s="6"/>
+      <c r="M355" s="6"/>
+      <c r="N355" s="6"/>
+      <c r="O355" s="6"/>
+      <c r="P355" s="6"/>
+      <c r="Q355" s="6"/>
+      <c r="R355" s="6"/>
+      <c r="S355" s="6"/>
+      <c r="T355" s="6"/>
+      <c r="U355" s="6"/>
+      <c r="V355" s="6"/>
+      <c r="W355" s="6"/>
+      <c r="X355" s="6"/>
+      <c r="Y355" s="6"/>
+      <c r="Z355" s="6"/>
+      <c r="AA355" s="6"/>
+      <c r="AB355" s="6"/>
+      <c r="AC355" s="6"/>
+      <c r="AD355" s="6"/>
+      <c r="AE355" s="6"/>
+      <c r="AF355" s="6"/>
+      <c r="AG355" s="6"/>
+      <c r="AH355" s="6"/>
+      <c r="AI355" s="6"/>
+      <c r="AJ355" s="6"/>
+      <c r="AK355" s="6"/>
+      <c r="AL355" s="6"/>
+      <c r="AM355" s="6"/>
+      <c r="AN355" s="6"/>
+      <c r="AO355" s="6"/>
+      <c r="AP355" s="6"/>
+      <c r="AQ355" s="6"/>
+      <c r="AR355" s="6"/>
+      <c r="AS355" s="6"/>
+      <c r="AT355" s="6"/>
+      <c r="AU355" s="6"/>
+      <c r="AV355" s="6"/>
+      <c r="AW355" s="6"/>
+      <c r="AX355" s="6"/>
+      <c r="AY355" s="6"/>
+      <c r="AZ355" s="6"/>
+      <c r="BA355" s="6"/>
+      <c r="BB355" s="6"/>
+      <c r="BC355" s="6"/>
+      <c r="BD355" s="6"/>
+      <c r="BE355" s="6"/>
+      <c r="BF355" s="6"/>
+      <c r="BG355" s="6"/>
+      <c r="BH355" s="6"/>
+      <c r="BI355" s="6"/>
     </row>
     <row r="356" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C356" s="3"/>
-      <c r="D356" s="3"/>
-      <c r="E356" s="3"/>
-      <c r="F356" s="3"/>
-      <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
-      <c r="I356" s="3"/>
-      <c r="J356" s="3"/>
-      <c r="K356" s="3"/>
-      <c r="L356" s="3"/>
-      <c r="M356" s="3"/>
-      <c r="N356" s="3"/>
-      <c r="O356" s="3"/>
-      <c r="P356" s="3"/>
-      <c r="Q356" s="3"/>
-      <c r="R356" s="3"/>
-      <c r="S356" s="3"/>
-      <c r="T356" s="3"/>
-      <c r="U356" s="3"/>
-      <c r="V356" s="3"/>
-      <c r="W356" s="3"/>
-      <c r="X356" s="3"/>
-      <c r="Y356" s="3"/>
-      <c r="Z356" s="3"/>
-      <c r="AA356" s="3"/>
-      <c r="AB356" s="3"/>
-      <c r="AC356" s="3"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="6"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
+      <c r="I356" s="6"/>
+      <c r="J356" s="6"/>
+      <c r="K356" s="6"/>
+      <c r="L356" s="6"/>
+      <c r="M356" s="6"/>
+      <c r="N356" s="6"/>
+      <c r="O356" s="6"/>
+      <c r="P356" s="6"/>
+      <c r="Q356" s="6"/>
+      <c r="R356" s="6"/>
+      <c r="S356" s="6"/>
+      <c r="T356" s="6"/>
+      <c r="U356" s="6"/>
+      <c r="V356" s="6"/>
+      <c r="W356" s="6"/>
+      <c r="X356" s="6"/>
+      <c r="Y356" s="6"/>
+      <c r="Z356" s="6"/>
+      <c r="AA356" s="6"/>
+      <c r="AB356" s="6"/>
+      <c r="AC356" s="6"/>
+      <c r="AD356" s="6"/>
+      <c r="AE356" s="6"/>
+      <c r="AF356" s="6"/>
+      <c r="AG356" s="6"/>
+      <c r="AH356" s="6"/>
+      <c r="AI356" s="6"/>
+      <c r="AJ356" s="6"/>
+      <c r="AK356" s="6"/>
+      <c r="AL356" s="6"/>
+      <c r="AM356" s="6"/>
+      <c r="AN356" s="6"/>
+      <c r="AO356" s="6"/>
+      <c r="AP356" s="6"/>
+      <c r="AQ356" s="6"/>
+      <c r="AR356" s="6"/>
+      <c r="AS356" s="6"/>
+      <c r="AT356" s="6"/>
+      <c r="AU356" s="6"/>
+      <c r="AV356" s="6"/>
+      <c r="AW356" s="6"/>
+      <c r="AX356" s="6"/>
+      <c r="AY356" s="6"/>
+      <c r="AZ356" s="6"/>
+      <c r="BA356" s="6"/>
+      <c r="BB356" s="6"/>
+      <c r="BC356" s="6"/>
+      <c r="BD356" s="6"/>
+      <c r="BE356" s="6"/>
+      <c r="BF356" s="6"/>
+      <c r="BG356" s="6"/>
+      <c r="BH356" s="6"/>
+      <c r="BI356" s="6"/>
     </row>
     <row r="357" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C357" s="3"/>
-      <c r="D357" s="3"/>
-      <c r="E357" s="3"/>
-      <c r="F357" s="3"/>
-      <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
-      <c r="I357" s="3"/>
-      <c r="J357" s="3"/>
-      <c r="K357" s="3"/>
-      <c r="L357" s="3"/>
-      <c r="M357" s="3"/>
-      <c r="N357" s="3"/>
-      <c r="O357" s="3"/>
-      <c r="P357" s="3"/>
-      <c r="Q357" s="3"/>
-      <c r="R357" s="3"/>
-      <c r="S357" s="3"/>
-      <c r="T357" s="3"/>
-      <c r="U357" s="3"/>
-      <c r="V357" s="3"/>
-      <c r="W357" s="3"/>
-      <c r="X357" s="3"/>
-      <c r="Y357" s="3"/>
-      <c r="Z357" s="3"/>
-      <c r="AA357" s="3"/>
-      <c r="AB357" s="3"/>
-      <c r="AC357" s="3"/>
+      <c r="C357" s="6"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="6"/>
+      <c r="I357" s="6"/>
+      <c r="J357" s="6"/>
+      <c r="K357" s="6"/>
+      <c r="L357" s="6"/>
+      <c r="M357" s="6"/>
+      <c r="N357" s="6"/>
+      <c r="O357" s="6"/>
+      <c r="P357" s="6"/>
+      <c r="Q357" s="6"/>
+      <c r="R357" s="6"/>
+      <c r="S357" s="6"/>
+      <c r="T357" s="6"/>
+      <c r="U357" s="6"/>
+      <c r="V357" s="6"/>
+      <c r="W357" s="6"/>
+      <c r="X357" s="6"/>
+      <c r="Y357" s="6"/>
+      <c r="Z357" s="6"/>
+      <c r="AA357" s="6"/>
+      <c r="AB357" s="6"/>
+      <c r="AC357" s="6"/>
+      <c r="AD357" s="6"/>
+      <c r="AE357" s="6"/>
+      <c r="AF357" s="6"/>
+      <c r="AG357" s="6"/>
+      <c r="AH357" s="6"/>
+      <c r="AI357" s="6"/>
+      <c r="AJ357" s="6"/>
+      <c r="AK357" s="6"/>
+      <c r="AL357" s="6"/>
+      <c r="AM357" s="6"/>
+      <c r="AN357" s="6"/>
+      <c r="AO357" s="6"/>
+      <c r="AP357" s="6"/>
+      <c r="AQ357" s="6"/>
+      <c r="AR357" s="6"/>
+      <c r="AS357" s="6"/>
+      <c r="AT357" s="6"/>
+      <c r="AU357" s="6"/>
+      <c r="AV357" s="6"/>
+      <c r="AW357" s="6"/>
+      <c r="AX357" s="6"/>
+      <c r="AY357" s="6"/>
+      <c r="AZ357" s="6"/>
+      <c r="BA357" s="6"/>
+      <c r="BB357" s="6"/>
+      <c r="BC357" s="6"/>
+      <c r="BD357" s="6"/>
+      <c r="BE357" s="6"/>
+      <c r="BF357" s="6"/>
+      <c r="BG357" s="6"/>
+      <c r="BH357" s="6"/>
+      <c r="BI357" s="6"/>
     </row>
     <row r="358" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C358" s="3"/>
-      <c r="D358" s="3"/>
-      <c r="E358" s="3"/>
-      <c r="F358" s="3"/>
-      <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
-      <c r="I358" s="3"/>
-      <c r="J358" s="3"/>
-      <c r="K358" s="3"/>
-      <c r="L358" s="3"/>
-      <c r="M358" s="3"/>
-      <c r="N358" s="3"/>
-      <c r="O358" s="3"/>
-      <c r="P358" s="3"/>
-      <c r="Q358" s="3"/>
-      <c r="R358" s="3"/>
-      <c r="S358" s="3"/>
-      <c r="T358" s="3"/>
-      <c r="U358" s="3"/>
-      <c r="V358" s="3"/>
-      <c r="W358" s="3"/>
-      <c r="X358" s="3"/>
-      <c r="Y358" s="3"/>
-      <c r="Z358" s="3"/>
-      <c r="AA358" s="3"/>
-      <c r="AB358" s="3"/>
-      <c r="AC358" s="3"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="6"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="6"/>
+      <c r="I358" s="6"/>
+      <c r="J358" s="6"/>
+      <c r="K358" s="6"/>
+      <c r="L358" s="6"/>
+      <c r="M358" s="6"/>
+      <c r="N358" s="6"/>
+      <c r="O358" s="6"/>
+      <c r="P358" s="6"/>
+      <c r="Q358" s="6"/>
+      <c r="R358" s="6"/>
+      <c r="S358" s="6"/>
+      <c r="T358" s="6"/>
+      <c r="U358" s="6"/>
+      <c r="V358" s="6"/>
+      <c r="W358" s="6"/>
+      <c r="X358" s="6"/>
+      <c r="Y358" s="6"/>
+      <c r="Z358" s="6"/>
+      <c r="AA358" s="6"/>
+      <c r="AB358" s="6"/>
+      <c r="AC358" s="6"/>
+      <c r="AD358" s="6"/>
+      <c r="AE358" s="6"/>
+      <c r="AF358" s="6"/>
+      <c r="AG358" s="6"/>
+      <c r="AH358" s="6"/>
+      <c r="AI358" s="6"/>
+      <c r="AJ358" s="6"/>
+      <c r="AK358" s="6"/>
+      <c r="AL358" s="6"/>
+      <c r="AM358" s="6"/>
+      <c r="AN358" s="6"/>
+      <c r="AO358" s="6"/>
+      <c r="AP358" s="6"/>
+      <c r="AQ358" s="6"/>
+      <c r="AR358" s="6"/>
+      <c r="AS358" s="6"/>
+      <c r="AT358" s="6"/>
+      <c r="AU358" s="6"/>
+      <c r="AV358" s="6"/>
+      <c r="AW358" s="6"/>
+      <c r="AX358" s="6"/>
+      <c r="AY358" s="6"/>
+      <c r="AZ358" s="6"/>
+      <c r="BA358" s="6"/>
+      <c r="BB358" s="6"/>
+      <c r="BC358" s="6"/>
+      <c r="BD358" s="6"/>
+      <c r="BE358" s="6"/>
+      <c r="BF358" s="6"/>
+      <c r="BG358" s="6"/>
+      <c r="BH358" s="6"/>
+      <c r="BI358" s="6"/>
     </row>
     <row r="359" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C359" s="3"/>
-      <c r="D359" s="3"/>
-      <c r="E359" s="3"/>
-      <c r="F359" s="3"/>
-      <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
-      <c r="I359" s="3"/>
-      <c r="J359" s="3"/>
-      <c r="K359" s="3"/>
-      <c r="L359" s="3"/>
-      <c r="M359" s="3"/>
-      <c r="N359" s="3"/>
-      <c r="O359" s="3"/>
-      <c r="P359" s="3"/>
-      <c r="Q359" s="3"/>
-      <c r="R359" s="3"/>
-      <c r="S359" s="3"/>
-      <c r="T359" s="3"/>
-      <c r="U359" s="3"/>
-      <c r="V359" s="3"/>
-      <c r="W359" s="3"/>
-      <c r="X359" s="3"/>
-      <c r="Y359" s="3"/>
-      <c r="Z359" s="3"/>
-      <c r="AA359" s="3"/>
-      <c r="AB359" s="3"/>
-      <c r="AC359" s="3"/>
+      <c r="C359" s="6"/>
+      <c r="D359" s="6"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="6"/>
+      <c r="I359" s="6"/>
+      <c r="J359" s="6"/>
+      <c r="K359" s="6"/>
+      <c r="L359" s="6"/>
+      <c r="M359" s="6"/>
+      <c r="N359" s="6"/>
+      <c r="O359" s="6"/>
+      <c r="P359" s="6"/>
+      <c r="Q359" s="6"/>
+      <c r="R359" s="6"/>
+      <c r="S359" s="6"/>
+      <c r="T359" s="6"/>
+      <c r="U359" s="6"/>
+      <c r="V359" s="6"/>
+      <c r="W359" s="6"/>
+      <c r="X359" s="6"/>
+      <c r="Y359" s="6"/>
+      <c r="Z359" s="6"/>
+      <c r="AA359" s="6"/>
+      <c r="AB359" s="6"/>
+      <c r="AC359" s="6"/>
+      <c r="AD359" s="6"/>
+      <c r="AE359" s="6"/>
+      <c r="AF359" s="6"/>
+      <c r="AG359" s="6"/>
+      <c r="AH359" s="6"/>
+      <c r="AI359" s="6"/>
+      <c r="AJ359" s="6"/>
+      <c r="AK359" s="6"/>
+      <c r="AL359" s="6"/>
+      <c r="AM359" s="6"/>
+      <c r="AN359" s="6"/>
+      <c r="AO359" s="6"/>
+      <c r="AP359" s="6"/>
+      <c r="AQ359" s="6"/>
+      <c r="AR359" s="6"/>
+      <c r="AS359" s="6"/>
+      <c r="AT359" s="6"/>
+      <c r="AU359" s="6"/>
+      <c r="AV359" s="6"/>
+      <c r="AW359" s="6"/>
+      <c r="AX359" s="6"/>
+      <c r="AY359" s="6"/>
+      <c r="AZ359" s="6"/>
+      <c r="BA359" s="6"/>
+      <c r="BB359" s="6"/>
+      <c r="BC359" s="6"/>
+      <c r="BD359" s="6"/>
+      <c r="BE359" s="6"/>
+      <c r="BF359" s="6"/>
+      <c r="BG359" s="6"/>
+      <c r="BH359" s="6"/>
+      <c r="BI359" s="6"/>
     </row>
     <row r="360" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C360" s="3"/>
-      <c r="D360" s="3"/>
-      <c r="E360" s="3"/>
-      <c r="F360" s="3"/>
-      <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
-      <c r="I360" s="3"/>
-      <c r="J360" s="3"/>
-      <c r="K360" s="3"/>
-      <c r="L360" s="3"/>
-      <c r="M360" s="3"/>
-      <c r="N360" s="3"/>
-      <c r="O360" s="3"/>
-      <c r="P360" s="3"/>
-      <c r="Q360" s="3"/>
-      <c r="R360" s="3"/>
-      <c r="S360" s="3"/>
-      <c r="T360" s="3"/>
-      <c r="U360" s="3"/>
-      <c r="V360" s="3"/>
-      <c r="W360" s="3"/>
-      <c r="X360" s="3"/>
-      <c r="Y360" s="3"/>
-      <c r="Z360" s="3"/>
-      <c r="AA360" s="3"/>
-      <c r="AB360" s="3"/>
-      <c r="AC360" s="3"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="6"/>
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="6"/>
+      <c r="I360" s="6"/>
+      <c r="J360" s="6"/>
+      <c r="K360" s="6"/>
+      <c r="L360" s="6"/>
+      <c r="M360" s="6"/>
+      <c r="N360" s="6"/>
+      <c r="O360" s="6"/>
+      <c r="P360" s="6"/>
+      <c r="Q360" s="6"/>
+      <c r="R360" s="6"/>
+      <c r="S360" s="6"/>
+      <c r="T360" s="6"/>
+      <c r="U360" s="6"/>
+      <c r="V360" s="6"/>
+      <c r="W360" s="6"/>
+      <c r="X360" s="6"/>
+      <c r="Y360" s="6"/>
+      <c r="Z360" s="6"/>
+      <c r="AA360" s="6"/>
+      <c r="AB360" s="6"/>
+      <c r="AC360" s="6"/>
+      <c r="AD360" s="6"/>
+      <c r="AE360" s="6"/>
+      <c r="AF360" s="6"/>
+      <c r="AG360" s="6"/>
+      <c r="AH360" s="6"/>
+      <c r="AI360" s="6"/>
+      <c r="AJ360" s="6"/>
+      <c r="AK360" s="6"/>
+      <c r="AL360" s="6"/>
+      <c r="AM360" s="6"/>
+      <c r="AN360" s="6"/>
+      <c r="AO360" s="6"/>
+      <c r="AP360" s="6"/>
+      <c r="AQ360" s="6"/>
+      <c r="AR360" s="6"/>
+      <c r="AS360" s="6"/>
+      <c r="AT360" s="6"/>
+      <c r="AU360" s="6"/>
+      <c r="AV360" s="6"/>
+      <c r="AW360" s="6"/>
+      <c r="AX360" s="6"/>
+      <c r="AY360" s="6"/>
+      <c r="AZ360" s="6"/>
+      <c r="BA360" s="6"/>
+      <c r="BB360" s="6"/>
+      <c r="BC360" s="6"/>
+      <c r="BD360" s="6"/>
+      <c r="BE360" s="6"/>
+      <c r="BF360" s="6"/>
+      <c r="BG360" s="6"/>
+      <c r="BH360" s="6"/>
+      <c r="BI360" s="6"/>
     </row>
     <row r="361" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C361" s="3"/>
-      <c r="D361" s="3"/>
-      <c r="E361" s="3"/>
-      <c r="F361" s="3"/>
-      <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
-      <c r="I361" s="3"/>
-      <c r="J361" s="3"/>
-      <c r="K361" s="3"/>
-      <c r="L361" s="3"/>
-      <c r="M361" s="3"/>
-      <c r="N361" s="3"/>
-      <c r="O361" s="3"/>
-      <c r="P361" s="3"/>
-      <c r="Q361" s="3"/>
-      <c r="R361" s="3"/>
-      <c r="S361" s="3"/>
-      <c r="T361" s="3"/>
-      <c r="U361" s="3"/>
-      <c r="V361" s="3"/>
-      <c r="W361" s="3"/>
-      <c r="X361" s="3"/>
-      <c r="Y361" s="3"/>
-      <c r="Z361" s="3"/>
-      <c r="AA361" s="3"/>
-      <c r="AB361" s="3"/>
-      <c r="AC361" s="3"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="6"/>
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
+      <c r="H361" s="6"/>
+      <c r="I361" s="6"/>
+      <c r="J361" s="6"/>
+      <c r="K361" s="6"/>
+      <c r="L361" s="6"/>
+      <c r="M361" s="6"/>
+      <c r="N361" s="6"/>
+      <c r="O361" s="6"/>
+      <c r="P361" s="6"/>
+      <c r="Q361" s="6"/>
+      <c r="R361" s="6"/>
+      <c r="S361" s="6"/>
+      <c r="T361" s="6"/>
+      <c r="U361" s="6"/>
+      <c r="V361" s="6"/>
+      <c r="W361" s="6"/>
+      <c r="X361" s="6"/>
+      <c r="Y361" s="6"/>
+      <c r="Z361" s="6"/>
+      <c r="AA361" s="6"/>
+      <c r="AB361" s="6"/>
+      <c r="AC361" s="6"/>
+      <c r="AD361" s="6"/>
+      <c r="AE361" s="6"/>
+      <c r="AF361" s="6"/>
+      <c r="AG361" s="6"/>
+      <c r="AH361" s="6"/>
+      <c r="AI361" s="6"/>
+      <c r="AJ361" s="6"/>
+      <c r="AK361" s="6"/>
+      <c r="AL361" s="6"/>
+      <c r="AM361" s="6"/>
+      <c r="AN361" s="6"/>
+      <c r="AO361" s="6"/>
+      <c r="AP361" s="6"/>
+      <c r="AQ361" s="6"/>
+      <c r="AR361" s="6"/>
+      <c r="AS361" s="6"/>
+      <c r="AT361" s="6"/>
+      <c r="AU361" s="6"/>
+      <c r="AV361" s="6"/>
+      <c r="AW361" s="6"/>
+      <c r="AX361" s="6"/>
+      <c r="AY361" s="6"/>
+      <c r="AZ361" s="6"/>
+      <c r="BA361" s="6"/>
+      <c r="BB361" s="6"/>
+      <c r="BC361" s="6"/>
+      <c r="BD361" s="6"/>
+      <c r="BE361" s="6"/>
+      <c r="BF361" s="6"/>
+      <c r="BG361" s="6"/>
+      <c r="BH361" s="6"/>
+      <c r="BI361" s="6"/>
     </row>
     <row r="362" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C362" s="3"/>
-      <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
-      <c r="F362" s="3"/>
-      <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
-      <c r="I362" s="3"/>
-      <c r="J362" s="3"/>
-      <c r="K362" s="3"/>
-      <c r="L362" s="3"/>
-      <c r="M362" s="3"/>
-      <c r="N362" s="3"/>
-      <c r="O362" s="3"/>
-      <c r="P362" s="3"/>
-      <c r="Q362" s="3"/>
-      <c r="R362" s="3"/>
-      <c r="S362" s="3"/>
-      <c r="T362" s="3"/>
-      <c r="U362" s="3"/>
-      <c r="V362" s="3"/>
-      <c r="W362" s="3"/>
-      <c r="X362" s="3"/>
-      <c r="Y362" s="3"/>
-      <c r="Z362" s="3"/>
-      <c r="AA362" s="3"/>
-      <c r="AB362" s="3"/>
-      <c r="AC362" s="3"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="6"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="6"/>
+      <c r="I362" s="6"/>
+      <c r="J362" s="6"/>
+      <c r="K362" s="6"/>
+      <c r="L362" s="6"/>
+      <c r="M362" s="6"/>
+      <c r="N362" s="6"/>
+      <c r="O362" s="6"/>
+      <c r="P362" s="6"/>
+      <c r="Q362" s="6"/>
+      <c r="R362" s="6"/>
+      <c r="S362" s="6"/>
+      <c r="T362" s="6"/>
+      <c r="U362" s="6"/>
+      <c r="V362" s="6"/>
+      <c r="W362" s="6"/>
+      <c r="X362" s="6"/>
+      <c r="Y362" s="6"/>
+      <c r="Z362" s="6"/>
+      <c r="AA362" s="6"/>
+      <c r="AB362" s="6"/>
+      <c r="AC362" s="6"/>
+      <c r="AD362" s="6"/>
+      <c r="AE362" s="6"/>
+      <c r="AF362" s="6"/>
+      <c r="AG362" s="6"/>
+      <c r="AH362" s="6"/>
+      <c r="AI362" s="6"/>
+      <c r="AJ362" s="6"/>
+      <c r="AK362" s="6"/>
+      <c r="AL362" s="6"/>
+      <c r="AM362" s="6"/>
+      <c r="AN362" s="6"/>
+      <c r="AO362" s="6"/>
+      <c r="AP362" s="6"/>
+      <c r="AQ362" s="6"/>
+      <c r="AR362" s="6"/>
+      <c r="AS362" s="6"/>
+      <c r="AT362" s="6"/>
+      <c r="AU362" s="6"/>
+      <c r="AV362" s="6"/>
+      <c r="AW362" s="6"/>
+      <c r="AX362" s="6"/>
+      <c r="AY362" s="6"/>
+      <c r="AZ362" s="6"/>
+      <c r="BA362" s="6"/>
+      <c r="BB362" s="6"/>
+      <c r="BC362" s="6"/>
+      <c r="BD362" s="6"/>
+      <c r="BE362" s="6"/>
+      <c r="BF362" s="6"/>
+      <c r="BG362" s="6"/>
+      <c r="BH362" s="6"/>
+      <c r="BI362" s="6"/>
     </row>
     <row r="363" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C363" s="3"/>
-      <c r="D363" s="3"/>
-      <c r="E363" s="3"/>
-      <c r="F363" s="3"/>
-      <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
-      <c r="J363" s="3"/>
-      <c r="K363" s="3"/>
-      <c r="L363" s="3"/>
-      <c r="M363" s="3"/>
-      <c r="N363" s="3"/>
-      <c r="O363" s="3"/>
-      <c r="P363" s="3"/>
-      <c r="Q363" s="3"/>
-      <c r="R363" s="3"/>
-      <c r="S363" s="3"/>
-      <c r="T363" s="3"/>
-      <c r="U363" s="3"/>
-      <c r="V363" s="3"/>
-      <c r="W363" s="3"/>
-      <c r="X363" s="3"/>
-      <c r="Y363" s="3"/>
-      <c r="Z363" s="3"/>
-      <c r="AA363" s="3"/>
-      <c r="AB363" s="3"/>
-      <c r="AC363" s="3"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
+      <c r="H363" s="6"/>
+      <c r="I363" s="6"/>
+      <c r="J363" s="6"/>
+      <c r="K363" s="6"/>
+      <c r="L363" s="6"/>
+      <c r="M363" s="6"/>
+      <c r="N363" s="6"/>
+      <c r="O363" s="6"/>
+      <c r="P363" s="6"/>
+      <c r="Q363" s="6"/>
+      <c r="R363" s="6"/>
+      <c r="S363" s="6"/>
+      <c r="T363" s="6"/>
+      <c r="U363" s="6"/>
+      <c r="V363" s="6"/>
+      <c r="W363" s="6"/>
+      <c r="X363" s="6"/>
+      <c r="Y363" s="6"/>
+      <c r="Z363" s="6"/>
+      <c r="AA363" s="6"/>
+      <c r="AB363" s="6"/>
+      <c r="AC363" s="6"/>
+      <c r="AD363" s="6"/>
+      <c r="AE363" s="6"/>
+      <c r="AF363" s="6"/>
+      <c r="AG363" s="6"/>
+      <c r="AH363" s="6"/>
+      <c r="AI363" s="6"/>
+      <c r="AJ363" s="6"/>
+      <c r="AK363" s="6"/>
+      <c r="AL363" s="6"/>
+      <c r="AM363" s="6"/>
+      <c r="AN363" s="6"/>
+      <c r="AO363" s="6"/>
+      <c r="AP363" s="6"/>
+      <c r="AQ363" s="6"/>
+      <c r="AR363" s="6"/>
+      <c r="AS363" s="6"/>
+      <c r="AT363" s="6"/>
+      <c r="AU363" s="6"/>
+      <c r="AV363" s="6"/>
+      <c r="AW363" s="6"/>
+      <c r="AX363" s="6"/>
+      <c r="AY363" s="6"/>
+      <c r="AZ363" s="6"/>
+      <c r="BA363" s="6"/>
+      <c r="BB363" s="6"/>
+      <c r="BC363" s="6"/>
+      <c r="BD363" s="6"/>
+      <c r="BE363" s="6"/>
+      <c r="BF363" s="6"/>
+      <c r="BG363" s="6"/>
+      <c r="BH363" s="6"/>
+      <c r="BI363" s="6"/>
     </row>
     <row r="364" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C364" s="3"/>
-      <c r="D364" s="3"/>
-      <c r="E364" s="3"/>
-      <c r="F364" s="3"/>
-      <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
-      <c r="I364" s="3"/>
-      <c r="J364" s="3"/>
-      <c r="K364" s="3"/>
-      <c r="L364" s="3"/>
-      <c r="M364" s="3"/>
-      <c r="N364" s="3"/>
-      <c r="O364" s="3"/>
-      <c r="P364" s="3"/>
-      <c r="Q364" s="3"/>
-      <c r="R364" s="3"/>
-      <c r="S364" s="3"/>
-      <c r="T364" s="3"/>
-      <c r="U364" s="3"/>
-      <c r="V364" s="3"/>
-      <c r="W364" s="3"/>
-      <c r="X364" s="3"/>
-      <c r="Y364" s="3"/>
-      <c r="Z364" s="3"/>
-      <c r="AA364" s="3"/>
-      <c r="AB364" s="3"/>
-      <c r="AC364" s="3"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="6"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="6"/>
+      <c r="I364" s="6"/>
+      <c r="J364" s="6"/>
+      <c r="K364" s="6"/>
+      <c r="L364" s="6"/>
+      <c r="M364" s="6"/>
+      <c r="N364" s="6"/>
+      <c r="O364" s="6"/>
+      <c r="P364" s="6"/>
+      <c r="Q364" s="6"/>
+      <c r="R364" s="6"/>
+      <c r="S364" s="6"/>
+      <c r="T364" s="6"/>
+      <c r="U364" s="6"/>
+      <c r="V364" s="6"/>
+      <c r="W364" s="6"/>
+      <c r="X364" s="6"/>
+      <c r="Y364" s="6"/>
+      <c r="Z364" s="6"/>
+      <c r="AA364" s="6"/>
+      <c r="AB364" s="6"/>
+      <c r="AC364" s="6"/>
+      <c r="AD364" s="6"/>
+      <c r="AE364" s="6"/>
+      <c r="AF364" s="6"/>
+      <c r="AG364" s="6"/>
+      <c r="AH364" s="6"/>
+      <c r="AI364" s="6"/>
+      <c r="AJ364" s="6"/>
+      <c r="AK364" s="6"/>
+      <c r="AL364" s="6"/>
+      <c r="AM364" s="6"/>
+      <c r="AN364" s="6"/>
+      <c r="AO364" s="6"/>
+      <c r="AP364" s="6"/>
+      <c r="AQ364" s="6"/>
+      <c r="AR364" s="6"/>
+      <c r="AS364" s="6"/>
+      <c r="AT364" s="6"/>
+      <c r="AU364" s="6"/>
+      <c r="AV364" s="6"/>
+      <c r="AW364" s="6"/>
+      <c r="AX364" s="6"/>
+      <c r="AY364" s="6"/>
+      <c r="AZ364" s="6"/>
+      <c r="BA364" s="6"/>
+      <c r="BB364" s="6"/>
+      <c r="BC364" s="6"/>
+      <c r="BD364" s="6"/>
+      <c r="BE364" s="6"/>
+      <c r="BF364" s="6"/>
+      <c r="BG364" s="6"/>
+      <c r="BH364" s="6"/>
+      <c r="BI364" s="6"/>
     </row>
     <row r="365" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C365" s="3"/>
-      <c r="D365" s="3"/>
-      <c r="E365" s="3"/>
-      <c r="F365" s="3"/>
-      <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
-      <c r="I365" s="3"/>
-      <c r="J365" s="3"/>
-      <c r="K365" s="3"/>
-      <c r="L365" s="3"/>
-      <c r="M365" s="3"/>
-      <c r="N365" s="3"/>
-      <c r="O365" s="3"/>
-      <c r="P365" s="3"/>
-      <c r="Q365" s="3"/>
-      <c r="R365" s="3"/>
-      <c r="S365" s="3"/>
-      <c r="T365" s="3"/>
-      <c r="U365" s="3"/>
-      <c r="V365" s="3"/>
-      <c r="W365" s="3"/>
-      <c r="X365" s="3"/>
-      <c r="Y365" s="3"/>
-      <c r="Z365" s="3"/>
-      <c r="AA365" s="3"/>
-      <c r="AB365" s="3"/>
-      <c r="AC365" s="3"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="6"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
+      <c r="H365" s="6"/>
+      <c r="I365" s="6"/>
+      <c r="J365" s="6"/>
+      <c r="K365" s="6"/>
+      <c r="L365" s="6"/>
+      <c r="M365" s="6"/>
+      <c r="N365" s="6"/>
+      <c r="O365" s="6"/>
+      <c r="P365" s="6"/>
+      <c r="Q365" s="6"/>
+      <c r="R365" s="6"/>
+      <c r="S365" s="6"/>
+      <c r="T365" s="6"/>
+      <c r="U365" s="6"/>
+      <c r="V365" s="6"/>
+      <c r="W365" s="6"/>
+      <c r="X365" s="6"/>
+      <c r="Y365" s="6"/>
+      <c r="Z365" s="6"/>
+      <c r="AA365" s="6"/>
+      <c r="AB365" s="6"/>
+      <c r="AC365" s="6"/>
+      <c r="AD365" s="6"/>
+      <c r="AE365" s="6"/>
+      <c r="AF365" s="6"/>
+      <c r="AG365" s="6"/>
+      <c r="AH365" s="6"/>
+      <c r="AI365" s="6"/>
+      <c r="AJ365" s="6"/>
+      <c r="AK365" s="6"/>
+      <c r="AL365" s="6"/>
+      <c r="AM365" s="6"/>
+      <c r="AN365" s="6"/>
+      <c r="AO365" s="6"/>
+      <c r="AP365" s="6"/>
+      <c r="AQ365" s="6"/>
+      <c r="AR365" s="6"/>
+      <c r="AS365" s="6"/>
+      <c r="AT365" s="6"/>
+      <c r="AU365" s="6"/>
+      <c r="AV365" s="6"/>
+      <c r="AW365" s="6"/>
+      <c r="AX365" s="6"/>
+      <c r="AY365" s="6"/>
+      <c r="AZ365" s="6"/>
+      <c r="BA365" s="6"/>
+      <c r="BB365" s="6"/>
+      <c r="BC365" s="6"/>
+      <c r="BD365" s="6"/>
+      <c r="BE365" s="6"/>
+      <c r="BF365" s="6"/>
+      <c r="BG365" s="6"/>
+      <c r="BH365" s="6"/>
+      <c r="BI365" s="6"/>
     </row>
     <row r="366" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C366" s="3"/>
-      <c r="D366" s="3"/>
-      <c r="E366" s="3"/>
-      <c r="F366" s="3"/>
-      <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
-      <c r="J366" s="3"/>
-      <c r="K366" s="3"/>
-      <c r="L366" s="3"/>
-      <c r="M366" s="3"/>
-      <c r="N366" s="3"/>
-      <c r="O366" s="3"/>
-      <c r="P366" s="3"/>
-      <c r="Q366" s="3"/>
-      <c r="R366" s="3"/>
-      <c r="S366" s="3"/>
-      <c r="T366" s="3"/>
-      <c r="U366" s="3"/>
-      <c r="V366" s="3"/>
-      <c r="W366" s="3"/>
-      <c r="X366" s="3"/>
-      <c r="Y366" s="3"/>
-      <c r="Z366" s="3"/>
-      <c r="AA366" s="3"/>
-      <c r="AB366" s="3"/>
-      <c r="AC366" s="3"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="6"/>
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="6"/>
+      <c r="I366" s="6"/>
+      <c r="J366" s="6"/>
+      <c r="K366" s="6"/>
+      <c r="L366" s="6"/>
+      <c r="M366" s="6"/>
+      <c r="N366" s="6"/>
+      <c r="O366" s="6"/>
+      <c r="P366" s="6"/>
+      <c r="Q366" s="6"/>
+      <c r="R366" s="6"/>
+      <c r="S366" s="6"/>
+      <c r="T366" s="6"/>
+      <c r="U366" s="6"/>
+      <c r="V366" s="6"/>
+      <c r="W366" s="6"/>
+      <c r="X366" s="6"/>
+      <c r="Y366" s="6"/>
+      <c r="Z366" s="6"/>
+      <c r="AA366" s="6"/>
+      <c r="AB366" s="6"/>
+      <c r="AC366" s="6"/>
+      <c r="AD366" s="6"/>
+      <c r="AE366" s="6"/>
+      <c r="AF366" s="6"/>
+      <c r="AG366" s="6"/>
+      <c r="AH366" s="6"/>
+      <c r="AI366" s="6"/>
+      <c r="AJ366" s="6"/>
+      <c r="AK366" s="6"/>
+      <c r="AL366" s="6"/>
+      <c r="AM366" s="6"/>
+      <c r="AN366" s="6"/>
+      <c r="AO366" s="6"/>
+      <c r="AP366" s="6"/>
+      <c r="AQ366" s="6"/>
+      <c r="AR366" s="6"/>
+      <c r="AS366" s="6"/>
+      <c r="AT366" s="6"/>
+      <c r="AU366" s="6"/>
+      <c r="AV366" s="6"/>
+      <c r="AW366" s="6"/>
+      <c r="AX366" s="6"/>
+      <c r="AY366" s="6"/>
+      <c r="AZ366" s="6"/>
+      <c r="BA366" s="6"/>
+      <c r="BB366" s="6"/>
+      <c r="BC366" s="6"/>
+      <c r="BD366" s="6"/>
+      <c r="BE366" s="6"/>
+      <c r="BF366" s="6"/>
+      <c r="BG366" s="6"/>
+      <c r="BH366" s="6"/>
+      <c r="BI366" s="6"/>
     </row>
     <row r="367" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C367" s="3"/>
-      <c r="D367" s="3"/>
-      <c r="E367" s="3"/>
-      <c r="F367" s="3"/>
-      <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
-      <c r="J367" s="3"/>
-      <c r="K367" s="3"/>
-      <c r="L367" s="3"/>
-      <c r="M367" s="3"/>
-      <c r="N367" s="3"/>
-      <c r="O367" s="3"/>
-      <c r="P367" s="3"/>
-      <c r="Q367" s="3"/>
-      <c r="R367" s="3"/>
-      <c r="S367" s="3"/>
-      <c r="T367" s="3"/>
-      <c r="U367" s="3"/>
-      <c r="V367" s="3"/>
-      <c r="W367" s="3"/>
-      <c r="X367" s="3"/>
-      <c r="Y367" s="3"/>
-      <c r="Z367" s="3"/>
-      <c r="AA367" s="3"/>
-      <c r="AB367" s="3"/>
-      <c r="AC367" s="3"/>
+      <c r="C367" s="6"/>
+      <c r="D367" s="6"/>
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
+      <c r="G367" s="6"/>
+      <c r="H367" s="6"/>
+      <c r="I367" s="6"/>
+      <c r="J367" s="6"/>
+      <c r="K367" s="6"/>
+      <c r="L367" s="6"/>
+      <c r="M367" s="6"/>
+      <c r="N367" s="6"/>
+      <c r="O367" s="6"/>
+      <c r="P367" s="6"/>
+      <c r="Q367" s="6"/>
+      <c r="R367" s="6"/>
+      <c r="S367" s="6"/>
+      <c r="T367" s="6"/>
+      <c r="U367" s="6"/>
+      <c r="V367" s="6"/>
+      <c r="W367" s="6"/>
+      <c r="X367" s="6"/>
+      <c r="Y367" s="6"/>
+      <c r="Z367" s="6"/>
+      <c r="AA367" s="6"/>
+      <c r="AB367" s="6"/>
+      <c r="AC367" s="6"/>
+      <c r="AD367" s="6"/>
+      <c r="AE367" s="6"/>
+      <c r="AF367" s="6"/>
+      <c r="AG367" s="6"/>
+      <c r="AH367" s="6"/>
+      <c r="AI367" s="6"/>
+      <c r="AJ367" s="6"/>
+      <c r="AK367" s="6"/>
+      <c r="AL367" s="6"/>
+      <c r="AM367" s="6"/>
+      <c r="AN367" s="6"/>
+      <c r="AO367" s="6"/>
+      <c r="AP367" s="6"/>
+      <c r="AQ367" s="6"/>
+      <c r="AR367" s="6"/>
+      <c r="AS367" s="6"/>
+      <c r="AT367" s="6"/>
+      <c r="AU367" s="6"/>
+      <c r="AV367" s="6"/>
+      <c r="AW367" s="6"/>
+      <c r="AX367" s="6"/>
+      <c r="AY367" s="6"/>
+      <c r="AZ367" s="6"/>
+      <c r="BA367" s="6"/>
+      <c r="BB367" s="6"/>
+      <c r="BC367" s="6"/>
+      <c r="BD367" s="6"/>
+      <c r="BE367" s="6"/>
+      <c r="BF367" s="6"/>
+      <c r="BG367" s="6"/>
+      <c r="BH367" s="6"/>
+      <c r="BI367" s="6"/>
     </row>
     <row r="368" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
@@ -24824,10 +27185,2517 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
+    <row r="442" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C442" s="3"/>
+      <c r="D442" s="3"/>
+      <c r="E442" s="3"/>
+      <c r="F442" s="3"/>
+      <c r="G442" s="3"/>
+      <c r="H442" s="3"/>
+      <c r="I442" s="3"/>
+      <c r="J442" s="3"/>
+      <c r="K442" s="3"/>
+      <c r="L442" s="3"/>
+      <c r="M442" s="3"/>
+      <c r="N442" s="3"/>
+      <c r="O442" s="3"/>
+      <c r="P442" s="3"/>
+      <c r="Q442" s="3"/>
+      <c r="R442" s="3"/>
+      <c r="S442" s="3"/>
+      <c r="T442" s="3"/>
+      <c r="U442" s="3"/>
+      <c r="V442" s="3"/>
+      <c r="W442" s="3"/>
+      <c r="X442" s="3"/>
+      <c r="Y442" s="3"/>
+      <c r="Z442" s="3"/>
+      <c r="AA442" s="3"/>
+      <c r="AB442" s="3"/>
+      <c r="AC442" s="3"/>
+    </row>
+    <row r="443" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C443" s="3"/>
+      <c r="D443" s="3"/>
+      <c r="E443" s="3"/>
+      <c r="F443" s="3"/>
+      <c r="G443" s="3"/>
+      <c r="H443" s="3"/>
+      <c r="I443" s="3"/>
+      <c r="J443" s="3"/>
+      <c r="K443" s="3"/>
+      <c r="L443" s="3"/>
+      <c r="M443" s="3"/>
+      <c r="N443" s="3"/>
+      <c r="O443" s="3"/>
+      <c r="P443" s="3"/>
+      <c r="Q443" s="3"/>
+      <c r="R443" s="3"/>
+      <c r="S443" s="3"/>
+      <c r="T443" s="3"/>
+      <c r="U443" s="3"/>
+      <c r="V443" s="3"/>
+      <c r="W443" s="3"/>
+      <c r="X443" s="3"/>
+      <c r="Y443" s="3"/>
+      <c r="Z443" s="3"/>
+      <c r="AA443" s="3"/>
+      <c r="AB443" s="3"/>
+      <c r="AC443" s="3"/>
+    </row>
+    <row r="444" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C444" s="3"/>
+      <c r="D444" s="3"/>
+      <c r="E444" s="3"/>
+      <c r="F444" s="3"/>
+      <c r="G444" s="3"/>
+      <c r="H444" s="3"/>
+      <c r="I444" s="3"/>
+      <c r="J444" s="3"/>
+      <c r="K444" s="3"/>
+      <c r="L444" s="3"/>
+      <c r="M444" s="3"/>
+      <c r="N444" s="3"/>
+      <c r="O444" s="3"/>
+      <c r="P444" s="3"/>
+      <c r="Q444" s="3"/>
+      <c r="R444" s="3"/>
+      <c r="S444" s="3"/>
+      <c r="T444" s="3"/>
+      <c r="U444" s="3"/>
+      <c r="V444" s="3"/>
+      <c r="W444" s="3"/>
+      <c r="X444" s="3"/>
+      <c r="Y444" s="3"/>
+      <c r="Z444" s="3"/>
+      <c r="AA444" s="3"/>
+      <c r="AB444" s="3"/>
+      <c r="AC444" s="3"/>
+    </row>
+    <row r="445" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C445" s="3"/>
+      <c r="D445" s="3"/>
+      <c r="E445" s="3"/>
+      <c r="F445" s="3"/>
+      <c r="G445" s="3"/>
+      <c r="H445" s="3"/>
+      <c r="I445" s="3"/>
+      <c r="J445" s="3"/>
+      <c r="K445" s="3"/>
+      <c r="L445" s="3"/>
+      <c r="M445" s="3"/>
+      <c r="N445" s="3"/>
+      <c r="O445" s="3"/>
+      <c r="P445" s="3"/>
+      <c r="Q445" s="3"/>
+      <c r="R445" s="3"/>
+      <c r="S445" s="3"/>
+      <c r="T445" s="3"/>
+      <c r="U445" s="3"/>
+      <c r="V445" s="3"/>
+      <c r="W445" s="3"/>
+      <c r="X445" s="3"/>
+      <c r="Y445" s="3"/>
+      <c r="Z445" s="3"/>
+      <c r="AA445" s="3"/>
+      <c r="AB445" s="3"/>
+      <c r="AC445" s="3"/>
+    </row>
+    <row r="446" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C446" s="3"/>
+      <c r="D446" s="3"/>
+      <c r="E446" s="3"/>
+      <c r="F446" s="3"/>
+      <c r="G446" s="3"/>
+      <c r="H446" s="3"/>
+      <c r="I446" s="3"/>
+      <c r="J446" s="3"/>
+      <c r="K446" s="3"/>
+      <c r="L446" s="3"/>
+      <c r="M446" s="3"/>
+      <c r="N446" s="3"/>
+      <c r="O446" s="3"/>
+      <c r="P446" s="3"/>
+      <c r="Q446" s="3"/>
+      <c r="R446" s="3"/>
+      <c r="S446" s="3"/>
+      <c r="T446" s="3"/>
+      <c r="U446" s="3"/>
+      <c r="V446" s="3"/>
+      <c r="W446" s="3"/>
+      <c r="X446" s="3"/>
+      <c r="Y446" s="3"/>
+      <c r="Z446" s="3"/>
+      <c r="AA446" s="3"/>
+      <c r="AB446" s="3"/>
+      <c r="AC446" s="3"/>
+    </row>
+    <row r="447" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C447" s="3"/>
+      <c r="D447" s="3"/>
+      <c r="E447" s="3"/>
+      <c r="F447" s="3"/>
+      <c r="G447" s="3"/>
+      <c r="H447" s="3"/>
+      <c r="I447" s="3"/>
+      <c r="J447" s="3"/>
+      <c r="K447" s="3"/>
+      <c r="L447" s="3"/>
+      <c r="M447" s="3"/>
+      <c r="N447" s="3"/>
+      <c r="O447" s="3"/>
+      <c r="P447" s="3"/>
+      <c r="Q447" s="3"/>
+      <c r="R447" s="3"/>
+      <c r="S447" s="3"/>
+      <c r="T447" s="3"/>
+      <c r="U447" s="3"/>
+      <c r="V447" s="3"/>
+      <c r="W447" s="3"/>
+      <c r="X447" s="3"/>
+      <c r="Y447" s="3"/>
+      <c r="Z447" s="3"/>
+      <c r="AA447" s="3"/>
+      <c r="AB447" s="3"/>
+      <c r="AC447" s="3"/>
+    </row>
+    <row r="448" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C448" s="3"/>
+      <c r="D448" s="3"/>
+      <c r="E448" s="3"/>
+      <c r="F448" s="3"/>
+      <c r="G448" s="3"/>
+      <c r="H448" s="3"/>
+      <c r="I448" s="3"/>
+      <c r="J448" s="3"/>
+      <c r="K448" s="3"/>
+      <c r="L448" s="3"/>
+      <c r="M448" s="3"/>
+      <c r="N448" s="3"/>
+      <c r="O448" s="3"/>
+      <c r="P448" s="3"/>
+      <c r="Q448" s="3"/>
+      <c r="R448" s="3"/>
+      <c r="S448" s="3"/>
+      <c r="T448" s="3"/>
+      <c r="U448" s="3"/>
+      <c r="V448" s="3"/>
+      <c r="W448" s="3"/>
+      <c r="X448" s="3"/>
+      <c r="Y448" s="3"/>
+      <c r="Z448" s="3"/>
+      <c r="AA448" s="3"/>
+      <c r="AB448" s="3"/>
+      <c r="AC448" s="3"/>
+    </row>
+    <row r="449" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C449" s="3"/>
+      <c r="D449" s="3"/>
+      <c r="E449" s="3"/>
+      <c r="F449" s="3"/>
+      <c r="G449" s="3"/>
+      <c r="H449" s="3"/>
+      <c r="I449" s="3"/>
+      <c r="J449" s="3"/>
+      <c r="K449" s="3"/>
+      <c r="L449" s="3"/>
+      <c r="M449" s="3"/>
+      <c r="N449" s="3"/>
+      <c r="O449" s="3"/>
+      <c r="P449" s="3"/>
+      <c r="Q449" s="3"/>
+      <c r="R449" s="3"/>
+      <c r="S449" s="3"/>
+      <c r="T449" s="3"/>
+      <c r="U449" s="3"/>
+      <c r="V449" s="3"/>
+      <c r="W449" s="3"/>
+      <c r="X449" s="3"/>
+      <c r="Y449" s="3"/>
+      <c r="Z449" s="3"/>
+      <c r="AA449" s="3"/>
+      <c r="AB449" s="3"/>
+      <c r="AC449" s="3"/>
+    </row>
+    <row r="450" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C450" s="3"/>
+      <c r="D450" s="3"/>
+      <c r="E450" s="3"/>
+      <c r="F450" s="3"/>
+      <c r="G450" s="3"/>
+      <c r="H450" s="3"/>
+      <c r="I450" s="3"/>
+      <c r="J450" s="3"/>
+      <c r="K450" s="3"/>
+      <c r="L450" s="3"/>
+      <c r="M450" s="3"/>
+      <c r="N450" s="3"/>
+      <c r="O450" s="3"/>
+      <c r="P450" s="3"/>
+      <c r="Q450" s="3"/>
+      <c r="R450" s="3"/>
+      <c r="S450" s="3"/>
+      <c r="T450" s="3"/>
+      <c r="U450" s="3"/>
+      <c r="V450" s="3"/>
+      <c r="W450" s="3"/>
+      <c r="X450" s="3"/>
+      <c r="Y450" s="3"/>
+      <c r="Z450" s="3"/>
+      <c r="AA450" s="3"/>
+      <c r="AB450" s="3"/>
+      <c r="AC450" s="3"/>
+    </row>
+    <row r="451" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C451" s="3"/>
+      <c r="D451" s="3"/>
+      <c r="E451" s="3"/>
+      <c r="F451" s="3"/>
+      <c r="G451" s="3"/>
+      <c r="H451" s="3"/>
+      <c r="I451" s="3"/>
+      <c r="J451" s="3"/>
+      <c r="K451" s="3"/>
+      <c r="L451" s="3"/>
+      <c r="M451" s="3"/>
+      <c r="N451" s="3"/>
+      <c r="O451" s="3"/>
+      <c r="P451" s="3"/>
+      <c r="Q451" s="3"/>
+      <c r="R451" s="3"/>
+      <c r="S451" s="3"/>
+      <c r="T451" s="3"/>
+      <c r="U451" s="3"/>
+      <c r="V451" s="3"/>
+      <c r="W451" s="3"/>
+      <c r="X451" s="3"/>
+      <c r="Y451" s="3"/>
+      <c r="Z451" s="3"/>
+      <c r="AA451" s="3"/>
+      <c r="AB451" s="3"/>
+      <c r="AC451" s="3"/>
+    </row>
+    <row r="452" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C452" s="3"/>
+      <c r="D452" s="3"/>
+      <c r="E452" s="3"/>
+      <c r="F452" s="3"/>
+      <c r="G452" s="3"/>
+      <c r="H452" s="3"/>
+      <c r="I452" s="3"/>
+      <c r="J452" s="3"/>
+      <c r="K452" s="3"/>
+      <c r="L452" s="3"/>
+      <c r="M452" s="3"/>
+      <c r="N452" s="3"/>
+      <c r="O452" s="3"/>
+      <c r="P452" s="3"/>
+      <c r="Q452" s="3"/>
+      <c r="R452" s="3"/>
+      <c r="S452" s="3"/>
+      <c r="T452" s="3"/>
+      <c r="U452" s="3"/>
+      <c r="V452" s="3"/>
+      <c r="W452" s="3"/>
+      <c r="X452" s="3"/>
+      <c r="Y452" s="3"/>
+      <c r="Z452" s="3"/>
+      <c r="AA452" s="3"/>
+      <c r="AB452" s="3"/>
+      <c r="AC452" s="3"/>
+    </row>
+    <row r="453" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C453" s="3"/>
+      <c r="D453" s="3"/>
+      <c r="E453" s="3"/>
+      <c r="F453" s="3"/>
+      <c r="G453" s="3"/>
+      <c r="H453" s="3"/>
+      <c r="I453" s="3"/>
+      <c r="J453" s="3"/>
+      <c r="K453" s="3"/>
+      <c r="L453" s="3"/>
+      <c r="M453" s="3"/>
+      <c r="N453" s="3"/>
+      <c r="O453" s="3"/>
+      <c r="P453" s="3"/>
+      <c r="Q453" s="3"/>
+      <c r="R453" s="3"/>
+      <c r="S453" s="3"/>
+      <c r="T453" s="3"/>
+      <c r="U453" s="3"/>
+      <c r="V453" s="3"/>
+      <c r="W453" s="3"/>
+      <c r="X453" s="3"/>
+      <c r="Y453" s="3"/>
+      <c r="Z453" s="3"/>
+      <c r="AA453" s="3"/>
+      <c r="AB453" s="3"/>
+      <c r="AC453" s="3"/>
+    </row>
+    <row r="454" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C454" s="3"/>
+      <c r="D454" s="3"/>
+      <c r="E454" s="3"/>
+      <c r="F454" s="3"/>
+      <c r="G454" s="3"/>
+      <c r="H454" s="3"/>
+      <c r="I454" s="3"/>
+      <c r="J454" s="3"/>
+      <c r="K454" s="3"/>
+      <c r="L454" s="3"/>
+      <c r="M454" s="3"/>
+      <c r="N454" s="3"/>
+      <c r="O454" s="3"/>
+      <c r="P454" s="3"/>
+      <c r="Q454" s="3"/>
+      <c r="R454" s="3"/>
+      <c r="S454" s="3"/>
+      <c r="T454" s="3"/>
+      <c r="U454" s="3"/>
+      <c r="V454" s="3"/>
+      <c r="W454" s="3"/>
+      <c r="X454" s="3"/>
+      <c r="Y454" s="3"/>
+      <c r="Z454" s="3"/>
+      <c r="AA454" s="3"/>
+      <c r="AB454" s="3"/>
+      <c r="AC454" s="3"/>
+    </row>
+    <row r="455" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C455" s="3"/>
+      <c r="D455" s="3"/>
+      <c r="E455" s="3"/>
+      <c r="F455" s="3"/>
+      <c r="G455" s="3"/>
+      <c r="H455" s="3"/>
+      <c r="I455" s="3"/>
+      <c r="J455" s="3"/>
+      <c r="K455" s="3"/>
+      <c r="L455" s="3"/>
+      <c r="M455" s="3"/>
+      <c r="N455" s="3"/>
+      <c r="O455" s="3"/>
+      <c r="P455" s="3"/>
+      <c r="Q455" s="3"/>
+      <c r="R455" s="3"/>
+      <c r="S455" s="3"/>
+      <c r="T455" s="3"/>
+      <c r="U455" s="3"/>
+      <c r="V455" s="3"/>
+      <c r="W455" s="3"/>
+      <c r="X455" s="3"/>
+      <c r="Y455" s="3"/>
+      <c r="Z455" s="3"/>
+      <c r="AA455" s="3"/>
+      <c r="AB455" s="3"/>
+      <c r="AC455" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{045468A1-3DAF-463D-BF7D-92662B42E658}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABE3805-B610-4F69-BD75-9064111B0299}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>104.1</v>
+      </c>
+      <c r="E3">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="F3">
+        <v>122.1</v>
+      </c>
+      <c r="G3">
+        <v>117.3</v>
+      </c>
+      <c r="H3">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>99.659000000000006</v>
+      </c>
+      <c r="E4" s="6">
+        <v>95.688999999999993</v>
+      </c>
+      <c r="F4" s="6">
+        <v>90.850999999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>86.668000000000006</v>
+      </c>
+      <c r="H4" s="6">
+        <v>82.162000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5" si="0">+D3*D4</f>
+        <v>10374.501899999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5" si="1">+E3*E4</f>
+        <v>13138.099700000001</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5" si="2">+F3*F4</f>
+        <v>11092.907099999999</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5" si="3">+G3*G4</f>
+        <v>10166.1564</v>
+      </c>
+      <c r="H5" s="3">
+        <f>+H3*H4</f>
+        <v>7830.0386000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9859B094-BECA-4C47-A2E0-22408521A5AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC400E0-69CE-4ED2-B351-96998FD18D33}">
+  <dimension ref="A1:AO76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="28">
+        <f>+Main!J2</f>
+        <v>86.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="28">
+        <f>+J3</f>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="29">
+        <f ca="1">+TODAY()</f>
+        <v>45970</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="30">
+        <f ca="1">V62</f>
+        <v>147.19423328168963</v>
+      </c>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O4" s="31">
+        <f>+J15+O15+T15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="81">
+        <v>46022</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="33">
+        <f ca="1">J4/J3-1</f>
+        <v>0.70166743678253907</v>
+      </c>
+      <c r="L5" t="s">
+        <v>122</v>
+      </c>
+      <c r="O5" s="33">
+        <f>O4/O3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+    </row>
+    <row r="8" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+    </row>
+    <row r="9" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="G9" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="L9" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="Q9" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+    </row>
+    <row r="10" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="T10" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="32">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="32">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="32">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="Q14" t="s">
+        <v>137</v>
+      </c>
+      <c r="T14" s="40"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="32">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="40"/>
+      <c r="Q15" t="s">
+        <v>139</v>
+      </c>
+      <c r="T15" s="40"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="40">
+        <f>CHOOSE(E13,J18,O18,T18)</f>
+        <v>0.09</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="40">
+        <v>0.09</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" s="40"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="40">
+        <f>CHOOSE(E14,J19,O19,T19)</f>
+        <v>0.01</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="L19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O19" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>136</v>
+      </c>
+      <c r="T19" s="40"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="40">
+        <f>CHOOSE(E15,J20,O20,T20)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="L20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>141</v>
+      </c>
+      <c r="T20" s="40"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="41">
+        <v>19</v>
+      </c>
+      <c r="H24" s="41">
+        <f>G24+1</f>
+        <v>20</v>
+      </c>
+      <c r="I24" s="41">
+        <f t="shared" ref="I24:V24" si="0">H24+1</f>
+        <v>21</v>
+      </c>
+      <c r="J24" s="41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K24" s="41">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="L24" s="41">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M24" s="41">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="N24" s="41">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O24" s="41">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="P24" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q24" s="41">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="R24" s="41">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="S24" s="41">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="T24" s="41">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="U24" s="41">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="V24" s="41">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
+        <f>+Model!O10</f>
+        <v>8730.9</v>
+      </c>
+      <c r="L25" s="3">
+        <f>+Model!P10</f>
+        <v>9202.1</v>
+      </c>
+      <c r="M25" s="3">
+        <f ca="1">L25*(1+M26)</f>
+        <v>9294.121000000001</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" ref="N25:V25" ca="1" si="1">M25*(1+N26)</f>
+        <v>9387.0622100000019</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9480.9328321000012</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9575.7421604210012</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9671.4995820252116</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9768.2145778454633</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9865.8967236239187</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9964.5556908601575</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>10064.201247768759</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>10164.843260246445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45" t="e">
+        <f t="shared" ref="H26:L26" si="2">H25/G25-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="45" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="45" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="45" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="45">
+        <f t="shared" si="2"/>
+        <v>5.3969235703077656E-2</v>
+      </c>
+      <c r="M26" s="45" cm="1">
+        <f t="array" aca="1" ref="M26" ca="1">OFFSET(M26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="45" cm="1">
+        <f t="array" aca="1" ref="N26" ca="1">OFFSET(N26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="O26" s="45" cm="1">
+        <f t="array" aca="1" ref="O26" ca="1">OFFSET(O26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="P26" s="45" cm="1">
+        <f t="array" aca="1" ref="P26" ca="1">OFFSET(P26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="Q26" s="45" cm="1">
+        <f t="array" aca="1" ref="Q26" ca="1">OFFSET(Q26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="R26" s="45" cm="1">
+        <f t="array" aca="1" ref="R26" ca="1">OFFSET(R26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="S26" s="45" cm="1">
+        <f t="array" aca="1" ref="S26" ca="1">OFFSET(S26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="T26" s="45" cm="1">
+        <f t="array" aca="1" ref="T26" ca="1">OFFSET(T26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="U26" s="45" cm="1">
+        <f t="array" aca="1" ref="U26" ca="1">OFFSET(U26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+      <c r="V26" s="45" cm="1">
+        <f t="array" aca="1" ref="V26" ca="1">OFFSET(V26,$E$11,,)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="43"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="N28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="O28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="P28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="Q28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="S28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="T28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="U28" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="V28" s="46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3">
+        <f>+Model!O17</f>
+        <v>1638.2999999999995</v>
+      </c>
+      <c r="L31" s="3">
+        <f>+Model!P17</f>
+        <v>1380.1999999999998</v>
+      </c>
+      <c r="M31" s="3">
+        <f ca="1">M32*M25</f>
+        <v>1394.11815</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" ref="N31:V31" ca="1" si="3">N32*N25</f>
+        <v>1408.0593315000003</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1422.1399248150001</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1436.3613240631501</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1450.7249373037816</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1465.2321866768195</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1479.8845085435878</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1494.6833536290235</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1509.6301871653138</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1524.7264890369668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="45" t="e">
+        <f>G31/G25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="45" t="e">
+        <f t="shared" ref="H32:L32" si="4">H31/H25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="45" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="45" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="45">
+        <f t="shared" si="4"/>
+        <v>0.18764388551008482</v>
+      </c>
+      <c r="L32" s="45">
+        <f t="shared" si="4"/>
+        <v>0.1499875028526097</v>
+      </c>
+      <c r="M32" s="45" cm="1">
+        <f t="array" aca="1" ref="M32" ca="1">OFFSET(M32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="N32" s="45" cm="1">
+        <f t="array" aca="1" ref="N32" ca="1">OFFSET(N32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="O32" s="45" cm="1">
+        <f t="array" aca="1" ref="O32" ca="1">OFFSET(O32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="P32" s="45" cm="1">
+        <f t="array" aca="1" ref="P32" ca="1">OFFSET(P32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="Q32" s="45" cm="1">
+        <f t="array" aca="1" ref="Q32" ca="1">OFFSET(Q32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="R32" s="45" cm="1">
+        <f t="array" aca="1" ref="R32" ca="1">OFFSET(R32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="S32" s="45" cm="1">
+        <f t="array" aca="1" ref="S32" ca="1">OFFSET(S32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="T32" s="45" cm="1">
+        <f t="array" aca="1" ref="T32" ca="1">OFFSET(T32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="U32" s="45" cm="1">
+        <f t="array" aca="1" ref="U32" ca="1">OFFSET(U32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+      <c r="V32" s="45" cm="1">
+        <f t="array" aca="1" ref="V32" ca="1">OFFSET(V32,$E$12,,)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+    </row>
+    <row r="34" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="N34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="O34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="P34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="Q34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="R34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="S34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="T34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="U34" s="46">
+        <v>0.15</v>
+      </c>
+      <c r="V34" s="46">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3">
+        <f>+Model!O22</f>
+        <v>308.39999999999998</v>
+      </c>
+      <c r="L37" s="3">
+        <f>+Model!P22</f>
+        <v>279.60000000000002</v>
+      </c>
+      <c r="M37" s="3">
+        <f ca="1">M38*M31</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" ref="N37:V37" ca="1" si="5">N38*N31</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="45" t="e">
+        <f t="shared" ref="G38:L38" si="6">G37/G31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="45" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="45" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="45" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="45">
+        <f t="shared" si="6"/>
+        <v>0.18824391137154373</v>
+      </c>
+      <c r="L38" s="45">
+        <f t="shared" si="6"/>
+        <v>0.20257933632806843</v>
+      </c>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B39" s="43"/>
+    </row>
+    <row r="40" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49">
+        <f t="shared" ref="G40:V40" si="7">G31-G37</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="49">
+        <f t="shared" si="7"/>
+        <v>1329.8999999999996</v>
+      </c>
+      <c r="L40" s="49">
+        <f t="shared" si="7"/>
+        <v>1100.5999999999999</v>
+      </c>
+      <c r="M40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1394.11815</v>
+      </c>
+      <c r="N40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1408.0593315000003</v>
+      </c>
+      <c r="O40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1422.1399248150001</v>
+      </c>
+      <c r="P40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1436.3613240631501</v>
+      </c>
+      <c r="Q40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1450.7249373037816</v>
+      </c>
+      <c r="R40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1465.2321866768195</v>
+      </c>
+      <c r="S40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1479.8845085435878</v>
+      </c>
+      <c r="T40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1494.6833536290235</v>
+      </c>
+      <c r="U40" s="49">
+        <f t="shared" ca="1" si="7"/>
+        <v>1509.6301871653138</v>
+      </c>
+      <c r="V40" s="50">
+        <f t="shared" ca="1" si="7"/>
+        <v>1524.7264890369668</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
+        <f>+Model!O74</f>
+        <v>375</v>
+      </c>
+      <c r="L42" s="3">
+        <f>+Model!P74</f>
+        <v>419.8</v>
+      </c>
+      <c r="M42" s="3">
+        <f ca="1">M43*M25</f>
+        <v>408.94132400000001</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" ref="N42:V42" ca="1" si="8">N43*N25</f>
+        <v>413.03073724000006</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>417.16104461240002</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>421.33265505852404</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>425.54598160910928</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>429.80144142520038</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>434.09945583945239</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>438.44045039784692</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>442.82485490182535</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" ca="1" si="8"/>
+        <v>447.25310345084358</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="51" t="e">
+        <f t="shared" ref="G43:L43" si="9">G42/G25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="51" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="51" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="51" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="51">
+        <f t="shared" si="9"/>
+        <v>4.2950898532797308E-2</v>
+      </c>
+      <c r="L43" s="51">
+        <f t="shared" si="9"/>
+        <v>4.5620021516827682E-2</v>
+      </c>
+      <c r="M43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="T43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="U43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="V43" s="52">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3">
+        <f>+Model!O83+Model!O84</f>
+        <v>-308.39999999999998</v>
+      </c>
+      <c r="L45" s="3">
+        <f>+Model!P83+Model!P84</f>
+        <v>-264.3</v>
+      </c>
+      <c r="M45" s="3">
+        <f ca="1">M46*M25</f>
+        <v>-306.70599300000003</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" ref="N45:V45" ca="1" si="10">N46*N25</f>
+        <v>-309.77305293000006</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-312.87078345930007</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-315.99949129389307</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-319.15948620683201</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-322.35108106890033</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-325.57459187958932</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-328.83033779838519</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-332.11864117636907</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" ca="1" si="10"/>
+        <v>-335.43982758813269</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="51" t="e">
+        <f t="shared" ref="G46:L46" si="11">G45/G25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="51" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="51" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="51" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" s="51">
+        <f t="shared" si="11"/>
+        <v>-3.5322818953372505E-2</v>
+      </c>
+      <c r="L46" s="51">
+        <f t="shared" si="11"/>
+        <v>-2.8721704828245726E-2</v>
+      </c>
+      <c r="M46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="N46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="O46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="P46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="Q46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="R46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="S46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="T46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="U46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="V46" s="52">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
+        <f>+Model!O76</f>
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="L48" s="3">
+        <f>+Model!P76</f>
+        <v>-138.4</v>
+      </c>
+      <c r="M48" s="3">
+        <f ca="1">M49*M25</f>
+        <v>-92.941210000000012</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" ref="N48:V48" ca="1" si="12">N49*N25</f>
+        <v>-93.87062210000002</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-94.80932832100001</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-95.757421604210009</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-96.714995820252113</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-97.68214577845464</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-98.658967236239192</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-99.645556908601577</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-100.64201247768759</v>
+      </c>
+      <c r="V48" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>-101.64843260246445</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B49" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="51" t="e">
+        <f t="shared" ref="G49:L49" si="13">G48/G25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="51" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I49" s="51" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" s="51" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K49" s="51">
+        <f t="shared" si="13"/>
+        <v>-4.2034612697430971E-3</v>
+      </c>
+      <c r="L49" s="51">
+        <f t="shared" si="13"/>
+        <v>-1.5040045207072299E-2</v>
+      </c>
+      <c r="M49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="N49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="O49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="P49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="Q49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="R49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="S49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="T49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="U49" s="52">
+        <v>-0.01</v>
+      </c>
+      <c r="V49" s="52">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55">
+        <f>G40+G42+G45+G48</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="55">
+        <f t="shared" ref="H51:U51" si="14">H40+H42+H45+H48</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="55">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="55">
+        <f t="shared" si="14"/>
+        <v>1359.7999999999995</v>
+      </c>
+      <c r="L51" s="55">
+        <f t="shared" si="14"/>
+        <v>1117.6999999999998</v>
+      </c>
+      <c r="M51" s="55">
+        <f ca="1">M40+M42+M45+M48</f>
+        <v>1403.4122710000001</v>
+      </c>
+      <c r="N51" s="55">
+        <f t="shared" ca="1" si="14"/>
+        <v>1417.4463937100002</v>
+      </c>
+      <c r="O51" s="55">
+        <f t="shared" ca="1" si="14"/>
+        <v>1431.6208576470999</v>
+      </c>
+      <c r="P51" s="55">
+        <f t="shared" ca="1" si="14"/>
+        <v>1445.937066223571</v>
+      </c>
+      <c r="Q51" s="55">
+        <f t="shared" ca="1" si="14"/>
+        <v>1460.3964368858067</v>
+      </c>
+      <c r="R51" s="55">
+        <f t="shared" ca="1" si="14"/>
+        <v>1475.0004012546649</v>
+      </c>
+      <c r="S51" s="55">
+        <f t="shared" ca="1" si="14"/>
+        <v>1489.7504052672116</v>
+      </c>
+      <c r="T51" s="55">
+        <f t="shared" ca="1" si="14"/>
+        <v>1504.6479093198836</v>
+      </c>
+      <c r="U51" s="55">
+        <f t="shared" ca="1" si="14"/>
+        <v>1519.6943884130826</v>
+      </c>
+      <c r="V51" s="56">
+        <f ca="1">V40+V42+V45+V48</f>
+        <v>1534.8913322972132</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59">
+        <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
+        <v>200.20737096679937</v>
+      </c>
+      <c r="N52" s="59">
+        <f ca="1">N51/(1+$E$18)^N53</f>
+        <v>1284.3225138237162</v>
+      </c>
+      <c r="O52" s="59">
+        <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
+        <v>1190.060310974269</v>
+      </c>
+      <c r="P52" s="59">
+        <f t="shared" ca="1" si="15"/>
+        <v>1102.7164349394602</v>
+      </c>
+      <c r="Q52" s="59">
+        <f t="shared" ca="1" si="15"/>
+        <v>1021.7831186136283</v>
+      </c>
+      <c r="R52" s="59">
+        <f t="shared" ca="1" si="15"/>
+        <v>946.7898622016188</v>
+      </c>
+      <c r="S52" s="59">
+        <f t="shared" ca="1" si="15"/>
+        <v>877.30069800333479</v>
+      </c>
+      <c r="T52" s="59">
+        <f t="shared" ca="1" si="15"/>
+        <v>812.91165594804409</v>
+      </c>
+      <c r="U52" s="59">
+        <f t="shared" ca="1" si="15"/>
+        <v>753.24841514451794</v>
+      </c>
+      <c r="V52" s="60">
+        <f ca="1">V51/(1+$E$18)^V53</f>
+        <v>697.96412779446143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="M53" s="82">
+        <f ca="1">YEARFRAC(E4,E5)</f>
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="N53" s="82">
+        <f ca="1">M53+1</f>
+        <v>1.1444444444444444</v>
+      </c>
+      <c r="O53" s="82">
+        <f ca="1">N53+1</f>
+        <v>2.1444444444444444</v>
+      </c>
+      <c r="P53" s="82">
+        <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
+        <v>3.1444444444444444</v>
+      </c>
+      <c r="Q53" s="82">
+        <f t="shared" ca="1" si="16"/>
+        <v>4.1444444444444439</v>
+      </c>
+      <c r="R53" s="82">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.1444444444444439</v>
+      </c>
+      <c r="S53" s="82">
+        <f t="shared" ca="1" si="16"/>
+        <v>6.1444444444444439</v>
+      </c>
+      <c r="T53" s="82">
+        <f t="shared" ca="1" si="16"/>
+        <v>7.1444444444444439</v>
+      </c>
+      <c r="U53" s="82">
+        <f t="shared" ca="1" si="16"/>
+        <v>8.1444444444444439</v>
+      </c>
+      <c r="V53" s="82">
+        <f t="shared" ca="1" si="16"/>
+        <v>9.1444444444444439</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="V54" s="3">
+        <f ca="1">SUM(M52:V52)</f>
+        <v>8887.3045084098521</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61"/>
+      <c r="V55" s="3">
+        <f ca="1">+(V40*(1+E19))*(1-(E19/E20))/(E18-E19)</f>
+        <v>17324.704731682534</v>
+      </c>
+      <c r="X55" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="64">
+        <f ca="1">V55/(1+E18)^V53</f>
+        <v>7878.0967570177818</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B57" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="66"/>
+      <c r="T57" s="66"/>
+      <c r="U57" s="66"/>
+      <c r="V57" s="67">
+        <f ca="1">V54+V56</f>
+        <v>16765.401265427634</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="61"/>
+      <c r="V58" s="68">
+        <f>+Main!J5</f>
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B59" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="64">
+        <f>+Main!J6</f>
+        <v>5226.3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>163</v>
+      </c>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="V60" s="68">
+        <f ca="1">V57+V58-V59</f>
+        <v>11607.001265427636</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B61" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
+      <c r="Q61" s="63"/>
+      <c r="R61" s="63"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="64">
+        <f>+Main!J3</f>
+        <v>78.855000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="V62" s="68">
+        <f ca="1">V60/V61</f>
+        <v>147.19423328168963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+    </row>
+    <row r="68" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" s="69"/>
+      <c r="C68" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+      <c r="J68" s="71"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="73"/>
+    </row>
+    <row r="69" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="75">
+        <f ca="1">+J4</f>
+        <v>147.19423328168963</v>
+      </c>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="76"/>
+      <c r="M69" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="N69" s="75">
+        <f ca="1">+J4</f>
+        <v>147.19423328168963</v>
+      </c>
+      <c r="O69" s="76"/>
+      <c r="P69" s="76"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="76"/>
+      <c r="S69" s="76"/>
+      <c r="T69" s="76"/>
+      <c r="U69" s="76"/>
+    </row>
+    <row r="70" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" s="74"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="77"/>
+      <c r="O70" s="78"/>
+      <c r="P70" s="78"/>
+      <c r="Q70" s="78"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="78"/>
+      <c r="T70" s="78"/>
+      <c r="U70" s="78"/>
+    </row>
+    <row r="71" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" s="74"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="77"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="78"/>
+      <c r="Q71" s="78"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="78"/>
+      <c r="T71" s="78"/>
+      <c r="U71" s="78"/>
+    </row>
+    <row r="72" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" s="74"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
+      <c r="S72" s="79"/>
+      <c r="T72" s="79"/>
+      <c r="U72" s="79"/>
+    </row>
+    <row r="73" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B73" s="74"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="77"/>
+      <c r="O73" s="78"/>
+      <c r="P73" s="78"/>
+      <c r="Q73" s="78"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="78"/>
+      <c r="T73" s="78"/>
+      <c r="U73" s="78"/>
+    </row>
+    <row r="74" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B74" s="74"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="77"/>
+      <c r="O74" s="78"/>
+      <c r="P74" s="78"/>
+      <c r="Q74" s="78"/>
+      <c r="R74" s="79"/>
+      <c r="S74" s="78"/>
+      <c r="T74" s="78"/>
+      <c r="U74" s="78"/>
+    </row>
+    <row r="75" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B75" s="74"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="78"/>
+      <c r="P75" s="78"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="79"/>
+      <c r="S75" s="78"/>
+      <c r="T75" s="78"/>
+      <c r="U75" s="78"/>
+    </row>
+    <row r="76" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="B76" s="80"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="77"/>
+      <c r="O76" s="78"/>
+      <c r="P76" s="78"/>
+      <c r="Q76" s="78"/>
+      <c r="R76" s="79"/>
+      <c r="S76" s="78"/>
+      <c r="T76" s="78"/>
+      <c r="U76" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="N68:U68"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="M69:M76"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D70:J76">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>$J$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>$J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O70:U76">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>$J$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>$J$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11:E15" xr:uid="{B0344E4D-6598-462B-B8A8-AE632BC113B2}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1A361D74-CB1E-4643-9BCB-B161DADCB78F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/STG.CO.xlsx
+++ b/STG.CO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34664802-D7D0-4950-93E5-ECCB91132400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C8CD12-FD6B-43C9-B517-2539DA5A33D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="3" xr2:uid="{BD75BBDC-C4FD-4EC4-8461-B3C83FDDB12A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11010" xr2:uid="{BD75BBDC-C4FD-4EC4-8461-B3C83FDDB12A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
   <si>
     <t>Scandivian Tobacco</t>
   </si>
@@ -566,6 +566,21 @@
   <si>
     <t>STG-CO</t>
   </si>
+  <si>
+    <t>FY25 Guidance: 9.1 - 9.2 billion DKK, 19,5%-20,5% OM, FCF: 0,8-1 bil</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Cao, Cohiba, La Gloria Cubana, Petit, etc.</t>
+  </si>
+  <si>
+    <t>Balmoral,Cubero, La Paz, Panter, etc.</t>
+  </si>
+  <si>
+    <t>XQS, Ström, Ace, Grit</t>
+  </si>
 </sst>
 </file>
 
@@ -574,11 +589,11 @@
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="&quot;FY&quot;0&quot;A&quot;"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0;[Red]#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;FY&quot;0&quot;A&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -903,7 +918,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -924,13 +939,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
@@ -945,7 +958,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,10 +975,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -974,38 +987,47 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,18 +1043,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1499,21 +1512,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC431C7-7A00-4FF7-9B14-9CC6DBF12725}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1524,18 +1537,18 @@
         <v>86.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="6">
-        <v>78.855000000000004</v>
+        <v>78.875</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1544,45 +1557,49 @@
       </c>
       <c r="J4" s="6">
         <f>+J2*J3</f>
-        <v>6820.9575000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6822.6875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>67.900000000000006</v>
+        <v>97.5</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="I6" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="6">
-        <f>2054.8+3171.5</f>
-        <v>5226.3</v>
+        <f>3954.9+1150</f>
+        <v>5104.8999999999996</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="I7" t="s">
@@ -1590,50 +1607,50 @@
       </c>
       <c r="J7" s="6">
         <f>+J4-J5+J6</f>
-        <v>11979.357500000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>11830.0875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
       <c r="I10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1641,12 +1658,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I14" s="21">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="20">
         <v>10219</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -1666,24 +1688,24 @@
   <dimension ref="A1:BI455"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="B32:H32"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1721,7 +1743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>104</v>
       </c>
@@ -1789,7 +1811,7 @@
       <c r="BH3" s="6"/>
       <c r="BI3" s="6"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>105</v>
       </c>
@@ -1857,7 +1879,7 @@
       <c r="BH4" s="6"/>
       <c r="BI4" s="6"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>106</v>
       </c>
@@ -1925,7 +1947,7 @@
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>35</v>
       </c>
@@ -1993,7 +2015,7 @@
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -2061,7 +2083,7 @@
       <c r="BH7" s="6"/>
       <c r="BI7" s="6"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
@@ -2129,7 +2151,7 @@
       <c r="BH8" s="6"/>
       <c r="BI8" s="6"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -2197,7 +2219,7 @@
       <c r="BH9" s="6"/>
       <c r="BI9" s="6"/>
     </row>
-    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -2208,7 +2230,9 @@
       <c r="D10" s="7">
         <v>2365.8000000000002</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <v>2430.5</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7">
         <v>1973.7</v>
@@ -2216,7 +2240,9 @@
       <c r="H10" s="7">
         <v>2361.4</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>2357.3000000000002</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -2274,7 +2300,7 @@
       <c r="BH10" s="7"/>
       <c r="BI10" s="7"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -2284,7 +2310,9 @@
       <c r="D11" s="6">
         <v>1256.5999999999999</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6">
+        <v>1304.5</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
         <v>1107</v>
@@ -2292,7 +2320,9 @@
       <c r="H11" s="6">
         <v>1298</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6">
+        <v>1307.0999999999999</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -2350,7 +2380,7 @@
       <c r="BH11" s="6"/>
       <c r="BI11" s="6"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +2394,7 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
@@ -2378,7 +2408,10 @@
         <f>+H10-H11</f>
         <v>1063.4000000000001</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6">
+        <f>+I10-I11</f>
+        <v>1050.2000000000003</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -2441,7 +2474,7 @@
       <c r="BH12" s="6"/>
       <c r="BI12" s="6"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -2451,7 +2484,9 @@
       <c r="D13" s="6">
         <v>288.7</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6">
+        <v>293.8</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
         <v>285.89999999999998</v>
@@ -2459,7 +2494,9 @@
       <c r="H13" s="6">
         <v>277</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>317.60000000000002</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -2517,7 +2554,7 @@
       <c r="BH13" s="6"/>
       <c r="BI13" s="6"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -2527,7 +2564,9 @@
       <c r="D14" s="6">
         <v>255.8</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6">
+        <v>272.89999999999998</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
         <v>274.89999999999998</v>
@@ -2535,7 +2574,9 @@
       <c r="H14" s="6">
         <v>294.2</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6">
+        <v>232.9</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -2593,7 +2634,7 @@
       <c r="BH14" s="6"/>
       <c r="BI14" s="6"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -2603,7 +2644,9 @@
       <c r="D15" s="6">
         <v>15.8</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6">
+        <v>8.4</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
         <v>11.1</v>
@@ -2611,7 +2654,9 @@
       <c r="H15" s="6">
         <v>6.9</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>18.899999999999999</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -2669,7 +2714,7 @@
       <c r="BH15" s="6"/>
       <c r="BI15" s="6"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -2681,7 +2726,10 @@
         <f>54.1+44.2+52.8</f>
         <v>151.10000000000002</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <f>68.9+48.9+48.8</f>
+        <v>166.60000000000002</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
         <f>63+48.3+69.8</f>
@@ -2691,7 +2739,10 @@
         <f>61.4+49+34.7</f>
         <v>145.10000000000002</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6">
+        <f>61.2+50.1+41.3</f>
+        <v>152.60000000000002</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -2751,7 +2802,7 @@
       <c r="BH16" s="6"/>
       <c r="BI16" s="6"/>
     </row>
-    <row r="17" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -2765,7 +2816,7 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>401.09999999999991</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="1"/>
@@ -2779,7 +2830,10 @@
         <f>+H12-SUM(H13:H14,H16)+H15</f>
         <v>354</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6">
+        <f>+I12-SUM(I13:I14,I16)+I15</f>
+        <v>366.00000000000023</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
@@ -2845,7 +2899,7 @@
       <c r="BH17" s="6"/>
       <c r="BI17" s="6"/>
     </row>
-    <row r="18" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -2855,7 +2909,9 @@
       <c r="D18" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="6">
+        <v>7.5</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
         <v>3.9</v>
@@ -2863,7 +2919,9 @@
       <c r="H18" s="6">
         <v>7.8</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6">
+        <v>6.7</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
@@ -2921,7 +2979,7 @@
       <c r="BH18" s="6"/>
       <c r="BI18" s="6"/>
     </row>
-    <row r="19" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -2931,7 +2989,9 @@
       <c r="D19" s="6">
         <v>16</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>52.8</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
         <v>16.100000000000001</v>
@@ -2939,7 +2999,9 @@
       <c r="H19" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6">
+        <v>8.5</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -2997,7 +3059,7 @@
       <c r="BH19" s="6"/>
       <c r="BI19" s="6"/>
     </row>
-    <row r="20" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -3007,7 +3069,9 @@
       <c r="D20" s="6">
         <v>68.599999999999994</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="6">
+        <v>78.400000000000006</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
         <v>89</v>
@@ -3015,7 +3079,9 @@
       <c r="H20" s="6">
         <v>85.9</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="6">
+        <v>86.1</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -3073,7 +3139,7 @@
       <c r="BH20" s="6"/>
       <c r="BI20" s="6"/>
     </row>
-    <row r="21" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -3087,7 +3153,7 @@
       </c>
       <c r="E21" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>382.99999999999989</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="3"/>
@@ -3101,7 +3167,10 @@
         <f>+H17+H18+H19-H20</f>
         <v>294.79999999999995</v>
       </c>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6">
+        <f>+I17+I18+I19-I20</f>
+        <v>295.10000000000025</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -3167,7 +3236,7 @@
       <c r="BH21" s="6"/>
       <c r="BI21" s="6"/>
     </row>
-    <row r="22" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -3177,7 +3246,9 @@
       <c r="D22" s="6">
         <v>88.3</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6">
+        <v>85.9</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6">
         <v>15.4</v>
@@ -3185,7 +3256,9 @@
       <c r="H22" s="6">
         <v>67.8</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6">
+        <v>67.8</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -3243,7 +3316,7 @@
       <c r="BH22" s="6"/>
       <c r="BI22" s="6"/>
     </row>
-    <row r="23" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -3257,7 +3330,7 @@
       </c>
       <c r="E23" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>297.09999999999991</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="5"/>
@@ -3271,7 +3344,10 @@
         <f>+H21-H22</f>
         <v>226.99999999999994</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6">
+        <f>+I21-I22</f>
+        <v>227.30000000000024</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -3337,7 +3413,7 @@
       <c r="BH23" s="6"/>
       <c r="BI23" s="6"/>
     </row>
-    <row r="24" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -3398,7 +3474,7 @@
       <c r="BH24" s="6"/>
       <c r="BI24" s="6"/>
     </row>
-    <row r="25" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -3410,9 +3486,9 @@
         <f t="shared" si="7"/>
         <v>3.5185053465158767</v>
       </c>
-      <c r="E25" s="6" t="e">
+      <c r="E25" s="6">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>3.5759421301589964</v>
       </c>
       <c r="F25" s="6" t="e">
         <f t="shared" si="7"/>
@@ -3426,9 +3502,9 @@
         <f t="shared" ref="H25:J25" si="8">+H23/H26</f>
         <v>2.8787014139876979</v>
       </c>
-      <c r="I25" s="6" t="e">
+      <c r="I25" s="6">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2.8817749603803517</v>
       </c>
       <c r="J25" s="6" t="e">
         <f t="shared" si="8"/>
@@ -3498,7 +3574,7 @@
       <c r="BH25" s="6"/>
       <c r="BI25" s="6"/>
     </row>
-    <row r="26" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>3</v>
       </c>
@@ -3508,7 +3584,9 @@
       <c r="D26" s="6">
         <v>84.353999999999999</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>83.082999999999998</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6">
         <v>78.838999999999999</v>
@@ -3516,7 +3594,9 @@
       <c r="H26" s="6">
         <v>78.855000000000004</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6">
+        <v>78.875</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -3578,7 +3658,7 @@
       <c r="BH26" s="6"/>
       <c r="BI26" s="6"/>
     </row>
-    <row r="27" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -3639,7 +3719,7 @@
       <c r="BH27" s="6"/>
       <c r="BI27" s="6"/>
     </row>
-    <row r="28" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>107</v>
       </c>
@@ -3653,19 +3733,19 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="23" t="e">
-        <f t="shared" ref="M28:P32" si="10">+M6/L6-1</f>
+      <c r="M28" s="21" t="e">
+        <f t="shared" ref="M28:O32" si="10">+M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="23" t="e">
+      <c r="N28" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="23" t="e">
+      <c r="O28" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="23">
+      <c r="P28" s="21">
         <f>+P6/O6-1</f>
         <v>1.9654501066163954E-2</v>
       </c>
@@ -3715,7 +3795,7 @@
       <c r="BH28" s="6"/>
       <c r="BI28" s="6"/>
     </row>
-    <row r="29" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>108</v>
       </c>
@@ -3729,19 +3809,19 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="23" t="e">
+      <c r="M29" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="23" t="e">
+      <c r="N29" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="23" t="e">
+      <c r="O29" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="23">
+      <c r="P29" s="21">
         <f t="shared" ref="P29:P32" si="11">+P7/O7-1</f>
         <v>3.1831412271509985E-2</v>
       </c>
@@ -3791,7 +3871,7 @@
       <c r="BH29" s="6"/>
       <c r="BI29" s="6"/>
     </row>
-    <row r="30" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>109</v>
       </c>
@@ -3805,19 +3885,19 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="23" t="e">
+      <c r="M30" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="23" t="e">
+      <c r="N30" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="23" t="e">
+      <c r="O30" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="23">
+      <c r="P30" s="21">
         <f t="shared" si="11"/>
         <v>1.1774443869632694</v>
       </c>
@@ -3867,7 +3947,7 @@
       <c r="BH30" s="6"/>
       <c r="BI30" s="6"/>
     </row>
-    <row r="31" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>110</v>
       </c>
@@ -3881,19 +3961,19 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="23" t="e">
+      <c r="M31" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="23" t="e">
+      <c r="N31" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="23" t="e">
+      <c r="O31" s="21" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P31" s="23">
+      <c r="P31" s="21">
         <f t="shared" si="11"/>
         <v>4.2990468625893508E-2</v>
       </c>
@@ -3943,7 +4023,7 @@
       <c r="BH31" s="6"/>
       <c r="BI31" s="6"/>
     </row>
-    <row r="32" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:61" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>111</v>
       </c>
@@ -3951,31 +4031,37 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="24">
+      <c r="G32" s="22">
         <f>+G10/C10-1</f>
         <v>1.3037006621156921E-2</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="22">
         <f>+H10/D10-1</f>
         <v>-1.8598359962803679E-3</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="I32" s="22">
+        <f>+I10/E10-1</f>
+        <v>-3.0117259823081555E-2</v>
+      </c>
+      <c r="J32" s="22" t="e">
+        <f>+J10/F10-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="24" t="e">
+      <c r="M32" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="24" t="e">
+      <c r="N32" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="24" t="e">
+      <c r="O32" s="22" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P32" s="24">
+      <c r="P32" s="22">
         <f t="shared" si="11"/>
         <v>5.3969235703077656E-2</v>
       </c>
@@ -4025,51 +4111,57 @@
       <c r="BH32" s="6"/>
       <c r="BI32" s="6"/>
     </row>
-    <row r="33" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="21">
         <f t="shared" ref="C33:H33" si="12">+C12/C10</f>
         <v>0.45229174151824669</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="21">
         <f t="shared" si="12"/>
         <v>0.46884774706230459</v>
       </c>
-      <c r="E33" s="23" t="e">
+      <c r="E33" s="21">
+        <f t="shared" si="12"/>
+        <v>0.46327916066652952</v>
+      </c>
+      <c r="F33" s="21" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="23" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="23">
+      <c r="G33" s="21">
         <f t="shared" si="12"/>
         <v>0.439124487004104</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="21">
         <f t="shared" si="12"/>
         <v>0.450326077750487</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="I33" s="21">
+        <f t="shared" ref="I33:J33" si="13">+I12/I10</f>
+        <v>0.44550969329317447</v>
+      </c>
+      <c r="J33" s="21" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="23" t="e">
-        <f t="shared" ref="M33:P33" si="13">+M12/M10</f>
+      <c r="M33" s="21" t="e">
+        <f t="shared" ref="M33:O33" si="14">+M12/M10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="23" t="e">
-        <f t="shared" si="13"/>
+      <c r="N33" s="21" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="23">
-        <f t="shared" si="13"/>
+      <c r="O33" s="21">
+        <f t="shared" si="14"/>
         <v>0.48151966005795505</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="21">
         <f>+P12/P10</f>
         <v>0.46494821834146549</v>
       </c>
@@ -4119,51 +4211,57 @@
       <c r="BH33" s="6"/>
       <c r="BI33" s="6"/>
     </row>
-    <row r="34" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="23">
-        <f t="shared" ref="C34:H34" si="14">+C17/C10</f>
+      <c r="C34" s="21">
+        <f t="shared" ref="C34:H34" si="15">+C17/C10</f>
         <v>0.10675973925986762</v>
       </c>
-      <c r="D34" s="23">
-        <f t="shared" si="14"/>
+      <c r="D34" s="21">
+        <f t="shared" si="15"/>
         <v>0.18150308563699394</v>
       </c>
-      <c r="E34" s="23" t="e">
-        <f t="shared" si="14"/>
+      <c r="E34" s="21">
+        <f t="shared" si="15"/>
+        <v>0.16502777206336142</v>
+      </c>
+      <c r="F34" s="21" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="23" t="e">
-        <f t="shared" si="14"/>
+      <c r="G34" s="21">
+        <f t="shared" si="15"/>
+        <v>6.8855449156406776E-2</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="15"/>
+        <v>0.14991106970441262</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" ref="I34:J34" si="16">+I17/I10</f>
+        <v>0.15526237644763086</v>
+      </c>
+      <c r="J34" s="21" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="23">
-        <f t="shared" si="14"/>
-        <v>6.8855449156406776E-2</v>
-      </c>
-      <c r="H34" s="23">
-        <f t="shared" si="14"/>
-        <v>0.14991106970441262</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="23" t="e">
-        <f t="shared" ref="M34:P34" si="15">+M17/M10</f>
+      <c r="M34" s="21" t="e">
+        <f t="shared" ref="M34:O34" si="17">+M17/M10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="23" t="e">
-        <f t="shared" si="15"/>
+      <c r="N34" s="21" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="23">
-        <f t="shared" si="15"/>
+      <c r="O34" s="21">
+        <f t="shared" si="17"/>
         <v>0.18764388551008482</v>
       </c>
-      <c r="P34" s="23">
+      <c r="P34" s="21">
         <f>+P17/P10</f>
         <v>0.1499875028526097</v>
       </c>
@@ -4213,51 +4311,57 @@
       <c r="BH34" s="6"/>
       <c r="BI34" s="6"/>
     </row>
-    <row r="35" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="23">
-        <f t="shared" ref="C35:H35" si="16">+C22/C21</f>
+      <c r="C35" s="21">
+        <f t="shared" ref="C35:H35" si="18">+C22/C21</f>
         <v>0.2146003775959722</v>
       </c>
-      <c r="D35" s="23">
-        <f t="shared" si="16"/>
+      <c r="D35" s="21">
+        <f t="shared" si="18"/>
         <v>0.22929109322253943</v>
       </c>
-      <c r="E35" s="23" t="e">
-        <f t="shared" si="16"/>
+      <c r="E35" s="21">
+        <f t="shared" si="18"/>
+        <v>0.22428198433420374</v>
+      </c>
+      <c r="F35" s="21" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="23" t="e">
-        <f t="shared" si="16"/>
+      <c r="G35" s="21">
+        <f t="shared" si="18"/>
+        <v>0.23019431988041833</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" si="18"/>
+        <v>0.22998643147896883</v>
+      </c>
+      <c r="I35" s="21">
+        <f t="shared" ref="I35:J35" si="19">+I22/I21</f>
+        <v>0.22975262622839696</v>
+      </c>
+      <c r="J35" s="21" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="23">
-        <f t="shared" si="16"/>
-        <v>0.23019431988041833</v>
-      </c>
-      <c r="H35" s="23">
-        <f t="shared" si="16"/>
-        <v>0.22998643147896883</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="23" t="e">
-        <f t="shared" ref="M35:P35" si="17">+M22/M21</f>
+      <c r="M35" s="21" t="e">
+        <f t="shared" ref="M35:O35" si="20">+M22/M21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N35" s="23" t="e">
-        <f t="shared" si="17"/>
+      <c r="N35" s="21" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O35" s="23">
-        <f t="shared" si="17"/>
+      <c r="O35" s="21">
+        <f t="shared" si="20"/>
         <v>0.2068687952777033</v>
       </c>
-      <c r="P35" s="23">
+      <c r="P35" s="21">
         <f>+P22/P21</f>
         <v>0.22931190027064713</v>
       </c>
@@ -4307,7 +4411,7 @@
       <c r="BH35" s="6"/>
       <c r="BI35" s="6"/>
     </row>
-    <row r="36" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -4368,7 +4472,7 @@
       <c r="BH36" s="6"/>
       <c r="BI36" s="6"/>
     </row>
-    <row r="37" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -4436,7 +4540,7 @@
       <c r="BH37" s="6"/>
       <c r="BI37" s="6"/>
     </row>
-    <row r="38" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>53</v>
       </c>
@@ -4504,7 +4608,7 @@
       <c r="BH38" s="6"/>
       <c r="BI38" s="6"/>
     </row>
-    <row r="39" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -4572,7 +4676,7 @@
       <c r="BH39" s="6"/>
       <c r="BI39" s="6"/>
     </row>
-    <row r="40" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -4640,7 +4744,7 @@
       <c r="BH40" s="6"/>
       <c r="BI40" s="6"/>
     </row>
-    <row r="41" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>56</v>
       </c>
@@ -4708,7 +4812,7 @@
       <c r="BH41" s="6"/>
       <c r="BI41" s="6"/>
     </row>
-    <row r="42" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>57</v>
       </c>
@@ -4776,7 +4880,7 @@
       <c r="BH42" s="6"/>
       <c r="BI42" s="6"/>
     </row>
-    <row r="43" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>58</v>
       </c>
@@ -4844,7 +4948,7 @@
       <c r="BH43" s="6"/>
       <c r="BI43" s="6"/>
     </row>
-    <row r="44" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>59</v>
       </c>
@@ -4912,7 +5016,7 @@
       <c r="BH44" s="6"/>
       <c r="BI44" s="6"/>
     </row>
-    <row r="45" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>60</v>
       </c>
@@ -4980,7 +5084,7 @@
       <c r="BH45" s="6"/>
       <c r="BI45" s="6"/>
     </row>
-    <row r="46" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -4995,15 +5099,15 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6">
-        <f t="shared" ref="M46:O46" si="18">+SUM(M37:M45)</f>
+        <f t="shared" ref="M46:O46" si="21">+SUM(M37:M45)</f>
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O46" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11210.600000000002</v>
       </c>
       <c r="P46" s="6">
@@ -5056,7 +5160,7 @@
       <c r="BH46" s="6"/>
       <c r="BI46" s="6"/>
     </row>
-    <row r="47" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>62</v>
       </c>
@@ -5124,7 +5228,7 @@
       <c r="BH47" s="6"/>
       <c r="BI47" s="6"/>
     </row>
-    <row r="48" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>63</v>
       </c>
@@ -5192,7 +5296,7 @@
       <c r="BH48" s="6"/>
       <c r="BI48" s="6"/>
     </row>
-    <row r="49" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>64</v>
       </c>
@@ -5260,7 +5364,7 @@
       <c r="BH49" s="6"/>
       <c r="BI49" s="6"/>
     </row>
-    <row r="50" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>65</v>
       </c>
@@ -5328,7 +5432,7 @@
       <c r="BH50" s="6"/>
       <c r="BI50" s="6"/>
     </row>
-    <row r="51" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>66</v>
       </c>
@@ -5396,7 +5500,7 @@
       <c r="BH51" s="6"/>
       <c r="BI51" s="6"/>
     </row>
-    <row r="52" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>67</v>
       </c>
@@ -5464,7 +5568,7 @@
       <c r="BH52" s="6"/>
       <c r="BI52" s="6"/>
     </row>
-    <row r="53" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>68</v>
       </c>
@@ -5480,11 +5584,11 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6">
-        <f t="shared" ref="N53:O53" si="19">+SUM(N47:N52)</f>
+        <f t="shared" ref="N53:O53" si="22">+SUM(N47:N52)</f>
         <v>0</v>
       </c>
       <c r="O53" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4642.8</v>
       </c>
       <c r="P53" s="6">
@@ -5537,7 +5641,7 @@
       <c r="BH53" s="6"/>
       <c r="BI53" s="6"/>
     </row>
-    <row r="54" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:61" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>69</v>
       </c>
@@ -5607,7 +5711,7 @@
       <c r="BH54" s="6"/>
       <c r="BI54" s="6"/>
     </row>
-    <row r="55" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>70</v>
       </c>
@@ -5675,7 +5779,7 @@
       <c r="BH55" s="6"/>
       <c r="BI55" s="6"/>
     </row>
-    <row r="56" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>73</v>
       </c>
@@ -5743,7 +5847,7 @@
       <c r="BH56" s="6"/>
       <c r="BI56" s="6"/>
     </row>
-    <row r="57" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -5811,7 +5915,7 @@
       <c r="BH57" s="6"/>
       <c r="BI57" s="6"/>
     </row>
-    <row r="58" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>74</v>
       </c>
@@ -5879,7 +5983,7 @@
       <c r="BH58" s="6"/>
       <c r="BI58" s="6"/>
     </row>
-    <row r="59" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>75</v>
       </c>
@@ -5947,7 +6051,7 @@
       <c r="BH59" s="6"/>
       <c r="BI59" s="6"/>
     </row>
-    <row r="60" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>58</v>
       </c>
@@ -6015,7 +6119,7 @@
       <c r="BH60" s="6"/>
       <c r="BI60" s="6"/>
     </row>
-    <row r="61" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>38</v>
       </c>
@@ -6083,7 +6187,7 @@
       <c r="BH61" s="6"/>
       <c r="BI61" s="6"/>
     </row>
-    <row r="62" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>76</v>
       </c>
@@ -6099,11 +6203,11 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6">
-        <f t="shared" ref="N62:O62" si="20">+SUM(N56:N61)</f>
+        <f t="shared" ref="N62:O62" si="23">+SUM(N56:N61)</f>
         <v>0</v>
       </c>
       <c r="O62" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4868.7</v>
       </c>
       <c r="P62" s="6">
@@ -6156,7 +6260,7 @@
       <c r="BH62" s="6"/>
       <c r="BI62" s="6"/>
     </row>
-    <row r="63" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>73</v>
       </c>
@@ -6224,7 +6328,7 @@
       <c r="BH63" s="6"/>
       <c r="BI63" s="6"/>
     </row>
-    <row r="64" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>77</v>
       </c>
@@ -6292,7 +6396,7 @@
       <c r="BH64" s="6"/>
       <c r="BI64" s="6"/>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>65</v>
       </c>
@@ -6360,7 +6464,7 @@
       <c r="BH65" s="6"/>
       <c r="BI65" s="6"/>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>75</v>
       </c>
@@ -6428,7 +6532,7 @@
       <c r="BH66" s="6"/>
       <c r="BI66" s="6"/>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>58</v>
       </c>
@@ -6496,7 +6600,7 @@
       <c r="BH67" s="6"/>
       <c r="BI67" s="6"/>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -6564,7 +6668,7 @@
       <c r="BH68" s="6"/>
       <c r="BI68" s="6"/>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>78</v>
       </c>
@@ -6634,7 +6738,7 @@
       <c r="BH69" s="6"/>
       <c r="BI69" s="6"/>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>71</v>
       </c>
@@ -6704,7 +6808,7 @@
       <c r="BH70" s="6"/>
       <c r="BI70" s="6"/>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:61" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>72</v>
@@ -6775,7 +6879,7 @@
       <c r="BH71" s="6"/>
       <c r="BI71" s="6"/>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
@@ -6836,7 +6940,7 @@
       <c r="BH72" s="6"/>
       <c r="BI72" s="6"/>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>32</v>
       </c>
@@ -6904,7 +7008,7 @@
       <c r="BH73" s="6"/>
       <c r="BI73" s="6"/>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>80</v>
       </c>
@@ -6972,7 +7076,7 @@
       <c r="BH74" s="6"/>
       <c r="BI74" s="6"/>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>81</v>
       </c>
@@ -7040,7 +7144,7 @@
       <c r="BH75" s="6"/>
       <c r="BI75" s="6"/>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>82</v>
       </c>
@@ -7108,7 +7212,7 @@
       <c r="BH76" s="6"/>
       <c r="BI76" s="6"/>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>83</v>
       </c>
@@ -7176,7 +7280,7 @@
       <c r="BH77" s="6"/>
       <c r="BI77" s="6"/>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>28</v>
       </c>
@@ -7244,7 +7348,7 @@
       <c r="BH78" s="6"/>
       <c r="BI78" s="6"/>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>84</v>
       </c>
@@ -7312,7 +7416,7 @@
       <c r="BH79" s="6"/>
       <c r="BI79" s="6"/>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>85</v>
       </c>
@@ -7380,7 +7484,7 @@
       <c r="BH80" s="6"/>
       <c r="BI80" s="6"/>
     </row>
-    <row r="81" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:61" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>79</v>
       </c>
@@ -7396,11 +7500,11 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="7">
-        <f t="shared" ref="N81:O81" si="21">+SUM(N73:N80)</f>
+        <f t="shared" ref="N81:O81" si="24">+SUM(N73:N80)</f>
         <v>0</v>
       </c>
       <c r="O81" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1347</v>
       </c>
       <c r="P81" s="7">
@@ -7453,7 +7557,7 @@
       <c r="BH81" s="6"/>
       <c r="BI81" s="6"/>
     </row>
-    <row r="82" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>86</v>
       </c>
@@ -7521,7 +7625,7 @@
       <c r="BH82" s="6"/>
       <c r="BI82" s="6"/>
     </row>
-    <row r="83" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>87</v>
       </c>
@@ -7589,7 +7693,7 @@
       <c r="BH83" s="6"/>
       <c r="BI83" s="6"/>
     </row>
-    <row r="84" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>88</v>
       </c>
@@ -7657,7 +7761,7 @@
       <c r="BH84" s="6"/>
       <c r="BI84" s="6"/>
     </row>
-    <row r="85" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>89</v>
       </c>
@@ -7725,7 +7829,7 @@
       <c r="BH85" s="6"/>
       <c r="BI85" s="6"/>
     </row>
-    <row r="86" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>90</v>
       </c>
@@ -7793,7 +7897,7 @@
       <c r="BH86" s="6"/>
       <c r="BI86" s="6"/>
     </row>
-    <row r="87" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:61" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>91</v>
       </c>
@@ -7809,11 +7913,11 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="7">
-        <f t="shared" ref="N87:O87" si="22">+SUM(N82:N86)</f>
+        <f t="shared" ref="N87:O87" si="25">+SUM(N82:N86)</f>
         <v>0</v>
       </c>
       <c r="O87" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-875.30000000000007</v>
       </c>
       <c r="P87" s="7">
@@ -7866,7 +7970,7 @@
       <c r="BH87" s="6"/>
       <c r="BI87" s="6"/>
     </row>
-    <row r="88" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>92</v>
       </c>
@@ -7934,7 +8038,7 @@
       <c r="BH88" s="6"/>
       <c r="BI88" s="6"/>
     </row>
-    <row r="89" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>93</v>
       </c>
@@ -8002,7 +8106,7 @@
       <c r="BH89" s="6"/>
       <c r="BI89" s="6"/>
     </row>
-    <row r="90" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>94</v>
       </c>
@@ -8070,7 +8174,7 @@
       <c r="BH90" s="6"/>
       <c r="BI90" s="6"/>
     </row>
-    <row r="91" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>95</v>
       </c>
@@ -8138,7 +8242,7 @@
       <c r="BH91" s="6"/>
       <c r="BI91" s="6"/>
     </row>
-    <row r="92" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>96</v>
       </c>
@@ -8206,7 +8310,7 @@
       <c r="BH92" s="6"/>
       <c r="BI92" s="6"/>
     </row>
-    <row r="93" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>97</v>
       </c>
@@ -8274,7 +8378,7 @@
       <c r="BH93" s="6"/>
       <c r="BI93" s="6"/>
     </row>
-    <row r="94" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>98</v>
       </c>
@@ -8342,7 +8446,7 @@
       <c r="BH94" s="6"/>
       <c r="BI94" s="6"/>
     </row>
-    <row r="95" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:61" ht="13" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>99</v>
       </c>
@@ -8358,11 +8462,11 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="7">
-        <f t="shared" ref="N95:O95" si="23">+SUM(N88:N94)</f>
+        <f t="shared" ref="N95:O95" si="26">+SUM(N88:N94)</f>
         <v>0</v>
       </c>
       <c r="O95" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-386.19999999999993</v>
       </c>
       <c r="P95" s="7">
@@ -8415,7 +8519,7 @@
       <c r="BH95" s="6"/>
       <c r="BI95" s="6"/>
     </row>
-    <row r="96" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -8476,7 +8580,7 @@
       <c r="BH96" s="6"/>
       <c r="BI96" s="6"/>
     </row>
-    <row r="97" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:61" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>101</v>
       </c>
@@ -8493,7 +8597,7 @@
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="7">
-        <f t="shared" ref="O97" si="24">+SUM(O96,O95,O87,O81)</f>
+        <f t="shared" ref="O97" si="27">+SUM(O96,O95,O87,O81)</f>
         <v>85.5</v>
       </c>
       <c r="P97" s="7">
@@ -8546,7 +8650,7 @@
       <c r="BH97" s="6"/>
       <c r="BI97" s="6"/>
     </row>
-    <row r="98" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>100</v>
       </c>
@@ -8614,8 +8718,8 @@
       <c r="BH98" s="6"/>
       <c r="BI98" s="6"/>
     </row>
-    <row r="99" spans="2:61" x14ac:dyDescent="0.2">
-      <c r="B99" s="22" t="s">
+    <row r="99" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>102</v>
       </c>
       <c r="C99" s="6"/>
@@ -8682,7 +8786,7 @@
       <c r="BH99" s="6"/>
       <c r="BI99" s="6"/>
     </row>
-    <row r="100" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>103</v>
       </c>
@@ -8752,7 +8856,7 @@
       <c r="BH100" s="6"/>
       <c r="BI100" s="6"/>
     </row>
-    <row r="101" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -8813,7 +8917,7 @@
       <c r="BH101" s="6"/>
       <c r="BI101" s="6"/>
     </row>
-    <row r="102" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -8874,7 +8978,7 @@
       <c r="BH102" s="6"/>
       <c r="BI102" s="6"/>
     </row>
-    <row r="103" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
@@ -8935,7 +9039,7 @@
       <c r="BH103" s="6"/>
       <c r="BI103" s="6"/>
     </row>
-    <row r="104" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -8996,7 +9100,7 @@
       <c r="BH104" s="6"/>
       <c r="BI104" s="6"/>
     </row>
-    <row r="105" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -9057,7 +9161,7 @@
       <c r="BH105" s="6"/>
       <c r="BI105" s="6"/>
     </row>
-    <row r="106" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
@@ -9118,7 +9222,7 @@
       <c r="BH106" s="6"/>
       <c r="BI106" s="6"/>
     </row>
-    <row r="107" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
@@ -9179,7 +9283,7 @@
       <c r="BH107" s="6"/>
       <c r="BI107" s="6"/>
     </row>
-    <row r="108" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
@@ -9240,7 +9344,7 @@
       <c r="BH108" s="6"/>
       <c r="BI108" s="6"/>
     </row>
-    <row r="109" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -9301,7 +9405,7 @@
       <c r="BH109" s="6"/>
       <c r="BI109" s="6"/>
     </row>
-    <row r="110" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
@@ -9362,7 +9466,7 @@
       <c r="BH110" s="6"/>
       <c r="BI110" s="6"/>
     </row>
-    <row r="111" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
@@ -9423,7 +9527,7 @@
       <c r="BH111" s="6"/>
       <c r="BI111" s="6"/>
     </row>
-    <row r="112" spans="2:61" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
@@ -9484,7 +9588,7 @@
       <c r="BH112" s="6"/>
       <c r="BI112" s="6"/>
     </row>
-    <row r="113" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
@@ -9545,7 +9649,7 @@
       <c r="BH113" s="6"/>
       <c r="BI113" s="6"/>
     </row>
-    <row r="114" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
@@ -9606,7 +9710,7 @@
       <c r="BH114" s="6"/>
       <c r="BI114" s="6"/>
     </row>
-    <row r="115" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -9667,7 +9771,7 @@
       <c r="BH115" s="6"/>
       <c r="BI115" s="6"/>
     </row>
-    <row r="116" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
@@ -9728,7 +9832,7 @@
       <c r="BH116" s="6"/>
       <c r="BI116" s="6"/>
     </row>
-    <row r="117" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
@@ -9789,7 +9893,7 @@
       <c r="BH117" s="6"/>
       <c r="BI117" s="6"/>
     </row>
-    <row r="118" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -9850,7 +9954,7 @@
       <c r="BH118" s="6"/>
       <c r="BI118" s="6"/>
     </row>
-    <row r="119" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
@@ -9911,7 +10015,7 @@
       <c r="BH119" s="6"/>
       <c r="BI119" s="6"/>
     </row>
-    <row r="120" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
@@ -9972,7 +10076,7 @@
       <c r="BH120" s="6"/>
       <c r="BI120" s="6"/>
     </row>
-    <row r="121" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -10033,7 +10137,7 @@
       <c r="BH121" s="6"/>
       <c r="BI121" s="6"/>
     </row>
-    <row r="122" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
@@ -10094,7 +10198,7 @@
       <c r="BH122" s="6"/>
       <c r="BI122" s="6"/>
     </row>
-    <row r="123" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
@@ -10155,7 +10259,7 @@
       <c r="BH123" s="6"/>
       <c r="BI123" s="6"/>
     </row>
-    <row r="124" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -10216,7 +10320,7 @@
       <c r="BH124" s="6"/>
       <c r="BI124" s="6"/>
     </row>
-    <row r="125" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
@@ -10277,7 +10381,7 @@
       <c r="BH125" s="6"/>
       <c r="BI125" s="6"/>
     </row>
-    <row r="126" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -10338,7 +10442,7 @@
       <c r="BH126" s="6"/>
       <c r="BI126" s="6"/>
     </row>
-    <row r="127" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -10399,7 +10503,7 @@
       <c r="BH127" s="6"/>
       <c r="BI127" s="6"/>
     </row>
-    <row r="128" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
@@ -10460,7 +10564,7 @@
       <c r="BH128" s="6"/>
       <c r="BI128" s="6"/>
     </row>
-    <row r="129" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -10521,7 +10625,7 @@
       <c r="BH129" s="6"/>
       <c r="BI129" s="6"/>
     </row>
-    <row r="130" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -10582,7 +10686,7 @@
       <c r="BH130" s="6"/>
       <c r="BI130" s="6"/>
     </row>
-    <row r="131" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
@@ -10643,7 +10747,7 @@
       <c r="BH131" s="6"/>
       <c r="BI131" s="6"/>
     </row>
-    <row r="132" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
@@ -10704,7 +10808,7 @@
       <c r="BH132" s="6"/>
       <c r="BI132" s="6"/>
     </row>
-    <row r="133" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
@@ -10765,7 +10869,7 @@
       <c r="BH133" s="6"/>
       <c r="BI133" s="6"/>
     </row>
-    <row r="134" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
@@ -10826,7 +10930,7 @@
       <c r="BH134" s="6"/>
       <c r="BI134" s="6"/>
     </row>
-    <row r="135" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
@@ -10887,7 +10991,7 @@
       <c r="BH135" s="6"/>
       <c r="BI135" s="6"/>
     </row>
-    <row r="136" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
@@ -10948,7 +11052,7 @@
       <c r="BH136" s="6"/>
       <c r="BI136" s="6"/>
     </row>
-    <row r="137" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
@@ -11009,7 +11113,7 @@
       <c r="BH137" s="6"/>
       <c r="BI137" s="6"/>
     </row>
-    <row r="138" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
@@ -11070,7 +11174,7 @@
       <c r="BH138" s="6"/>
       <c r="BI138" s="6"/>
     </row>
-    <row r="139" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
@@ -11131,7 +11235,7 @@
       <c r="BH139" s="6"/>
       <c r="BI139" s="6"/>
     </row>
-    <row r="140" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
@@ -11192,7 +11296,7 @@
       <c r="BH140" s="6"/>
       <c r="BI140" s="6"/>
     </row>
-    <row r="141" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
@@ -11253,7 +11357,7 @@
       <c r="BH141" s="6"/>
       <c r="BI141" s="6"/>
     </row>
-    <row r="142" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
@@ -11314,7 +11418,7 @@
       <c r="BH142" s="6"/>
       <c r="BI142" s="6"/>
     </row>
-    <row r="143" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
@@ -11375,7 +11479,7 @@
       <c r="BH143" s="6"/>
       <c r="BI143" s="6"/>
     </row>
-    <row r="144" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
@@ -11436,7 +11540,7 @@
       <c r="BH144" s="6"/>
       <c r="BI144" s="6"/>
     </row>
-    <row r="145" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
@@ -11497,7 +11601,7 @@
       <c r="BH145" s="6"/>
       <c r="BI145" s="6"/>
     </row>
-    <row r="146" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
@@ -11558,7 +11662,7 @@
       <c r="BH146" s="6"/>
       <c r="BI146" s="6"/>
     </row>
-    <row r="147" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
@@ -11619,7 +11723,7 @@
       <c r="BH147" s="6"/>
       <c r="BI147" s="6"/>
     </row>
-    <row r="148" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
@@ -11680,7 +11784,7 @@
       <c r="BH148" s="6"/>
       <c r="BI148" s="6"/>
     </row>
-    <row r="149" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
@@ -11741,7 +11845,7 @@
       <c r="BH149" s="6"/>
       <c r="BI149" s="6"/>
     </row>
-    <row r="150" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
@@ -11802,7 +11906,7 @@
       <c r="BH150" s="6"/>
       <c r="BI150" s="6"/>
     </row>
-    <row r="151" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
@@ -11863,7 +11967,7 @@
       <c r="BH151" s="6"/>
       <c r="BI151" s="6"/>
     </row>
-    <row r="152" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
@@ -11924,7 +12028,7 @@
       <c r="BH152" s="6"/>
       <c r="BI152" s="6"/>
     </row>
-    <row r="153" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
@@ -11985,7 +12089,7 @@
       <c r="BH153" s="6"/>
       <c r="BI153" s="6"/>
     </row>
-    <row r="154" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
@@ -12046,7 +12150,7 @@
       <c r="BH154" s="6"/>
       <c r="BI154" s="6"/>
     </row>
-    <row r="155" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
@@ -12107,7 +12211,7 @@
       <c r="BH155" s="6"/>
       <c r="BI155" s="6"/>
     </row>
-    <row r="156" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
@@ -12168,7 +12272,7 @@
       <c r="BH156" s="6"/>
       <c r="BI156" s="6"/>
     </row>
-    <row r="157" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
@@ -12229,7 +12333,7 @@
       <c r="BH157" s="6"/>
       <c r="BI157" s="6"/>
     </row>
-    <row r="158" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
@@ -12290,7 +12394,7 @@
       <c r="BH158" s="6"/>
       <c r="BI158" s="6"/>
     </row>
-    <row r="159" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
@@ -12351,7 +12455,7 @@
       <c r="BH159" s="6"/>
       <c r="BI159" s="6"/>
     </row>
-    <row r="160" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
@@ -12412,7 +12516,7 @@
       <c r="BH160" s="6"/>
       <c r="BI160" s="6"/>
     </row>
-    <row r="161" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
@@ -12473,7 +12577,7 @@
       <c r="BH161" s="6"/>
       <c r="BI161" s="6"/>
     </row>
-    <row r="162" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
@@ -12534,7 +12638,7 @@
       <c r="BH162" s="6"/>
       <c r="BI162" s="6"/>
     </row>
-    <row r="163" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
@@ -12595,7 +12699,7 @@
       <c r="BH163" s="6"/>
       <c r="BI163" s="6"/>
     </row>
-    <row r="164" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
@@ -12656,7 +12760,7 @@
       <c r="BH164" s="6"/>
       <c r="BI164" s="6"/>
     </row>
-    <row r="165" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
@@ -12717,7 +12821,7 @@
       <c r="BH165" s="6"/>
       <c r="BI165" s="6"/>
     </row>
-    <row r="166" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
@@ -12778,7 +12882,7 @@
       <c r="BH166" s="6"/>
       <c r="BI166" s="6"/>
     </row>
-    <row r="167" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
@@ -12839,7 +12943,7 @@
       <c r="BH167" s="6"/>
       <c r="BI167" s="6"/>
     </row>
-    <row r="168" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
@@ -12900,7 +13004,7 @@
       <c r="BH168" s="6"/>
       <c r="BI168" s="6"/>
     </row>
-    <row r="169" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
@@ -12961,7 +13065,7 @@
       <c r="BH169" s="6"/>
       <c r="BI169" s="6"/>
     </row>
-    <row r="170" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
@@ -13022,7 +13126,7 @@
       <c r="BH170" s="6"/>
       <c r="BI170" s="6"/>
     </row>
-    <row r="171" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
@@ -13083,7 +13187,7 @@
       <c r="BH171" s="6"/>
       <c r="BI171" s="6"/>
     </row>
-    <row r="172" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
@@ -13144,7 +13248,7 @@
       <c r="BH172" s="6"/>
       <c r="BI172" s="6"/>
     </row>
-    <row r="173" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
@@ -13205,7 +13309,7 @@
       <c r="BH173" s="6"/>
       <c r="BI173" s="6"/>
     </row>
-    <row r="174" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
@@ -13266,7 +13370,7 @@
       <c r="BH174" s="6"/>
       <c r="BI174" s="6"/>
     </row>
-    <row r="175" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
@@ -13327,7 +13431,7 @@
       <c r="BH175" s="6"/>
       <c r="BI175" s="6"/>
     </row>
-    <row r="176" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
@@ -13388,7 +13492,7 @@
       <c r="BH176" s="6"/>
       <c r="BI176" s="6"/>
     </row>
-    <row r="177" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
@@ -13449,7 +13553,7 @@
       <c r="BH177" s="6"/>
       <c r="BI177" s="6"/>
     </row>
-    <row r="178" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
@@ -13510,7 +13614,7 @@
       <c r="BH178" s="6"/>
       <c r="BI178" s="6"/>
     </row>
-    <row r="179" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
@@ -13571,7 +13675,7 @@
       <c r="BH179" s="6"/>
       <c r="BI179" s="6"/>
     </row>
-    <row r="180" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
@@ -13632,7 +13736,7 @@
       <c r="BH180" s="6"/>
       <c r="BI180" s="6"/>
     </row>
-    <row r="181" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
@@ -13693,7 +13797,7 @@
       <c r="BH181" s="6"/>
       <c r="BI181" s="6"/>
     </row>
-    <row r="182" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
@@ -13754,7 +13858,7 @@
       <c r="BH182" s="6"/>
       <c r="BI182" s="6"/>
     </row>
-    <row r="183" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
@@ -13815,7 +13919,7 @@
       <c r="BH183" s="6"/>
       <c r="BI183" s="6"/>
     </row>
-    <row r="184" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
@@ -13876,7 +13980,7 @@
       <c r="BH184" s="6"/>
       <c r="BI184" s="6"/>
     </row>
-    <row r="185" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
@@ -13937,7 +14041,7 @@
       <c r="BH185" s="6"/>
       <c r="BI185" s="6"/>
     </row>
-    <row r="186" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
@@ -13998,7 +14102,7 @@
       <c r="BH186" s="6"/>
       <c r="BI186" s="6"/>
     </row>
-    <row r="187" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
@@ -14059,7 +14163,7 @@
       <c r="BH187" s="6"/>
       <c r="BI187" s="6"/>
     </row>
-    <row r="188" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
@@ -14120,7 +14224,7 @@
       <c r="BH188" s="6"/>
       <c r="BI188" s="6"/>
     </row>
-    <row r="189" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
@@ -14181,7 +14285,7 @@
       <c r="BH189" s="6"/>
       <c r="BI189" s="6"/>
     </row>
-    <row r="190" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
@@ -14242,7 +14346,7 @@
       <c r="BH190" s="6"/>
       <c r="BI190" s="6"/>
     </row>
-    <row r="191" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
@@ -14303,7 +14407,7 @@
       <c r="BH191" s="6"/>
       <c r="BI191" s="6"/>
     </row>
-    <row r="192" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
@@ -14364,7 +14468,7 @@
       <c r="BH192" s="6"/>
       <c r="BI192" s="6"/>
     </row>
-    <row r="193" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
@@ -14425,7 +14529,7 @@
       <c r="BH193" s="6"/>
       <c r="BI193" s="6"/>
     </row>
-    <row r="194" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
@@ -14486,7 +14590,7 @@
       <c r="BH194" s="6"/>
       <c r="BI194" s="6"/>
     </row>
-    <row r="195" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
@@ -14547,7 +14651,7 @@
       <c r="BH195" s="6"/>
       <c r="BI195" s="6"/>
     </row>
-    <row r="196" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
@@ -14608,7 +14712,7 @@
       <c r="BH196" s="6"/>
       <c r="BI196" s="6"/>
     </row>
-    <row r="197" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
@@ -14669,7 +14773,7 @@
       <c r="BH197" s="6"/>
       <c r="BI197" s="6"/>
     </row>
-    <row r="198" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
@@ -14730,7 +14834,7 @@
       <c r="BH198" s="6"/>
       <c r="BI198" s="6"/>
     </row>
-    <row r="199" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
@@ -14791,7 +14895,7 @@
       <c r="BH199" s="6"/>
       <c r="BI199" s="6"/>
     </row>
-    <row r="200" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
@@ -14852,7 +14956,7 @@
       <c r="BH200" s="6"/>
       <c r="BI200" s="6"/>
     </row>
-    <row r="201" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
@@ -14913,7 +15017,7 @@
       <c r="BH201" s="6"/>
       <c r="BI201" s="6"/>
     </row>
-    <row r="202" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
@@ -14974,7 +15078,7 @@
       <c r="BH202" s="6"/>
       <c r="BI202" s="6"/>
     </row>
-    <row r="203" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
@@ -15035,7 +15139,7 @@
       <c r="BH203" s="6"/>
       <c r="BI203" s="6"/>
     </row>
-    <row r="204" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
@@ -15096,7 +15200,7 @@
       <c r="BH204" s="6"/>
       <c r="BI204" s="6"/>
     </row>
-    <row r="205" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
@@ -15157,7 +15261,7 @@
       <c r="BH205" s="6"/>
       <c r="BI205" s="6"/>
     </row>
-    <row r="206" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
@@ -15218,7 +15322,7 @@
       <c r="BH206" s="6"/>
       <c r="BI206" s="6"/>
     </row>
-    <row r="207" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
@@ -15279,7 +15383,7 @@
       <c r="BH207" s="6"/>
       <c r="BI207" s="6"/>
     </row>
-    <row r="208" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
@@ -15340,7 +15444,7 @@
       <c r="BH208" s="6"/>
       <c r="BI208" s="6"/>
     </row>
-    <row r="209" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
@@ -15401,7 +15505,7 @@
       <c r="BH209" s="6"/>
       <c r="BI209" s="6"/>
     </row>
-    <row r="210" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
@@ -15462,7 +15566,7 @@
       <c r="BH210" s="6"/>
       <c r="BI210" s="6"/>
     </row>
-    <row r="211" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
@@ -15523,7 +15627,7 @@
       <c r="BH211" s="6"/>
       <c r="BI211" s="6"/>
     </row>
-    <row r="212" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
@@ -15584,7 +15688,7 @@
       <c r="BH212" s="6"/>
       <c r="BI212" s="6"/>
     </row>
-    <row r="213" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
@@ -15645,7 +15749,7 @@
       <c r="BH213" s="6"/>
       <c r="BI213" s="6"/>
     </row>
-    <row r="214" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
@@ -15706,7 +15810,7 @@
       <c r="BH214" s="6"/>
       <c r="BI214" s="6"/>
     </row>
-    <row r="215" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
@@ -15767,7 +15871,7 @@
       <c r="BH215" s="6"/>
       <c r="BI215" s="6"/>
     </row>
-    <row r="216" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
@@ -15828,7 +15932,7 @@
       <c r="BH216" s="6"/>
       <c r="BI216" s="6"/>
     </row>
-    <row r="217" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
@@ -15889,7 +15993,7 @@
       <c r="BH217" s="6"/>
       <c r="BI217" s="6"/>
     </row>
-    <row r="218" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
@@ -15950,7 +16054,7 @@
       <c r="BH218" s="6"/>
       <c r="BI218" s="6"/>
     </row>
-    <row r="219" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
@@ -16011,7 +16115,7 @@
       <c r="BH219" s="6"/>
       <c r="BI219" s="6"/>
     </row>
-    <row r="220" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
@@ -16072,7 +16176,7 @@
       <c r="BH220" s="6"/>
       <c r="BI220" s="6"/>
     </row>
-    <row r="221" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
@@ -16133,7 +16237,7 @@
       <c r="BH221" s="6"/>
       <c r="BI221" s="6"/>
     </row>
-    <row r="222" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
@@ -16194,7 +16298,7 @@
       <c r="BH222" s="6"/>
       <c r="BI222" s="6"/>
     </row>
-    <row r="223" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
@@ -16255,7 +16359,7 @@
       <c r="BH223" s="6"/>
       <c r="BI223" s="6"/>
     </row>
-    <row r="224" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
@@ -16316,7 +16420,7 @@
       <c r="BH224" s="6"/>
       <c r="BI224" s="6"/>
     </row>
-    <row r="225" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
@@ -16377,7 +16481,7 @@
       <c r="BH225" s="6"/>
       <c r="BI225" s="6"/>
     </row>
-    <row r="226" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
@@ -16438,7 +16542,7 @@
       <c r="BH226" s="6"/>
       <c r="BI226" s="6"/>
     </row>
-    <row r="227" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
@@ -16499,7 +16603,7 @@
       <c r="BH227" s="6"/>
       <c r="BI227" s="6"/>
     </row>
-    <row r="228" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
@@ -16560,7 +16664,7 @@
       <c r="BH228" s="6"/>
       <c r="BI228" s="6"/>
     </row>
-    <row r="229" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
@@ -16621,7 +16725,7 @@
       <c r="BH229" s="6"/>
       <c r="BI229" s="6"/>
     </row>
-    <row r="230" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
@@ -16682,7 +16786,7 @@
       <c r="BH230" s="6"/>
       <c r="BI230" s="6"/>
     </row>
-    <row r="231" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
@@ -16743,7 +16847,7 @@
       <c r="BH231" s="6"/>
       <c r="BI231" s="6"/>
     </row>
-    <row r="232" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
@@ -16804,7 +16908,7 @@
       <c r="BH232" s="6"/>
       <c r="BI232" s="6"/>
     </row>
-    <row r="233" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
@@ -16865,7 +16969,7 @@
       <c r="BH233" s="6"/>
       <c r="BI233" s="6"/>
     </row>
-    <row r="234" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
@@ -16926,7 +17030,7 @@
       <c r="BH234" s="6"/>
       <c r="BI234" s="6"/>
     </row>
-    <row r="235" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
@@ -16987,7 +17091,7 @@
       <c r="BH235" s="6"/>
       <c r="BI235" s="6"/>
     </row>
-    <row r="236" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
@@ -17048,7 +17152,7 @@
       <c r="BH236" s="6"/>
       <c r="BI236" s="6"/>
     </row>
-    <row r="237" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
@@ -17109,7 +17213,7 @@
       <c r="BH237" s="6"/>
       <c r="BI237" s="6"/>
     </row>
-    <row r="238" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
@@ -17170,7 +17274,7 @@
       <c r="BH238" s="6"/>
       <c r="BI238" s="6"/>
     </row>
-    <row r="239" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -17231,7 +17335,7 @@
       <c r="BH239" s="6"/>
       <c r="BI239" s="6"/>
     </row>
-    <row r="240" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
@@ -17292,7 +17396,7 @@
       <c r="BH240" s="6"/>
       <c r="BI240" s="6"/>
     </row>
-    <row r="241" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
@@ -17353,7 +17457,7 @@
       <c r="BH241" s="6"/>
       <c r="BI241" s="6"/>
     </row>
-    <row r="242" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
@@ -17414,7 +17518,7 @@
       <c r="BH242" s="6"/>
       <c r="BI242" s="6"/>
     </row>
-    <row r="243" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
@@ -17475,7 +17579,7 @@
       <c r="BH243" s="6"/>
       <c r="BI243" s="6"/>
     </row>
-    <row r="244" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
@@ -17536,7 +17640,7 @@
       <c r="BH244" s="6"/>
       <c r="BI244" s="6"/>
     </row>
-    <row r="245" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
@@ -17597,7 +17701,7 @@
       <c r="BH245" s="6"/>
       <c r="BI245" s="6"/>
     </row>
-    <row r="246" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
@@ -17658,7 +17762,7 @@
       <c r="BH246" s="6"/>
       <c r="BI246" s="6"/>
     </row>
-    <row r="247" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
@@ -17719,7 +17823,7 @@
       <c r="BH247" s="6"/>
       <c r="BI247" s="6"/>
     </row>
-    <row r="248" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
@@ -17780,7 +17884,7 @@
       <c r="BH248" s="6"/>
       <c r="BI248" s="6"/>
     </row>
-    <row r="249" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
@@ -17841,7 +17945,7 @@
       <c r="BH249" s="6"/>
       <c r="BI249" s="6"/>
     </row>
-    <row r="250" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
@@ -17902,7 +18006,7 @@
       <c r="BH250" s="6"/>
       <c r="BI250" s="6"/>
     </row>
-    <row r="251" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
@@ -17963,7 +18067,7 @@
       <c r="BH251" s="6"/>
       <c r="BI251" s="6"/>
     </row>
-    <row r="252" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
@@ -18024,7 +18128,7 @@
       <c r="BH252" s="6"/>
       <c r="BI252" s="6"/>
     </row>
-    <row r="253" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
@@ -18085,7 +18189,7 @@
       <c r="BH253" s="6"/>
       <c r="BI253" s="6"/>
     </row>
-    <row r="254" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
@@ -18146,7 +18250,7 @@
       <c r="BH254" s="6"/>
       <c r="BI254" s="6"/>
     </row>
-    <row r="255" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
@@ -18207,7 +18311,7 @@
       <c r="BH255" s="6"/>
       <c r="BI255" s="6"/>
     </row>
-    <row r="256" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
@@ -18268,7 +18372,7 @@
       <c r="BH256" s="6"/>
       <c r="BI256" s="6"/>
     </row>
-    <row r="257" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -18329,7 +18433,7 @@
       <c r="BH257" s="6"/>
       <c r="BI257" s="6"/>
     </row>
-    <row r="258" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -18390,7 +18494,7 @@
       <c r="BH258" s="6"/>
       <c r="BI258" s="6"/>
     </row>
-    <row r="259" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -18451,7 +18555,7 @@
       <c r="BH259" s="6"/>
       <c r="BI259" s="6"/>
     </row>
-    <row r="260" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
@@ -18512,7 +18616,7 @@
       <c r="BH260" s="6"/>
       <c r="BI260" s="6"/>
     </row>
-    <row r="261" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -18573,7 +18677,7 @@
       <c r="BH261" s="6"/>
       <c r="BI261" s="6"/>
     </row>
-    <row r="262" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -18634,7 +18738,7 @@
       <c r="BH262" s="6"/>
       <c r="BI262" s="6"/>
     </row>
-    <row r="263" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -18695,7 +18799,7 @@
       <c r="BH263" s="6"/>
       <c r="BI263" s="6"/>
     </row>
-    <row r="264" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -18756,7 +18860,7 @@
       <c r="BH264" s="6"/>
       <c r="BI264" s="6"/>
     </row>
-    <row r="265" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
@@ -18817,7 +18921,7 @@
       <c r="BH265" s="6"/>
       <c r="BI265" s="6"/>
     </row>
-    <row r="266" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
@@ -18878,7 +18982,7 @@
       <c r="BH266" s="6"/>
       <c r="BI266" s="6"/>
     </row>
-    <row r="267" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
@@ -18939,7 +19043,7 @@
       <c r="BH267" s="6"/>
       <c r="BI267" s="6"/>
     </row>
-    <row r="268" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
@@ -19000,7 +19104,7 @@
       <c r="BH268" s="6"/>
       <c r="BI268" s="6"/>
     </row>
-    <row r="269" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
@@ -19061,7 +19165,7 @@
       <c r="BH269" s="6"/>
       <c r="BI269" s="6"/>
     </row>
-    <row r="270" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
@@ -19122,7 +19226,7 @@
       <c r="BH270" s="6"/>
       <c r="BI270" s="6"/>
     </row>
-    <row r="271" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
@@ -19183,7 +19287,7 @@
       <c r="BH271" s="6"/>
       <c r="BI271" s="6"/>
     </row>
-    <row r="272" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
@@ -19244,7 +19348,7 @@
       <c r="BH272" s="6"/>
       <c r="BI272" s="6"/>
     </row>
-    <row r="273" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
@@ -19305,7 +19409,7 @@
       <c r="BH273" s="6"/>
       <c r="BI273" s="6"/>
     </row>
-    <row r="274" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
@@ -19366,7 +19470,7 @@
       <c r="BH274" s="6"/>
       <c r="BI274" s="6"/>
     </row>
-    <row r="275" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
@@ -19427,7 +19531,7 @@
       <c r="BH275" s="6"/>
       <c r="BI275" s="6"/>
     </row>
-    <row r="276" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
@@ -19488,7 +19592,7 @@
       <c r="BH276" s="6"/>
       <c r="BI276" s="6"/>
     </row>
-    <row r="277" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
@@ -19549,7 +19653,7 @@
       <c r="BH277" s="6"/>
       <c r="BI277" s="6"/>
     </row>
-    <row r="278" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -19610,7 +19714,7 @@
       <c r="BH278" s="6"/>
       <c r="BI278" s="6"/>
     </row>
-    <row r="279" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
@@ -19671,7 +19775,7 @@
       <c r="BH279" s="6"/>
       <c r="BI279" s="6"/>
     </row>
-    <row r="280" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
@@ -19732,7 +19836,7 @@
       <c r="BH280" s="6"/>
       <c r="BI280" s="6"/>
     </row>
-    <row r="281" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
@@ -19793,7 +19897,7 @@
       <c r="BH281" s="6"/>
       <c r="BI281" s="6"/>
     </row>
-    <row r="282" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
@@ -19854,7 +19958,7 @@
       <c r="BH282" s="6"/>
       <c r="BI282" s="6"/>
     </row>
-    <row r="283" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
@@ -19915,7 +20019,7 @@
       <c r="BH283" s="6"/>
       <c r="BI283" s="6"/>
     </row>
-    <row r="284" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
@@ -19976,7 +20080,7 @@
       <c r="BH284" s="6"/>
       <c r="BI284" s="6"/>
     </row>
-    <row r="285" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
@@ -20037,7 +20141,7 @@
       <c r="BH285" s="6"/>
       <c r="BI285" s="6"/>
     </row>
-    <row r="286" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
@@ -20098,7 +20202,7 @@
       <c r="BH286" s="6"/>
       <c r="BI286" s="6"/>
     </row>
-    <row r="287" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
@@ -20159,7 +20263,7 @@
       <c r="BH287" s="6"/>
       <c r="BI287" s="6"/>
     </row>
-    <row r="288" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
@@ -20220,7 +20324,7 @@
       <c r="BH288" s="6"/>
       <c r="BI288" s="6"/>
     </row>
-    <row r="289" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
@@ -20281,7 +20385,7 @@
       <c r="BH289" s="6"/>
       <c r="BI289" s="6"/>
     </row>
-    <row r="290" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
@@ -20342,7 +20446,7 @@
       <c r="BH290" s="6"/>
       <c r="BI290" s="6"/>
     </row>
-    <row r="291" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
       <c r="E291" s="6"/>
@@ -20403,7 +20507,7 @@
       <c r="BH291" s="6"/>
       <c r="BI291" s="6"/>
     </row>
-    <row r="292" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
       <c r="E292" s="6"/>
@@ -20464,7 +20568,7 @@
       <c r="BH292" s="6"/>
       <c r="BI292" s="6"/>
     </row>
-    <row r="293" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
       <c r="E293" s="6"/>
@@ -20525,7 +20629,7 @@
       <c r="BH293" s="6"/>
       <c r="BI293" s="6"/>
     </row>
-    <row r="294" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
       <c r="E294" s="6"/>
@@ -20586,7 +20690,7 @@
       <c r="BH294" s="6"/>
       <c r="BI294" s="6"/>
     </row>
-    <row r="295" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
       <c r="E295" s="6"/>
@@ -20647,7 +20751,7 @@
       <c r="BH295" s="6"/>
       <c r="BI295" s="6"/>
     </row>
-    <row r="296" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6"/>
@@ -20708,7 +20812,7 @@
       <c r="BH296" s="6"/>
       <c r="BI296" s="6"/>
     </row>
-    <row r="297" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
       <c r="E297" s="6"/>
@@ -20769,7 +20873,7 @@
       <c r="BH297" s="6"/>
       <c r="BI297" s="6"/>
     </row>
-    <row r="298" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6"/>
@@ -20830,7 +20934,7 @@
       <c r="BH298" s="6"/>
       <c r="BI298" s="6"/>
     </row>
-    <row r="299" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
@@ -20891,7 +20995,7 @@
       <c r="BH299" s="6"/>
       <c r="BI299" s="6"/>
     </row>
-    <row r="300" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
       <c r="E300" s="6"/>
@@ -20952,7 +21056,7 @@
       <c r="BH300" s="6"/>
       <c r="BI300" s="6"/>
     </row>
-    <row r="301" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
       <c r="E301" s="6"/>
@@ -21013,7 +21117,7 @@
       <c r="BH301" s="6"/>
       <c r="BI301" s="6"/>
     </row>
-    <row r="302" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
@@ -21074,7 +21178,7 @@
       <c r="BH302" s="6"/>
       <c r="BI302" s="6"/>
     </row>
-    <row r="303" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
       <c r="E303" s="6"/>
@@ -21135,7 +21239,7 @@
       <c r="BH303" s="6"/>
       <c r="BI303" s="6"/>
     </row>
-    <row r="304" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
@@ -21196,7 +21300,7 @@
       <c r="BH304" s="6"/>
       <c r="BI304" s="6"/>
     </row>
-    <row r="305" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
       <c r="E305" s="6"/>
@@ -21257,7 +21361,7 @@
       <c r="BH305" s="6"/>
       <c r="BI305" s="6"/>
     </row>
-    <row r="306" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
       <c r="E306" s="6"/>
@@ -21318,7 +21422,7 @@
       <c r="BH306" s="6"/>
       <c r="BI306" s="6"/>
     </row>
-    <row r="307" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
       <c r="E307" s="6"/>
@@ -21379,7 +21483,7 @@
       <c r="BH307" s="6"/>
       <c r="BI307" s="6"/>
     </row>
-    <row r="308" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
       <c r="E308" s="6"/>
@@ -21440,7 +21544,7 @@
       <c r="BH308" s="6"/>
       <c r="BI308" s="6"/>
     </row>
-    <row r="309" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
       <c r="E309" s="6"/>
@@ -21501,7 +21605,7 @@
       <c r="BH309" s="6"/>
       <c r="BI309" s="6"/>
     </row>
-    <row r="310" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
       <c r="E310" s="6"/>
@@ -21562,7 +21666,7 @@
       <c r="BH310" s="6"/>
       <c r="BI310" s="6"/>
     </row>
-    <row r="311" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
       <c r="E311" s="6"/>
@@ -21623,7 +21727,7 @@
       <c r="BH311" s="6"/>
       <c r="BI311" s="6"/>
     </row>
-    <row r="312" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
@@ -21684,7 +21788,7 @@
       <c r="BH312" s="6"/>
       <c r="BI312" s="6"/>
     </row>
-    <row r="313" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
@@ -21745,7 +21849,7 @@
       <c r="BH313" s="6"/>
       <c r="BI313" s="6"/>
     </row>
-    <row r="314" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
       <c r="E314" s="6"/>
@@ -21806,7 +21910,7 @@
       <c r="BH314" s="6"/>
       <c r="BI314" s="6"/>
     </row>
-    <row r="315" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
       <c r="E315" s="6"/>
@@ -21867,7 +21971,7 @@
       <c r="BH315" s="6"/>
       <c r="BI315" s="6"/>
     </row>
-    <row r="316" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
       <c r="E316" s="6"/>
@@ -21928,7 +22032,7 @@
       <c r="BH316" s="6"/>
       <c r="BI316" s="6"/>
     </row>
-    <row r="317" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
       <c r="E317" s="6"/>
@@ -21989,7 +22093,7 @@
       <c r="BH317" s="6"/>
       <c r="BI317" s="6"/>
     </row>
-    <row r="318" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
       <c r="E318" s="6"/>
@@ -22050,7 +22154,7 @@
       <c r="BH318" s="6"/>
       <c r="BI318" s="6"/>
     </row>
-    <row r="319" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
       <c r="E319" s="6"/>
@@ -22111,7 +22215,7 @@
       <c r="BH319" s="6"/>
       <c r="BI319" s="6"/>
     </row>
-    <row r="320" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
       <c r="E320" s="6"/>
@@ -22172,7 +22276,7 @@
       <c r="BH320" s="6"/>
       <c r="BI320" s="6"/>
     </row>
-    <row r="321" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
       <c r="E321" s="6"/>
@@ -22233,7 +22337,7 @@
       <c r="BH321" s="6"/>
       <c r="BI321" s="6"/>
     </row>
-    <row r="322" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
       <c r="E322" s="6"/>
@@ -22294,7 +22398,7 @@
       <c r="BH322" s="6"/>
       <c r="BI322" s="6"/>
     </row>
-    <row r="323" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
@@ -22355,7 +22459,7 @@
       <c r="BH323" s="6"/>
       <c r="BI323" s="6"/>
     </row>
-    <row r="324" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
@@ -22416,7 +22520,7 @@
       <c r="BH324" s="6"/>
       <c r="BI324" s="6"/>
     </row>
-    <row r="325" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
       <c r="E325" s="6"/>
@@ -22477,7 +22581,7 @@
       <c r="BH325" s="6"/>
       <c r="BI325" s="6"/>
     </row>
-    <row r="326" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
       <c r="E326" s="6"/>
@@ -22538,7 +22642,7 @@
       <c r="BH326" s="6"/>
       <c r="BI326" s="6"/>
     </row>
-    <row r="327" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
       <c r="E327" s="6"/>
@@ -22599,7 +22703,7 @@
       <c r="BH327" s="6"/>
       <c r="BI327" s="6"/>
     </row>
-    <row r="328" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
       <c r="E328" s="6"/>
@@ -22660,7 +22764,7 @@
       <c r="BH328" s="6"/>
       <c r="BI328" s="6"/>
     </row>
-    <row r="329" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
@@ -22721,7 +22825,7 @@
       <c r="BH329" s="6"/>
       <c r="BI329" s="6"/>
     </row>
-    <row r="330" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
       <c r="E330" s="6"/>
@@ -22782,7 +22886,7 @@
       <c r="BH330" s="6"/>
       <c r="BI330" s="6"/>
     </row>
-    <row r="331" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
       <c r="E331" s="6"/>
@@ -22843,7 +22947,7 @@
       <c r="BH331" s="6"/>
       <c r="BI331" s="6"/>
     </row>
-    <row r="332" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
       <c r="E332" s="6"/>
@@ -22904,7 +23008,7 @@
       <c r="BH332" s="6"/>
       <c r="BI332" s="6"/>
     </row>
-    <row r="333" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
       <c r="E333" s="6"/>
@@ -22965,7 +23069,7 @@
       <c r="BH333" s="6"/>
       <c r="BI333" s="6"/>
     </row>
-    <row r="334" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
       <c r="E334" s="6"/>
@@ -23026,7 +23130,7 @@
       <c r="BH334" s="6"/>
       <c r="BI334" s="6"/>
     </row>
-    <row r="335" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
       <c r="E335" s="6"/>
@@ -23087,7 +23191,7 @@
       <c r="BH335" s="6"/>
       <c r="BI335" s="6"/>
     </row>
-    <row r="336" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
       <c r="E336" s="6"/>
@@ -23148,7 +23252,7 @@
       <c r="BH336" s="6"/>
       <c r="BI336" s="6"/>
     </row>
-    <row r="337" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
       <c r="E337" s="6"/>
@@ -23209,7 +23313,7 @@
       <c r="BH337" s="6"/>
       <c r="BI337" s="6"/>
     </row>
-    <row r="338" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
       <c r="E338" s="6"/>
@@ -23270,7 +23374,7 @@
       <c r="BH338" s="6"/>
       <c r="BI338" s="6"/>
     </row>
-    <row r="339" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
@@ -23331,7 +23435,7 @@
       <c r="BH339" s="6"/>
       <c r="BI339" s="6"/>
     </row>
-    <row r="340" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
@@ -23392,7 +23496,7 @@
       <c r="BH340" s="6"/>
       <c r="BI340" s="6"/>
     </row>
-    <row r="341" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
@@ -23453,7 +23557,7 @@
       <c r="BH341" s="6"/>
       <c r="BI341" s="6"/>
     </row>
-    <row r="342" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
@@ -23514,7 +23618,7 @@
       <c r="BH342" s="6"/>
       <c r="BI342" s="6"/>
     </row>
-    <row r="343" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
       <c r="E343" s="6"/>
@@ -23575,7 +23679,7 @@
       <c r="BH343" s="6"/>
       <c r="BI343" s="6"/>
     </row>
-    <row r="344" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
@@ -23636,7 +23740,7 @@
       <c r="BH344" s="6"/>
       <c r="BI344" s="6"/>
     </row>
-    <row r="345" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
@@ -23697,7 +23801,7 @@
       <c r="BH345" s="6"/>
       <c r="BI345" s="6"/>
     </row>
-    <row r="346" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
@@ -23758,7 +23862,7 @@
       <c r="BH346" s="6"/>
       <c r="BI346" s="6"/>
     </row>
-    <row r="347" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
@@ -23819,7 +23923,7 @@
       <c r="BH347" s="6"/>
       <c r="BI347" s="6"/>
     </row>
-    <row r="348" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
@@ -23880,7 +23984,7 @@
       <c r="BH348" s="6"/>
       <c r="BI348" s="6"/>
     </row>
-    <row r="349" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
@@ -23941,7 +24045,7 @@
       <c r="BH349" s="6"/>
       <c r="BI349" s="6"/>
     </row>
-    <row r="350" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
       <c r="E350" s="6"/>
@@ -24002,7 +24106,7 @@
       <c r="BH350" s="6"/>
       <c r="BI350" s="6"/>
     </row>
-    <row r="351" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
@@ -24063,7 +24167,7 @@
       <c r="BH351" s="6"/>
       <c r="BI351" s="6"/>
     </row>
-    <row r="352" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
       <c r="E352" s="6"/>
@@ -24124,7 +24228,7 @@
       <c r="BH352" s="6"/>
       <c r="BI352" s="6"/>
     </row>
-    <row r="353" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
@@ -24185,7 +24289,7 @@
       <c r="BH353" s="6"/>
       <c r="BI353" s="6"/>
     </row>
-    <row r="354" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
       <c r="E354" s="6"/>
@@ -24246,7 +24350,7 @@
       <c r="BH354" s="6"/>
       <c r="BI354" s="6"/>
     </row>
-    <row r="355" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
@@ -24307,7 +24411,7 @@
       <c r="BH355" s="6"/>
       <c r="BI355" s="6"/>
     </row>
-    <row r="356" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
       <c r="E356" s="6"/>
@@ -24368,7 +24472,7 @@
       <c r="BH356" s="6"/>
       <c r="BI356" s="6"/>
     </row>
-    <row r="357" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
@@ -24429,7 +24533,7 @@
       <c r="BH357" s="6"/>
       <c r="BI357" s="6"/>
     </row>
-    <row r="358" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
@@ -24490,7 +24594,7 @@
       <c r="BH358" s="6"/>
       <c r="BI358" s="6"/>
     </row>
-    <row r="359" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
@@ -24551,7 +24655,7 @@
       <c r="BH359" s="6"/>
       <c r="BI359" s="6"/>
     </row>
-    <row r="360" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
@@ -24612,7 +24716,7 @@
       <c r="BH360" s="6"/>
       <c r="BI360" s="6"/>
     </row>
-    <row r="361" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
       <c r="E361" s="6"/>
@@ -24673,7 +24777,7 @@
       <c r="BH361" s="6"/>
       <c r="BI361" s="6"/>
     </row>
-    <row r="362" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
       <c r="E362" s="6"/>
@@ -24734,7 +24838,7 @@
       <c r="BH362" s="6"/>
       <c r="BI362" s="6"/>
     </row>
-    <row r="363" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
@@ -24795,7 +24899,7 @@
       <c r="BH363" s="6"/>
       <c r="BI363" s="6"/>
     </row>
-    <row r="364" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
       <c r="E364" s="6"/>
@@ -24856,7 +24960,7 @@
       <c r="BH364" s="6"/>
       <c r="BI364" s="6"/>
     </row>
-    <row r="365" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
       <c r="E365" s="6"/>
@@ -24917,7 +25021,7 @@
       <c r="BH365" s="6"/>
       <c r="BI365" s="6"/>
     </row>
-    <row r="366" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
@@ -24978,7 +25082,7 @@
       <c r="BH366" s="6"/>
       <c r="BI366" s="6"/>
     </row>
-    <row r="367" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
       <c r="E367" s="6"/>
@@ -25039,7 +25143,7 @@
       <c r="BH367" s="6"/>
       <c r="BI367" s="6"/>
     </row>
-    <row r="368" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:61" x14ac:dyDescent="0.25">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -25068,7 +25172,7 @@
       <c r="AB368" s="3"/>
       <c r="AC368" s="3"/>
     </row>
-    <row r="369" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -25097,7 +25201,7 @@
       <c r="AB369" s="3"/>
       <c r="AC369" s="3"/>
     </row>
-    <row r="370" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -25126,7 +25230,7 @@
       <c r="AB370" s="3"/>
       <c r="AC370" s="3"/>
     </row>
-    <row r="371" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -25155,7 +25259,7 @@
       <c r="AB371" s="3"/>
       <c r="AC371" s="3"/>
     </row>
-    <row r="372" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -25184,7 +25288,7 @@
       <c r="AB372" s="3"/>
       <c r="AC372" s="3"/>
     </row>
-    <row r="373" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -25213,7 +25317,7 @@
       <c r="AB373" s="3"/>
       <c r="AC373" s="3"/>
     </row>
-    <row r="374" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -25242,7 +25346,7 @@
       <c r="AB374" s="3"/>
       <c r="AC374" s="3"/>
     </row>
-    <row r="375" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -25271,7 +25375,7 @@
       <c r="AB375" s="3"/>
       <c r="AC375" s="3"/>
     </row>
-    <row r="376" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -25300,7 +25404,7 @@
       <c r="AB376" s="3"/>
       <c r="AC376" s="3"/>
     </row>
-    <row r="377" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -25329,7 +25433,7 @@
       <c r="AB377" s="3"/>
       <c r="AC377" s="3"/>
     </row>
-    <row r="378" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -25358,7 +25462,7 @@
       <c r="AB378" s="3"/>
       <c r="AC378" s="3"/>
     </row>
-    <row r="379" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
@@ -25387,7 +25491,7 @@
       <c r="AB379" s="3"/>
       <c r="AC379" s="3"/>
     </row>
-    <row r="380" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -25416,7 +25520,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -25445,7 +25549,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -25474,7 +25578,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
       <c r="E383" s="3"/>
@@ -25503,7 +25607,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
       <c r="E384" s="3"/>
@@ -25532,7 +25636,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -25561,7 +25665,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -25590,7 +25694,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -25619,7 +25723,7 @@
       <c r="AB387" s="3"/>
       <c r="AC387" s="3"/>
     </row>
-    <row r="388" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
       <c r="E388" s="3"/>
@@ -25648,7 +25752,7 @@
       <c r="AB388" s="3"/>
       <c r="AC388" s="3"/>
     </row>
-    <row r="389" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
       <c r="E389" s="3"/>
@@ -25677,7 +25781,7 @@
       <c r="AB389" s="3"/>
       <c r="AC389" s="3"/>
     </row>
-    <row r="390" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -25706,7 +25810,7 @@
       <c r="AB390" s="3"/>
       <c r="AC390" s="3"/>
     </row>
-    <row r="391" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -25735,7 +25839,7 @@
       <c r="AB391" s="3"/>
       <c r="AC391" s="3"/>
     </row>
-    <row r="392" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
       <c r="E392" s="3"/>
@@ -25764,7 +25868,7 @@
       <c r="AB392" s="3"/>
       <c r="AC392" s="3"/>
     </row>
-    <row r="393" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
       <c r="E393" s="3"/>
@@ -25793,7 +25897,7 @@
       <c r="AB393" s="3"/>
       <c r="AC393" s="3"/>
     </row>
-    <row r="394" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
       <c r="E394" s="3"/>
@@ -25822,7 +25926,7 @@
       <c r="AB394" s="3"/>
       <c r="AC394" s="3"/>
     </row>
-    <row r="395" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
       <c r="E395" s="3"/>
@@ -25851,7 +25955,7 @@
       <c r="AB395" s="3"/>
       <c r="AC395" s="3"/>
     </row>
-    <row r="396" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
       <c r="E396" s="3"/>
@@ -25880,7 +25984,7 @@
       <c r="AB396" s="3"/>
       <c r="AC396" s="3"/>
     </row>
-    <row r="397" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
       <c r="E397" s="3"/>
@@ -25909,7 +26013,7 @@
       <c r="AB397" s="3"/>
       <c r="AC397" s="3"/>
     </row>
-    <row r="398" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
       <c r="E398" s="3"/>
@@ -25938,7 +26042,7 @@
       <c r="AB398" s="3"/>
       <c r="AC398" s="3"/>
     </row>
-    <row r="399" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
       <c r="E399" s="3"/>
@@ -25967,7 +26071,7 @@
       <c r="AB399" s="3"/>
       <c r="AC399" s="3"/>
     </row>
-    <row r="400" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
       <c r="E400" s="3"/>
@@ -25996,7 +26100,7 @@
       <c r="AB400" s="3"/>
       <c r="AC400" s="3"/>
     </row>
-    <row r="401" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
       <c r="E401" s="3"/>
@@ -26025,7 +26129,7 @@
       <c r="AB401" s="3"/>
       <c r="AC401" s="3"/>
     </row>
-    <row r="402" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
       <c r="E402" s="3"/>
@@ -26054,7 +26158,7 @@
       <c r="AB402" s="3"/>
       <c r="AC402" s="3"/>
     </row>
-    <row r="403" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
       <c r="E403" s="3"/>
@@ -26083,7 +26187,7 @@
       <c r="AB403" s="3"/>
       <c r="AC403" s="3"/>
     </row>
-    <row r="404" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -26112,7 +26216,7 @@
       <c r="AB404" s="3"/>
       <c r="AC404" s="3"/>
     </row>
-    <row r="405" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -26141,7 +26245,7 @@
       <c r="AB405" s="3"/>
       <c r="AC405" s="3"/>
     </row>
-    <row r="406" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -26170,7 +26274,7 @@
       <c r="AB406" s="3"/>
       <c r="AC406" s="3"/>
     </row>
-    <row r="407" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
       <c r="E407" s="3"/>
@@ -26199,7 +26303,7 @@
       <c r="AB407" s="3"/>
       <c r="AC407" s="3"/>
     </row>
-    <row r="408" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
       <c r="E408" s="3"/>
@@ -26228,7 +26332,7 @@
       <c r="AB408" s="3"/>
       <c r="AC408" s="3"/>
     </row>
-    <row r="409" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -26257,7 +26361,7 @@
       <c r="AB409" s="3"/>
       <c r="AC409" s="3"/>
     </row>
-    <row r="410" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -26286,7 +26390,7 @@
       <c r="AB410" s="3"/>
       <c r="AC410" s="3"/>
     </row>
-    <row r="411" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -26315,7 +26419,7 @@
       <c r="AB411" s="3"/>
       <c r="AC411" s="3"/>
     </row>
-    <row r="412" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
       <c r="E412" s="3"/>
@@ -26344,7 +26448,7 @@
       <c r="AB412" s="3"/>
       <c r="AC412" s="3"/>
     </row>
-    <row r="413" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="3"/>
@@ -26373,7 +26477,7 @@
       <c r="AB413" s="3"/>
       <c r="AC413" s="3"/>
     </row>
-    <row r="414" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -26402,7 +26506,7 @@
       <c r="AB414" s="3"/>
       <c r="AC414" s="3"/>
     </row>
-    <row r="415" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -26431,7 +26535,7 @@
       <c r="AB415" s="3"/>
       <c r="AC415" s="3"/>
     </row>
-    <row r="416" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -26460,7 +26564,7 @@
       <c r="AB416" s="3"/>
       <c r="AC416" s="3"/>
     </row>
-    <row r="417" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
@@ -26489,7 +26593,7 @@
       <c r="AB417" s="3"/>
       <c r="AC417" s="3"/>
     </row>
-    <row r="418" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
@@ -26518,7 +26622,7 @@
       <c r="AB418" s="3"/>
       <c r="AC418" s="3"/>
     </row>
-    <row r="419" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -26547,7 +26651,7 @@
       <c r="AB419" s="3"/>
       <c r="AC419" s="3"/>
     </row>
-    <row r="420" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -26576,7 +26680,7 @@
       <c r="AB420" s="3"/>
       <c r="AC420" s="3"/>
     </row>
-    <row r="421" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -26605,7 +26709,7 @@
       <c r="AB421" s="3"/>
       <c r="AC421" s="3"/>
     </row>
-    <row r="422" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
       <c r="E422" s="3"/>
@@ -26634,7 +26738,7 @@
       <c r="AB422" s="3"/>
       <c r="AC422" s="3"/>
     </row>
-    <row r="423" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="3"/>
@@ -26663,7 +26767,7 @@
       <c r="AB423" s="3"/>
       <c r="AC423" s="3"/>
     </row>
-    <row r="424" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -26692,7 +26796,7 @@
       <c r="AB424" s="3"/>
       <c r="AC424" s="3"/>
     </row>
-    <row r="425" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -26721,7 +26825,7 @@
       <c r="AB425" s="3"/>
       <c r="AC425" s="3"/>
     </row>
-    <row r="426" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -26750,7 +26854,7 @@
       <c r="AB426" s="3"/>
       <c r="AC426" s="3"/>
     </row>
-    <row r="427" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
       <c r="E427" s="3"/>
@@ -26779,7 +26883,7 @@
       <c r="AB427" s="3"/>
       <c r="AC427" s="3"/>
     </row>
-    <row r="428" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
       <c r="E428" s="3"/>
@@ -26808,7 +26912,7 @@
       <c r="AB428" s="3"/>
       <c r="AC428" s="3"/>
     </row>
-    <row r="429" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -26837,7 +26941,7 @@
       <c r="AB429" s="3"/>
       <c r="AC429" s="3"/>
     </row>
-    <row r="430" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -26866,7 +26970,7 @@
       <c r="AB430" s="3"/>
       <c r="AC430" s="3"/>
     </row>
-    <row r="431" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -26895,7 +26999,7 @@
       <c r="AB431" s="3"/>
       <c r="AC431" s="3"/>
     </row>
-    <row r="432" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
       <c r="E432" s="3"/>
@@ -26924,7 +27028,7 @@
       <c r="AB432" s="3"/>
       <c r="AC432" s="3"/>
     </row>
-    <row r="433" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
       <c r="E433" s="3"/>
@@ -26953,7 +27057,7 @@
       <c r="AB433" s="3"/>
       <c r="AC433" s="3"/>
     </row>
-    <row r="434" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -26982,7 +27086,7 @@
       <c r="AB434" s="3"/>
       <c r="AC434" s="3"/>
     </row>
-    <row r="435" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -27011,7 +27115,7 @@
       <c r="AB435" s="3"/>
       <c r="AC435" s="3"/>
     </row>
-    <row r="436" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -27040,7 +27144,7 @@
       <c r="AB436" s="3"/>
       <c r="AC436" s="3"/>
     </row>
-    <row r="437" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
       <c r="E437" s="3"/>
@@ -27069,7 +27173,7 @@
       <c r="AB437" s="3"/>
       <c r="AC437" s="3"/>
     </row>
-    <row r="438" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="3"/>
@@ -27098,7 +27202,7 @@
       <c r="AB438" s="3"/>
       <c r="AC438" s="3"/>
     </row>
-    <row r="439" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -27127,7 +27231,7 @@
       <c r="AB439" s="3"/>
       <c r="AC439" s="3"/>
     </row>
-    <row r="440" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -27156,7 +27260,7 @@
       <c r="AB440" s="3"/>
       <c r="AC440" s="3"/>
     </row>
-    <row r="441" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -27185,7 +27289,7 @@
       <c r="AB441" s="3"/>
       <c r="AC441" s="3"/>
     </row>
-    <row r="442" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
@@ -27214,7 +27318,7 @@
       <c r="AB442" s="3"/>
       <c r="AC442" s="3"/>
     </row>
-    <row r="443" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
@@ -27243,7 +27347,7 @@
       <c r="AB443" s="3"/>
       <c r="AC443" s="3"/>
     </row>
-    <row r="444" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -27272,7 +27376,7 @@
       <c r="AB444" s="3"/>
       <c r="AC444" s="3"/>
     </row>
-    <row r="445" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -27301,7 +27405,7 @@
       <c r="AB445" s="3"/>
       <c r="AC445" s="3"/>
     </row>
-    <row r="446" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -27330,7 +27434,7 @@
       <c r="AB446" s="3"/>
       <c r="AC446" s="3"/>
     </row>
-    <row r="447" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
       <c r="E447" s="3"/>
@@ -27359,7 +27463,7 @@
       <c r="AB447" s="3"/>
       <c r="AC447" s="3"/>
     </row>
-    <row r="448" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
       <c r="E448" s="3"/>
@@ -27388,7 +27492,7 @@
       <c r="AB448" s="3"/>
       <c r="AC448" s="3"/>
     </row>
-    <row r="449" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -27417,7 +27521,7 @@
       <c r="AB449" s="3"/>
       <c r="AC449" s="3"/>
     </row>
-    <row r="450" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -27446,7 +27550,7 @@
       <c r="AB450" s="3"/>
       <c r="AC450" s="3"/>
     </row>
-    <row r="451" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -27475,7 +27579,7 @@
       <c r="AB451" s="3"/>
       <c r="AC451" s="3"/>
     </row>
-    <row r="452" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
       <c r="E452" s="3"/>
@@ -27504,7 +27608,7 @@
       <c r="AB452" s="3"/>
       <c r="AC452" s="3"/>
     </row>
-    <row r="453" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
       <c r="E453" s="3"/>
@@ -27533,7 +27637,7 @@
       <c r="AB453" s="3"/>
       <c r="AC453" s="3"/>
     </row>
-    <row r="454" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -27562,7 +27666,7 @@
       <c r="AB454" s="3"/>
       <c r="AC454" s="3"/>
     </row>
-    <row r="455" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -27610,18 +27714,18 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
@@ -27641,7 +27745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -27661,7 +27765,7 @@
         <v>95.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -27682,7 +27786,7 @@
         <v>82.162000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -27720,234 +27824,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC400E0-69CE-4ED2-B351-96998FD18D33}">
   <dimension ref="A1:AO76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:41" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>167</v>
       </c>
       <c r="G3" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="26">
         <f>+Main!J2</f>
         <v>86.5</v>
       </c>
       <c r="L3" t="s">
         <v>117</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="26">
         <f>+J3</f>
         <v>86.5</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <f ca="1">+TODAY()</f>
-        <v>45970</v>
+        <v>45972</v>
       </c>
       <c r="G4" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="28">
         <f ca="1">V62</f>
-        <v>147.19423328168963</v>
+        <v>149.07544726671193</v>
       </c>
       <c r="L4" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="29">
         <f>+J15+O15+T15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="73">
         <v>46022</v>
       </c>
       <c r="G5" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="31">
         <f ca="1">J4/J3-1</f>
-        <v>0.70166743678253907</v>
+        <v>0.72341557533771028</v>
       </c>
       <c r="L5" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="31">
         <f>O4/O3-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-    </row>
-    <row r="8" spans="1:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-    </row>
-    <row r="9" spans="1:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+    </row>
+    <row r="8" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+    </row>
+    <row r="9" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="32"/>
+      <c r="B9" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="G9" s="36" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="G9" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="L9" s="36" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="L9" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="Q9" s="36" t="s">
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="Q9" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-    </row>
-    <row r="10" spans="1:41" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="38" t="s">
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+    </row>
+    <row r="10" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="T10" s="36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="30">
         <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>132</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="37"/>
       <c r="L11" t="s">
         <v>132</v>
       </c>
@@ -27955,11 +28059,11 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>2</v>
       </c>
       <c r="G12" t="s">
@@ -27972,210 +28076,210 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="30">
         <v>2</v>
       </c>
       <c r="G13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="T13" s="40"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="J13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="T13" s="38"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="30">
         <v>2</v>
       </c>
       <c r="G14" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="38"/>
       <c r="L14" t="s">
         <v>137</v>
       </c>
-      <c r="O14" s="40"/>
+      <c r="O14" s="38"/>
       <c r="Q14" t="s">
         <v>137</v>
       </c>
-      <c r="T14" s="40"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="T14" s="38"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="30">
         <v>2</v>
       </c>
       <c r="G15" t="s">
         <v>139</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="38"/>
       <c r="L15" t="s">
         <v>139</v>
       </c>
-      <c r="O15" s="40"/>
+      <c r="O15" s="38"/>
       <c r="Q15" t="s">
         <v>139</v>
       </c>
-      <c r="T15" s="40"/>
-    </row>
-    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
+      <c r="T15" s="38"/>
+    </row>
+    <row r="17" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="38">
         <f>CHOOSE(E13,J18,O18,T18)</f>
         <v>0.09</v>
       </c>
       <c r="G18" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="40"/>
+      <c r="J18" s="38"/>
       <c r="L18" t="s">
         <v>134</v>
       </c>
-      <c r="O18" s="40">
+      <c r="O18" s="38">
         <v>0.09</v>
       </c>
       <c r="Q18" t="s">
         <v>134</v>
       </c>
-      <c r="T18" s="40"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T18" s="38"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="38">
         <f>CHOOSE(E14,J19,O19,T19)</f>
         <v>0.01</v>
       </c>
       <c r="G19" t="s">
         <v>136</v>
       </c>
-      <c r="J19" s="40"/>
+      <c r="J19" s="38"/>
       <c r="L19" t="s">
         <v>136</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="38">
         <v>0.01</v>
       </c>
       <c r="Q19" t="s">
         <v>136</v>
       </c>
-      <c r="T19" s="40"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T19" s="38"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>141</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="38">
         <f>CHOOSE(E15,J20,O20,T20)</f>
         <v>0.1</v>
       </c>
       <c r="G20" t="s">
         <v>141</v>
       </c>
-      <c r="J20" s="40"/>
+      <c r="J20" s="38"/>
       <c r="L20" t="s">
         <v>141</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="38">
         <v>0.1</v>
       </c>
       <c r="Q20" t="s">
         <v>141</v>
       </c>
-      <c r="T20" s="40"/>
-    </row>
-    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="T20" s="38"/>
+    </row>
+    <row r="24" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="41">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="39">
         <v>19</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <f>G24+1</f>
         <v>20</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="39">
         <f t="shared" ref="I24:V24" si="0">H24+1</f>
         <v>21</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="39">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="39">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="39">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="39">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="39">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="39">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="Q24" s="39">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="R24" s="41">
+      <c r="R24" s="39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="S24" s="41">
+      <c r="S24" s="39">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="T24" s="41">
+      <c r="T24" s="39">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="U24" s="41">
+      <c r="U24" s="39">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="V24" s="41">
+      <c r="V24" s="39">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>132</v>
       </c>
@@ -28232,154 +28336,154 @@
         <v>10164.843260246445</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+    <row r="26" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45" t="e">
+      <c r="C26" s="41"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43" t="e">
         <f t="shared" ref="H26:L26" si="2">H25/G25-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="45" t="e">
+      <c r="I26" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="45" t="e">
+      <c r="J26" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="45" t="e">
+      <c r="K26" s="43" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="43">
         <f t="shared" si="2"/>
         <v>5.3969235703077656E-2</v>
       </c>
-      <c r="M26" s="45" cm="1">
+      <c r="M26" s="43" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">OFFSET(M26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="N26" s="45" cm="1">
+      <c r="N26" s="43" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">OFFSET(N26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="O26" s="45" cm="1">
+      <c r="O26" s="43" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">OFFSET(O26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="P26" s="45" cm="1">
+      <c r="P26" s="43" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">OFFSET(P26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="Q26" s="45" cm="1">
+      <c r="Q26" s="43" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">OFFSET(Q26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="R26" s="45" cm="1">
+      <c r="R26" s="43" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">OFFSET(R26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="S26" s="45" cm="1">
+      <c r="S26" s="43" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">OFFSET(S26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="T26" s="45" cm="1">
+      <c r="T26" s="43" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">OFFSET(T26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="U26" s="45" cm="1">
+      <c r="U26" s="43" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">OFFSET(U26,$E$11,,)</f>
         <v>0.01</v>
       </c>
-      <c r="V26" s="45" cm="1">
+      <c r="V26" s="43" cm="1">
         <f t="array" aca="1" ref="V26" ca="1">OFFSET(V26,$E$11,,)</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+    <row r="27" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-    </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
+      <c r="C27" s="41"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+    </row>
+    <row r="28" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="46">
+      <c r="C28" s="41"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="44">
         <v>0.01</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="44">
         <v>0.01</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="44">
         <v>0.01</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="44">
         <v>0.01</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="44">
         <v>0.01</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="44">
         <v>0.01</v>
       </c>
-      <c r="S28" s="46">
+      <c r="S28" s="44">
         <v>0.01</v>
       </c>
-      <c r="T28" s="46">
+      <c r="T28" s="44">
         <v>0.01</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28" s="44">
         <v>0.01</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="44">
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+    <row r="29" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C29" s="41"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>133</v>
       </c>
@@ -28436,141 +28540,141 @@
         <v>1524.7264890369668</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+    <row r="32" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G32" s="45" t="e">
+      <c r="G32" s="43" t="e">
         <f>G31/G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="45" t="e">
+      <c r="H32" s="43" t="e">
         <f t="shared" ref="H32:L32" si="4">H31/H25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="45" t="e">
+      <c r="I32" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="45" t="e">
+      <c r="J32" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="43">
         <f t="shared" si="4"/>
         <v>0.18764388551008482</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="43">
         <f t="shared" si="4"/>
         <v>0.1499875028526097</v>
       </c>
-      <c r="M32" s="45" cm="1">
+      <c r="M32" s="43" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">OFFSET(M32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="N32" s="45" cm="1">
+      <c r="N32" s="43" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">OFFSET(N32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="O32" s="45" cm="1">
+      <c r="O32" s="43" cm="1">
         <f t="array" aca="1" ref="O32" ca="1">OFFSET(O32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="P32" s="45" cm="1">
+      <c r="P32" s="43" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">OFFSET(P32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="Q32" s="45" cm="1">
+      <c r="Q32" s="43" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">OFFSET(Q32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="R32" s="45" cm="1">
+      <c r="R32" s="43" cm="1">
         <f t="array" aca="1" ref="R32" ca="1">OFFSET(R32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="S32" s="45" cm="1">
+      <c r="S32" s="43" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">OFFSET(S32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="T32" s="45" cm="1">
+      <c r="T32" s="43" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">OFFSET(T32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="U32" s="45" cm="1">
+      <c r="U32" s="43" cm="1">
         <f t="array" aca="1" ref="U32" ca="1">OFFSET(U32,$E$12,,)</f>
         <v>0.15</v>
       </c>
-      <c r="V32" s="45" cm="1">
+      <c r="V32" s="43" cm="1">
         <f t="array" aca="1" ref="V32" ca="1">OFFSET(V32,$E$12,,)</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="42" t="s">
+    <row r="33" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="46"/>
-    </row>
-    <row r="34" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="42" t="s">
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+    </row>
+    <row r="34" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="44">
         <v>0.15</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="44">
         <v>0.15</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="44">
         <v>0.15</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="44">
         <v>0.15</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="44">
         <v>0.15</v>
       </c>
-      <c r="R34" s="46">
+      <c r="R34" s="44">
         <v>0.15</v>
       </c>
-      <c r="S34" s="46">
+      <c r="S34" s="44">
         <v>0.15</v>
       </c>
-      <c r="T34" s="46">
+      <c r="T34" s="44">
         <v>0.15</v>
       </c>
-      <c r="U34" s="46">
+      <c r="U34" s="44">
         <v>0.15</v>
       </c>
-      <c r="V34" s="46">
+      <c r="V34" s="44">
         <v>0.15</v>
       </c>
     </row>
-    <row r="35" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+    <row r="35" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>147</v>
       </c>
@@ -28627,122 +28731,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="43" t="s">
+    <row r="38" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="G38" s="45" t="e">
+      <c r="G38" s="43" t="e">
         <f t="shared" ref="G38:L38" si="6">G37/G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="45" t="e">
+      <c r="H38" s="43" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="45" t="e">
+      <c r="I38" s="43" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="45" t="e">
+      <c r="J38" s="43" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="43">
         <f t="shared" si="6"/>
         <v>0.18824391137154373</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="43">
         <f t="shared" si="6"/>
         <v>0.20257933632806843</v>
       </c>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="43"/>
-    </row>
-    <row r="40" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="47" t="s">
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="41"/>
+    </row>
+    <row r="40" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47">
         <f t="shared" ref="G40:V40" si="7">G31-G37</f>
         <v>0</v>
       </c>
-      <c r="H40" s="49">
+      <c r="H40" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J40" s="49">
+      <c r="J40" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K40" s="49">
+      <c r="K40" s="47">
         <f t="shared" si="7"/>
         <v>1329.8999999999996</v>
       </c>
-      <c r="L40" s="49">
+      <c r="L40" s="47">
         <f t="shared" si="7"/>
         <v>1100.5999999999999</v>
       </c>
-      <c r="M40" s="49">
+      <c r="M40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1394.11815</v>
       </c>
-      <c r="N40" s="49">
+      <c r="N40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1408.0593315000003</v>
       </c>
-      <c r="O40" s="49">
+      <c r="O40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1422.1399248150001</v>
       </c>
-      <c r="P40" s="49">
+      <c r="P40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1436.3613240631501</v>
       </c>
-      <c r="Q40" s="49">
+      <c r="Q40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1450.7249373037816</v>
       </c>
-      <c r="R40" s="49">
+      <c r="R40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1465.2321866768195</v>
       </c>
-      <c r="S40" s="49">
+      <c r="S40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1479.8845085435878</v>
       </c>
-      <c r="T40" s="49">
+      <c r="T40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1494.6833536290235</v>
       </c>
-      <c r="U40" s="49">
+      <c r="U40" s="47">
         <f t="shared" ca="1" si="7"/>
         <v>1509.6301871653138</v>
       </c>
-      <c r="V40" s="50">
+      <c r="V40" s="48">
         <f t="shared" ca="1" si="7"/>
         <v>1524.7264890369668</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>150</v>
       </c>
@@ -28799,70 +28903,70 @@
         <v>447.25310345084358</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+    <row r="43" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="51" t="e">
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="49" t="e">
         <f t="shared" ref="G43:L43" si="9">G42/G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="51" t="e">
+      <c r="H43" s="49" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="51" t="e">
+      <c r="I43" s="49" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" s="51" t="e">
+      <c r="J43" s="49" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K43" s="51">
+      <c r="K43" s="49">
         <f t="shared" si="9"/>
         <v>4.2950898532797308E-2</v>
       </c>
-      <c r="L43" s="51">
+      <c r="L43" s="49">
         <f t="shared" si="9"/>
         <v>4.5620021516827682E-2</v>
       </c>
-      <c r="M43" s="52">
+      <c r="M43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="N43" s="52">
+      <c r="N43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="O43" s="52">
+      <c r="O43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="P43" s="52">
+      <c r="P43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Q43" s="52">
+      <c r="Q43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="R43" s="52">
+      <c r="R43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="S43" s="52">
+      <c r="S43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="T43" s="52">
+      <c r="T43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="U43" s="52">
+      <c r="U43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="V43" s="52">
+      <c r="V43" s="50">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>151</v>
       </c>
@@ -28919,66 +29023,66 @@
         <v>-335.43982758813269</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="42" t="s">
+    <row r="46" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="51" t="e">
+      <c r="G46" s="49" t="e">
         <f t="shared" ref="G46:L46" si="11">G45/G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="51" t="e">
+      <c r="H46" s="49" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="51" t="e">
+      <c r="I46" s="49" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="51" t="e">
+      <c r="J46" s="49" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K46" s="51">
+      <c r="K46" s="49">
         <f t="shared" si="11"/>
         <v>-3.5322818953372505E-2</v>
       </c>
-      <c r="L46" s="51">
+      <c r="L46" s="49">
         <f t="shared" si="11"/>
         <v>-2.8721704828245726E-2</v>
       </c>
-      <c r="M46" s="52">
+      <c r="M46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="N46" s="52">
+      <c r="N46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="O46" s="52">
+      <c r="O46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="P46" s="52">
+      <c r="P46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="Q46" s="52">
+      <c r="Q46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="R46" s="52">
+      <c r="R46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="S46" s="52">
+      <c r="S46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="T46" s="52">
+      <c r="T46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="U46" s="52">
+      <c r="U46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="V46" s="52">
+      <c r="V46" s="50">
         <v>-3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>152</v>
       </c>
@@ -29035,635 +29139,635 @@
         <v>-101.64843260246445</v>
       </c>
     </row>
-    <row r="49" spans="2:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="42" t="s">
+    <row r="49" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G49" s="51" t="e">
+      <c r="G49" s="49" t="e">
         <f t="shared" ref="G49:L49" si="13">G48/G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="51" t="e">
+      <c r="H49" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="51" t="e">
+      <c r="I49" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="51" t="e">
+      <c r="J49" s="49" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="51">
+      <c r="K49" s="49">
         <f t="shared" si="13"/>
         <v>-4.2034612697430971E-3</v>
       </c>
-      <c r="L49" s="51">
+      <c r="L49" s="49">
         <f t="shared" si="13"/>
         <v>-1.5040045207072299E-2</v>
       </c>
-      <c r="M49" s="52">
+      <c r="M49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="N49" s="52">
+      <c r="N49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="O49" s="52">
+      <c r="O49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="P49" s="52">
+      <c r="P49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="Q49" s="52">
+      <c r="Q49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="R49" s="52">
+      <c r="R49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="S49" s="52">
+      <c r="S49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="T49" s="52">
+      <c r="T49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="U49" s="52">
+      <c r="U49" s="50">
         <v>-0.01</v>
       </c>
-      <c r="V49" s="52">
+      <c r="V49" s="50">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="51" spans="2:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="53" t="s">
+    <row r="51" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55">
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53">
         <f>G40+G42+G45+G48</f>
         <v>0</v>
       </c>
-      <c r="H51" s="55">
+      <c r="H51" s="53">
         <f t="shared" ref="H51:U51" si="14">H40+H42+H45+H48</f>
         <v>0</v>
       </c>
-      <c r="I51" s="55">
+      <c r="I51" s="53">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J51" s="55">
+      <c r="J51" s="53">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K51" s="55">
+      <c r="K51" s="53">
         <f t="shared" si="14"/>
         <v>1359.7999999999995</v>
       </c>
-      <c r="L51" s="55">
+      <c r="L51" s="53">
         <f t="shared" si="14"/>
         <v>1117.6999999999998</v>
       </c>
-      <c r="M51" s="55">
+      <c r="M51" s="53">
         <f ca="1">M40+M42+M45+M48</f>
         <v>1403.4122710000001</v>
       </c>
-      <c r="N51" s="55">
+      <c r="N51" s="53">
         <f t="shared" ca="1" si="14"/>
         <v>1417.4463937100002</v>
       </c>
-      <c r="O51" s="55">
+      <c r="O51" s="53">
         <f t="shared" ca="1" si="14"/>
         <v>1431.6208576470999</v>
       </c>
-      <c r="P51" s="55">
+      <c r="P51" s="53">
         <f t="shared" ca="1" si="14"/>
         <v>1445.937066223571</v>
       </c>
-      <c r="Q51" s="55">
+      <c r="Q51" s="53">
         <f t="shared" ca="1" si="14"/>
         <v>1460.3964368858067</v>
       </c>
-      <c r="R51" s="55">
+      <c r="R51" s="53">
         <f t="shared" ca="1" si="14"/>
         <v>1475.0004012546649</v>
       </c>
-      <c r="S51" s="55">
+      <c r="S51" s="53">
         <f t="shared" ca="1" si="14"/>
         <v>1489.7504052672116</v>
       </c>
-      <c r="T51" s="55">
+      <c r="T51" s="53">
         <f t="shared" ca="1" si="14"/>
         <v>1504.6479093198836</v>
       </c>
-      <c r="U51" s="55">
+      <c r="U51" s="53">
         <f t="shared" ca="1" si="14"/>
         <v>1519.6943884130826</v>
       </c>
-      <c r="V51" s="56">
+      <c r="V51" s="54">
         <f ca="1">V40+V42+V45+V48</f>
         <v>1534.8913322972132</v>
       </c>
     </row>
-    <row r="52" spans="2:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="57" t="s">
+    <row r="52" spans="2:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59">
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>200.20737096679937</v>
-      </c>
-      <c r="N52" s="59">
+        <v>192.5992751861524</v>
+      </c>
+      <c r="N52" s="57">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>1284.3225138237162</v>
-      </c>
-      <c r="O52" s="59">
+        <v>1284.9375496822936</v>
+      </c>
+      <c r="O52" s="57">
         <f t="shared" ref="O52:U52" ca="1" si="15">O51/(1+$E$18)^O53</f>
-        <v>1190.060310974269</v>
-      </c>
-      <c r="P52" s="59">
+        <v>1190.6302065863451</v>
+      </c>
+      <c r="P52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>1102.7164349394602</v>
-      </c>
-      <c r="Q52" s="59">
+        <v>1103.2445033506501</v>
+      </c>
+      <c r="Q52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>1021.7831186136283</v>
-      </c>
-      <c r="R52" s="59">
+        <v>1022.2724297102352</v>
+      </c>
+      <c r="R52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>946.7898622016188</v>
-      </c>
-      <c r="S52" s="59">
+        <v>947.24326055719041</v>
+      </c>
+      <c r="S52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>877.30069800333479</v>
-      </c>
-      <c r="T52" s="59">
+        <v>877.72081941537829</v>
+      </c>
+      <c r="T52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>812.91165594804409</v>
-      </c>
-      <c r="U52" s="59">
+        <v>813.30094276103853</v>
+      </c>
+      <c r="U52" s="57">
         <f t="shared" ca="1" si="15"/>
-        <v>753.24841514451794</v>
-      </c>
-      <c r="V52" s="60">
+        <v>753.6091304483017</v>
+      </c>
+      <c r="V52" s="58">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>697.96412779446143</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+        <v>698.29836858053636</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>155</v>
       </c>
-      <c r="M53" s="82">
+      <c r="M53" s="74">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.14444444444444443</v>
-      </c>
-      <c r="N53" s="82">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="N53" s="74">
         <f ca="1">M53+1</f>
-        <v>1.1444444444444444</v>
-      </c>
-      <c r="O53" s="82">
+        <v>1.1388888888888888</v>
+      </c>
+      <c r="O53" s="74">
         <f ca="1">N53+1</f>
-        <v>2.1444444444444444</v>
-      </c>
-      <c r="P53" s="82">
+        <v>2.1388888888888888</v>
+      </c>
+      <c r="P53" s="74">
         <f t="shared" ref="P53:V53" ca="1" si="16">O53+1</f>
-        <v>3.1444444444444444</v>
-      </c>
-      <c r="Q53" s="82">
+        <v>3.1388888888888888</v>
+      </c>
+      <c r="Q53" s="74">
         <f t="shared" ca="1" si="16"/>
-        <v>4.1444444444444439</v>
-      </c>
-      <c r="R53" s="82">
+        <v>4.1388888888888893</v>
+      </c>
+      <c r="R53" s="74">
         <f t="shared" ca="1" si="16"/>
-        <v>5.1444444444444439</v>
-      </c>
-      <c r="S53" s="82">
+        <v>5.1388888888888893</v>
+      </c>
+      <c r="S53" s="74">
         <f t="shared" ca="1" si="16"/>
-        <v>6.1444444444444439</v>
-      </c>
-      <c r="T53" s="82">
+        <v>6.1388888888888893</v>
+      </c>
+      <c r="T53" s="74">
         <f t="shared" ca="1" si="16"/>
-        <v>7.1444444444444439</v>
-      </c>
-      <c r="U53" s="82">
+        <v>7.1388888888888893</v>
+      </c>
+      <c r="U53" s="74">
         <f t="shared" ca="1" si="16"/>
-        <v>8.1444444444444439</v>
-      </c>
-      <c r="V53" s="82">
+        <v>8.1388888888888893</v>
+      </c>
+      <c r="V53" s="74">
         <f t="shared" ca="1" si="16"/>
-        <v>9.1444444444444439</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+        <v>9.1388888888888893</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>156</v>
       </c>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
       <c r="V54" s="3">
         <f ca="1">SUM(M52:V52)</f>
-        <v>8887.3045084098521</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+        <v>8883.8564862781204</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>157</v>
       </c>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="61"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
       <c r="V55" s="3">
         <f ca="1">+(V40*(1+E19))*(1-(E19/E20))/(E18-E19)</f>
         <v>17324.704731682534</v>
       </c>
-      <c r="X55" s="62" t="s">
+      <c r="X55" s="60" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B56" s="19" t="s">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="63"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="64">
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="62">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>7878.0967570177818</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B57" s="65" t="s">
+        <v>7881.8694168837847</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="66"/>
-      <c r="R57" s="66"/>
-      <c r="S57" s="66"/>
-      <c r="T57" s="66"/>
-      <c r="U57" s="66"/>
-      <c r="V57" s="67">
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="65">
         <f ca="1">V54+V56</f>
-        <v>16765.401265427634</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+        <v>16765.725903161903</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>161</v>
       </c>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="61"/>
-      <c r="V58" s="68">
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="V58" s="66">
         <f>+Main!J5</f>
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B59" s="19" t="s">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="63"/>
-      <c r="V59" s="64">
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="62">
         <f>+Main!J6</f>
-        <v>5226.3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+        <v>5104.8999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>163</v>
       </c>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="V60" s="68">
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="V60" s="66">
         <f ca="1">V57+V58-V59</f>
-        <v>11607.001265427636</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B61" s="19" t="s">
+        <v>11758.325903161904</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="63"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="63"/>
-      <c r="V61" s="64">
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="61"/>
+      <c r="U61" s="61"/>
+      <c r="V61" s="62">
         <f>+Main!J3</f>
-        <v>78.855000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+        <v>78.875</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>117</v>
       </c>
-      <c r="V62" s="68">
+      <c r="V62" s="66">
         <f ca="1">V60/V61</f>
-        <v>147.19423328168963</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
+        <v>149.07544726671193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-    </row>
-    <row r="68" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B68" s="69"/>
-      <c r="C68" s="70" t="s">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+    </row>
+    <row r="68" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="67"/>
+      <c r="C68" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="71"/>
-      <c r="M68" s="69"/>
-      <c r="N68" s="72" t="s">
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="76"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="O68" s="72"/>
-      <c r="P68" s="72"/>
-      <c r="Q68" s="72"/>
-      <c r="R68" s="72"/>
-      <c r="S68" s="72"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="73"/>
-    </row>
-    <row r="69" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B69" s="74" t="s">
+      <c r="O68" s="77"/>
+      <c r="P68" s="77"/>
+      <c r="Q68" s="77"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
+      <c r="T68" s="77"/>
+      <c r="U68" s="78"/>
+    </row>
+    <row r="69" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="75">
+      <c r="C69" s="68">
         <f ca="1">+J4</f>
-        <v>147.19423328168963</v>
-      </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76"/>
-      <c r="J69" s="76"/>
-      <c r="M69" s="74" t="s">
+        <v>149.07544726671193</v>
+      </c>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="M69" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="N69" s="75">
+      <c r="N69" s="68">
         <f ca="1">+J4</f>
-        <v>147.19423328168963</v>
-      </c>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="76"/>
-      <c r="S69" s="76"/>
-      <c r="T69" s="76"/>
-      <c r="U69" s="76"/>
-    </row>
-    <row r="70" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B70" s="74"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="77"/>
-      <c r="O70" s="78"/>
-      <c r="P70" s="78"/>
-      <c r="Q70" s="78"/>
-      <c r="R70" s="79"/>
-      <c r="S70" s="78"/>
-      <c r="T70" s="78"/>
-      <c r="U70" s="78"/>
-    </row>
-    <row r="71" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B71" s="74"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="M71" s="74"/>
-      <c r="N71" s="77"/>
-      <c r="O71" s="78"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="78"/>
-      <c r="R71" s="79"/>
-      <c r="S71" s="78"/>
-      <c r="T71" s="78"/>
-      <c r="U71" s="78"/>
-    </row>
-    <row r="72" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B72" s="74"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="79"/>
-      <c r="M72" s="74"/>
-      <c r="N72" s="77"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="79"/>
-      <c r="R72" s="79"/>
-      <c r="S72" s="79"/>
-      <c r="T72" s="79"/>
-      <c r="U72" s="79"/>
-    </row>
-    <row r="73" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B73" s="74"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="M73" s="74"/>
-      <c r="N73" s="77"/>
-      <c r="O73" s="78"/>
-      <c r="P73" s="78"/>
-      <c r="Q73" s="78"/>
-      <c r="R73" s="79"/>
-      <c r="S73" s="78"/>
-      <c r="T73" s="78"/>
-      <c r="U73" s="78"/>
-    </row>
-    <row r="74" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B74" s="74"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="77"/>
-      <c r="O74" s="78"/>
-      <c r="P74" s="78"/>
-      <c r="Q74" s="78"/>
-      <c r="R74" s="79"/>
-      <c r="S74" s="78"/>
-      <c r="T74" s="78"/>
-      <c r="U74" s="78"/>
-    </row>
-    <row r="75" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B75" s="74"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="77"/>
-      <c r="O75" s="78"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="78"/>
-      <c r="R75" s="79"/>
-      <c r="S75" s="78"/>
-      <c r="T75" s="78"/>
-      <c r="U75" s="78"/>
-    </row>
-    <row r="76" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+        <v>149.07544726671193</v>
+      </c>
+      <c r="O69" s="69"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="69"/>
+      <c r="S69" s="69"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="69"/>
+    </row>
+    <row r="70" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="79"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="70"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="72"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="71"/>
+    </row>
+    <row r="71" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B71" s="79"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="70"/>
+      <c r="O71" s="71"/>
+      <c r="P71" s="71"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="72"/>
+      <c r="S71" s="71"/>
+      <c r="T71" s="71"/>
+      <c r="U71" s="71"/>
+    </row>
+    <row r="72" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B72" s="79"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="72"/>
+      <c r="P72" s="72"/>
+      <c r="Q72" s="72"/>
+      <c r="R72" s="72"/>
+      <c r="S72" s="72"/>
+      <c r="T72" s="72"/>
+      <c r="U72" s="72"/>
+    </row>
+    <row r="73" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B73" s="79"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="71"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="71"/>
+      <c r="P73" s="71"/>
+      <c r="Q73" s="71"/>
+      <c r="R73" s="72"/>
+      <c r="S73" s="71"/>
+      <c r="T73" s="71"/>
+      <c r="U73" s="71"/>
+    </row>
+    <row r="74" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="79"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="71"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="70"/>
+      <c r="O74" s="71"/>
+      <c r="P74" s="71"/>
+      <c r="Q74" s="71"/>
+      <c r="R74" s="72"/>
+      <c r="S74" s="71"/>
+      <c r="T74" s="71"/>
+      <c r="U74" s="71"/>
+    </row>
+    <row r="75" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="79"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="71"/>
+      <c r="J75" s="71"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="70"/>
+      <c r="O75" s="71"/>
+      <c r="P75" s="71"/>
+      <c r="Q75" s="71"/>
+      <c r="R75" s="72"/>
+      <c r="S75" s="71"/>
+      <c r="T75" s="71"/>
+      <c r="U75" s="71"/>
+    </row>
+    <row r="76" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B76" s="80"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="79"/>
-      <c r="H76" s="78"/>
-      <c r="I76" s="78"/>
-      <c r="J76" s="78"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
       <c r="M76" s="80"/>
-      <c r="N76" s="77"/>
-      <c r="O76" s="78"/>
-      <c r="P76" s="78"/>
-      <c r="Q76" s="78"/>
-      <c r="R76" s="79"/>
-      <c r="S76" s="78"/>
-      <c r="T76" s="78"/>
-      <c r="U76" s="78"/>
+      <c r="N76" s="70"/>
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="72"/>
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
+      <c r="U76" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
